--- a/XFoil_Data.xlsx
+++ b/XFoil_Data.xlsx
@@ -24,15 +24,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="3">
-  <si>
-    <t>alpha(deg)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="8">
   <si>
     <t>x</t>
   </si>
   <si>
     <t>Cp</t>
+  </si>
+  <si>
+    <t>alpha(deg)_1</t>
+  </si>
+  <si>
+    <t>alpha(deg)_2</t>
+  </si>
+  <si>
+    <t>alpha(deg)_3</t>
+  </si>
+  <si>
+    <t>alpha(deg)_4</t>
+  </si>
+  <si>
+    <t>alpha(deg)_5</t>
+  </si>
+  <si>
+    <t>alpha(deg)_6</t>
   </si>
 </sst>
 </file>
@@ -392,8 +407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R251"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+    <sheetView tabSelected="1" topLeftCell="A158" workbookViewId="0">
+      <selection activeCell="K177" sqref="K177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -408,58 +423,58 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>2</v>
-      </c>
       <c r="G1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>2</v>
-      </c>
       <c r="J1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="5" t="s">
-        <v>2</v>
-      </c>
       <c r="M1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="5" t="s">
-        <v>2</v>
-      </c>
       <c r="P1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>1</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">

--- a/XFoil_Data.xlsx
+++ b/XFoil_Data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t>x</t>
   </si>
@@ -49,6 +49,12 @@
   <si>
     <t>alpha(deg)_6</t>
   </si>
+  <si>
+    <t xml:space="preserve">x </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cp </t>
+  </si>
 </sst>
 </file>
 
@@ -72,7 +78,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -108,6 +114,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -116,14 +133,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -405,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R251"/>
+  <dimension ref="A1:R161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A158" workbookViewId="0">
-      <selection activeCell="K177" sqref="K177"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="U16" sqref="U16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -422,58 +437,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="5" t="s">
+      <c r="G1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="I1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="5" t="s">
+      <c r="J1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="L1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="5" t="s">
+      <c r="M1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="O1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1" s="5" t="s">
+      <c r="P1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -487,7 +502,7 @@
       <c r="C2" s="2">
         <v>0.21418000000000001</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="4">
         <v>2</v>
       </c>
       <c r="E2" s="2">
@@ -496,16 +511,16 @@
       <c r="F2" s="2">
         <v>0.12033000000000001</v>
       </c>
-      <c r="G2" s="3">
-        <v>6</v>
-      </c>
-      <c r="H2" s="4">
+      <c r="G2" s="5">
+        <v>6</v>
+      </c>
+      <c r="H2" s="2">
         <v>0.99975000000000003</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="2">
         <v>0.15872</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="4">
         <v>9</v>
       </c>
       <c r="K2" s="2">
@@ -514,16 +529,16 @@
       <c r="L2" s="2">
         <v>6.1060000000000003E-2</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M2" s="4">
         <v>14</v>
       </c>
       <c r="N2" s="2">
         <v>0.99975000000000003</v>
       </c>
       <c r="O2" s="2">
-        <v>-0.24696000000000001</v>
-      </c>
-      <c r="P2" s="2">
+        <v>2.0320000000000001E-2</v>
+      </c>
+      <c r="P2" s="4">
         <v>15</v>
       </c>
       <c r="Q2" s="2">
@@ -543,7 +558,7 @@
       <c r="C3" s="2">
         <v>0.20776</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="4">
         <v>2</v>
       </c>
       <c r="E3" s="2">
@@ -552,7 +567,7 @@
       <c r="F3" s="2">
         <v>0.10682</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="5">
         <v>6</v>
       </c>
       <c r="H3" s="2">
@@ -561,7 +576,7 @@
       <c r="I3" s="2">
         <v>0.15431</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="4">
         <v>9</v>
       </c>
       <c r="K3" s="2">
@@ -570,23 +585,23 @@
       <c r="L3" s="2">
         <v>6.0269999999999997E-2</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3" s="4">
         <v>14</v>
       </c>
       <c r="N3" s="2">
-        <v>0.99877000000000005</v>
+        <v>0.99817</v>
       </c>
       <c r="O3" s="2">
-        <v>-0.24717</v>
-      </c>
-      <c r="P3" s="2">
+        <v>2.0039999999999999E-2</v>
+      </c>
+      <c r="P3" s="4">
         <v>15</v>
       </c>
       <c r="Q3" s="2">
         <v>0.99817</v>
       </c>
       <c r="R3" s="2">
-        <v>-5.8380000000000001E-2</v>
+        <v>-5.8389999999999997E-2</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
@@ -599,7 +614,7 @@
       <c r="C4" s="2">
         <v>0.20415</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="4">
         <v>2</v>
       </c>
       <c r="E4" s="2">
@@ -608,7 +623,7 @@
       <c r="F4" s="2">
         <v>0.10616</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="5">
         <v>6</v>
       </c>
       <c r="H4" s="2">
@@ -617,7 +632,7 @@
       <c r="I4" s="2">
         <v>0.15171000000000001</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="4">
         <v>9</v>
       </c>
       <c r="K4" s="2">
@@ -626,23 +641,23 @@
       <c r="L4" s="2">
         <v>5.9080000000000001E-2</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M4" s="4">
         <v>14</v>
       </c>
       <c r="N4" s="2">
-        <v>0.99709000000000003</v>
+        <v>0.99517</v>
       </c>
       <c r="O4" s="2">
-        <v>-0.24756</v>
-      </c>
-      <c r="P4" s="2">
+        <v>1.9570000000000001E-2</v>
+      </c>
+      <c r="P4" s="4">
         <v>15</v>
       </c>
       <c r="Q4" s="2">
         <v>0.99517</v>
       </c>
       <c r="R4" s="2">
-        <v>-5.8840000000000003E-2</v>
+        <v>-5.885E-2</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
@@ -655,7 +670,7 @@
       <c r="C5" s="2">
         <v>0.20254</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="4">
         <v>2</v>
       </c>
       <c r="E5" s="2">
@@ -664,7 +679,7 @@
       <c r="F5" s="2">
         <v>0.10845</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="5">
         <v>6</v>
       </c>
       <c r="H5" s="2">
@@ -673,7 +688,7 @@
       <c r="I5" s="2">
         <v>0.14838000000000001</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="4">
         <v>9</v>
       </c>
       <c r="K5" s="2">
@@ -682,16 +697,16 @@
       <c r="L5" s="2">
         <v>5.7360000000000001E-2</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5" s="4">
         <v>14</v>
       </c>
       <c r="N5" s="2">
-        <v>0.99504999999999999</v>
+        <v>0.9909</v>
       </c>
       <c r="O5" s="2">
-        <v>-0.24804000000000001</v>
-      </c>
-      <c r="P5" s="2">
+        <v>1.8919999999999999E-2</v>
+      </c>
+      <c r="P5" s="4">
         <v>15</v>
       </c>
       <c r="Q5" s="2">
@@ -711,7 +726,7 @@
       <c r="C6" s="2">
         <v>0.1983</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="4">
         <v>2</v>
       </c>
       <c r="E6" s="2">
@@ -720,7 +735,7 @@
       <c r="F6" s="2">
         <v>0.10836999999999999</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="5">
         <v>6</v>
       </c>
       <c r="H6" s="2">
@@ -729,7 +744,7 @@
       <c r="I6" s="2">
         <v>0.14247000000000001</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="4">
         <v>9</v>
       </c>
       <c r="K6" s="2">
@@ -738,16 +753,16 @@
       <c r="L6" s="2">
         <v>5.4739999999999997E-2</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6" s="4">
         <v>14</v>
       </c>
       <c r="N6" s="2">
-        <v>0.99248000000000003</v>
+        <v>0.98458000000000001</v>
       </c>
       <c r="O6" s="2">
-        <v>-0.24862999999999999</v>
-      </c>
-      <c r="P6" s="2">
+        <v>1.796E-2</v>
+      </c>
+      <c r="P6" s="4">
         <v>15</v>
       </c>
       <c r="Q6" s="2">
@@ -767,7 +782,7 @@
       <c r="C7" s="2">
         <v>0.19075</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="4">
         <v>2</v>
       </c>
       <c r="E7" s="2">
@@ -776,7 +791,7 @@
       <c r="F7" s="2">
         <v>0.10398</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="5">
         <v>6</v>
       </c>
       <c r="H7" s="2">
@@ -785,7 +800,7 @@
       <c r="I7" s="2">
         <v>0.13242000000000001</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="4">
         <v>9</v>
       </c>
       <c r="K7" s="2">
@@ -794,23 +809,23 @@
       <c r="L7" s="2">
         <v>5.0729999999999997E-2</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7" s="4">
         <v>14</v>
       </c>
       <c r="N7" s="2">
-        <v>0.98916999999999999</v>
+        <v>0.97541999999999995</v>
       </c>
       <c r="O7" s="2">
-        <v>-0.24940999999999999</v>
-      </c>
-      <c r="P7" s="2">
+        <v>1.6590000000000001E-2</v>
+      </c>
+      <c r="P7" s="4">
         <v>15</v>
       </c>
       <c r="Q7" s="2">
         <v>0.97541999999999995</v>
       </c>
       <c r="R7" s="2">
-        <v>-6.1800000000000001E-2</v>
+        <v>-6.1809999999999997E-2</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
@@ -823,7 +838,7 @@
       <c r="C8" s="2">
         <v>0.17848</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="4">
         <v>2</v>
       </c>
       <c r="E8" s="2">
@@ -832,7 +847,7 @@
       <c r="F8" s="2">
         <v>9.468E-2</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="5">
         <v>6</v>
       </c>
       <c r="H8" s="2">
@@ -841,7 +856,7 @@
       <c r="I8" s="2">
         <v>0.1177</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="4">
         <v>9</v>
       </c>
       <c r="K8" s="2">
@@ -850,23 +865,23 @@
       <c r="L8" s="2">
         <v>4.496E-2</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8" s="4">
         <v>14</v>
       </c>
       <c r="N8" s="2">
-        <v>0.98492000000000002</v>
+        <v>0.96311000000000002</v>
       </c>
       <c r="O8" s="2">
-        <v>-0.25040000000000001</v>
-      </c>
-      <c r="P8" s="2">
+        <v>1.4760000000000001E-2</v>
+      </c>
+      <c r="P8" s="4">
         <v>15</v>
       </c>
       <c r="Q8" s="2">
         <v>0.96311000000000002</v>
       </c>
       <c r="R8" s="2">
-        <v>-6.3640000000000002E-2</v>
+        <v>-6.3649999999999998E-2</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
@@ -879,7 +894,7 @@
       <c r="C9" s="2">
         <v>0.16170999999999999</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="4">
         <v>2</v>
       </c>
       <c r="E9" s="2">
@@ -888,7 +903,7 @@
       <c r="F9" s="2">
         <v>8.2629999999999995E-2</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="5">
         <v>6</v>
       </c>
       <c r="H9" s="2">
@@ -897,7 +912,7 @@
       <c r="I9" s="2">
         <v>0.10034</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="4">
         <v>9</v>
       </c>
       <c r="K9" s="2">
@@ -906,23 +921,23 @@
       <c r="L9" s="2">
         <v>3.7909999999999999E-2</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M9" s="4">
         <v>14</v>
       </c>
       <c r="N9" s="2">
-        <v>0.97953999999999997</v>
+        <v>0.94928000000000001</v>
       </c>
       <c r="O9" s="2">
-        <v>-0.25164999999999998</v>
-      </c>
-      <c r="P9" s="2">
+        <v>1.269E-2</v>
+      </c>
+      <c r="P9" s="4">
         <v>15</v>
       </c>
       <c r="Q9" s="2">
         <v>0.94928000000000001</v>
       </c>
       <c r="R9" s="2">
-        <v>-6.5720000000000001E-2</v>
+        <v>-6.5729999999999997E-2</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
@@ -935,7 +950,7 @@
       <c r="C10" s="2">
         <v>0.13827999999999999</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="4">
         <v>2</v>
       </c>
       <c r="E10" s="2">
@@ -944,7 +959,7 @@
       <c r="F10" s="2">
         <v>6.8239999999999995E-2</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="5">
         <v>6</v>
       </c>
       <c r="H10" s="2">
@@ -953,7 +968,7 @@
       <c r="I10" s="2">
         <v>8.1089999999999995E-2</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="4">
         <v>9</v>
       </c>
       <c r="K10" s="2">
@@ -962,23 +977,23 @@
       <c r="L10" s="2">
         <v>2.9819999999999999E-2</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M10" s="4">
         <v>14</v>
       </c>
       <c r="N10" s="2">
-        <v>0.97277999999999998</v>
+        <v>0.93498000000000003</v>
       </c>
       <c r="O10" s="2">
-        <v>-0.25322</v>
-      </c>
-      <c r="P10" s="2">
+        <v>1.056E-2</v>
+      </c>
+      <c r="P10" s="4">
         <v>15</v>
       </c>
       <c r="Q10" s="2">
         <v>0.93498000000000003</v>
       </c>
       <c r="R10" s="2">
-        <v>-6.7890000000000006E-2</v>
+        <v>-6.7900000000000002E-2</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
@@ -991,7 +1006,7 @@
       <c r="C11" s="2">
         <v>0.10442</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="4">
         <v>2</v>
       </c>
       <c r="E11" s="2">
@@ -1000,7 +1015,7 @@
       <c r="F11" s="2">
         <v>5.2229999999999999E-2</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="5">
         <v>6</v>
       </c>
       <c r="H11" s="2">
@@ -1009,7 +1024,7 @@
       <c r="I11" s="2">
         <v>6.0330000000000002E-2</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="4">
         <v>9</v>
       </c>
       <c r="K11" s="2">
@@ -1018,16 +1033,16 @@
       <c r="L11" s="2">
         <v>2.069E-2</v>
       </c>
-      <c r="M11" s="1">
+      <c r="M11" s="4">
         <v>14</v>
       </c>
       <c r="N11" s="2">
-        <v>0.96477999999999997</v>
+        <v>0.92049999999999998</v>
       </c>
       <c r="O11" s="2">
-        <v>-0.25507000000000002</v>
-      </c>
-      <c r="P11" s="2">
+        <v>8.3899999999999999E-3</v>
+      </c>
+      <c r="P11" s="4">
         <v>15</v>
       </c>
       <c r="Q11" s="2">
@@ -1047,7 +1062,7 @@
       <c r="C12" s="2">
         <v>5.5469999999999998E-2</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="4">
         <v>2</v>
       </c>
       <c r="E12" s="2">
@@ -1056,7 +1071,7 @@
       <c r="F12" s="2">
         <v>3.653E-2</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="5">
         <v>6</v>
       </c>
       <c r="H12" s="2">
@@ -1065,7 +1080,7 @@
       <c r="I12" s="2">
         <v>3.9120000000000002E-2</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="4">
         <v>9</v>
       </c>
       <c r="K12" s="2">
@@ -1074,16 +1089,16 @@
       <c r="L12" s="2">
         <v>1.0540000000000001E-2</v>
       </c>
-      <c r="M12" s="1">
+      <c r="M12" s="4">
         <v>14</v>
       </c>
       <c r="N12" s="2">
-        <v>0.95613000000000004</v>
+        <v>0.90593000000000001</v>
       </c>
       <c r="O12" s="2">
-        <v>-0.25707999999999998</v>
-      </c>
-      <c r="P12" s="2">
+        <v>6.1900000000000002E-3</v>
+      </c>
+      <c r="P12" s="4">
         <v>15</v>
       </c>
       <c r="Q12" s="2">
@@ -1103,7 +1118,7 @@
       <c r="C13" s="2">
         <v>-1.3820000000000001E-2</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="4">
         <v>2</v>
       </c>
       <c r="E13" s="2">
@@ -1112,7 +1127,7 @@
       <c r="F13" s="2">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="5">
         <v>6</v>
       </c>
       <c r="H13" s="2">
@@ -1121,7 +1136,7 @@
       <c r="I13" s="2">
         <v>1.7569999999999999E-2</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="4">
         <v>9</v>
       </c>
       <c r="K13" s="2">
@@ -1130,16 +1145,16 @@
       <c r="L13" s="2">
         <v>-6.8000000000000005E-4</v>
       </c>
-      <c r="M13" s="1">
+      <c r="M13" s="4">
         <v>14</v>
       </c>
       <c r="N13" s="2">
-        <v>0.94716</v>
+        <v>0.89132</v>
       </c>
       <c r="O13" s="2">
-        <v>-0.25916</v>
-      </c>
-      <c r="P13" s="2">
+        <v>3.98E-3</v>
+      </c>
+      <c r="P13" s="4">
         <v>15</v>
       </c>
       <c r="Q13" s="2">
@@ -1159,7 +1174,7 @@
       <c r="C14" s="2">
         <v>-8.8639999999999997E-2</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="4">
         <v>2</v>
       </c>
       <c r="E14" s="2">
@@ -1168,7 +1183,7 @@
       <c r="F14" s="2">
         <v>5.6100000000000004E-3</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="5">
         <v>6</v>
       </c>
       <c r="H14" s="2">
@@ -1177,7 +1192,7 @@
       <c r="I14" s="2">
         <v>-4.5700000000000003E-3</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="4">
         <v>9</v>
       </c>
       <c r="K14" s="2">
@@ -1186,16 +1201,16 @@
       <c r="L14" s="2">
         <v>-1.3089999999999999E-2</v>
       </c>
-      <c r="M14" s="1">
+      <c r="M14" s="4">
         <v>14</v>
       </c>
       <c r="N14" s="2">
-        <v>0.93803999999999998</v>
+        <v>0.87668000000000001</v>
       </c>
       <c r="O14" s="2">
-        <v>-0.26127</v>
-      </c>
-      <c r="P14" s="2">
+        <v>1.73E-3</v>
+      </c>
+      <c r="P14" s="4">
         <v>15</v>
       </c>
       <c r="Q14" s="2">
@@ -1215,7 +1230,7 @@
       <c r="C15" s="2">
         <v>-0.11796</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="4">
         <v>2</v>
       </c>
       <c r="E15" s="2">
@@ -1224,7 +1239,7 @@
       <c r="F15" s="2">
         <v>-9.5099999999999994E-3</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="5">
         <v>6</v>
       </c>
       <c r="H15" s="2">
@@ -1233,7 +1248,7 @@
       <c r="I15" s="2">
         <v>-2.7140000000000001E-2</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15" s="4">
         <v>9</v>
       </c>
       <c r="K15" s="2">
@@ -1242,16 +1257,16 @@
       <c r="L15" s="2">
         <v>-2.6710000000000001E-2</v>
       </c>
-      <c r="M15" s="1">
+      <c r="M15" s="4">
         <v>14</v>
       </c>
       <c r="N15" s="2">
-        <v>0.92884</v>
+        <v>0.86199999999999999</v>
       </c>
       <c r="O15" s="2">
-        <v>-0.26341999999999999</v>
-      </c>
-      <c r="P15" s="2">
+        <v>-5.2999999999999998E-4</v>
+      </c>
+      <c r="P15" s="4">
         <v>15</v>
       </c>
       <c r="Q15" s="2">
@@ -1271,7 +1286,7 @@
       <c r="C16" s="2">
         <v>-0.12084</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="4">
         <v>2</v>
       </c>
       <c r="E16" s="2">
@@ -1280,7 +1295,7 @@
       <c r="F16" s="2">
         <v>-2.418E-2</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="5">
         <v>6</v>
       </c>
       <c r="H16" s="2">
@@ -1289,7 +1304,7 @@
       <c r="I16" s="2">
         <v>-4.9770000000000002E-2</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16" s="4">
         <v>9</v>
       </c>
       <c r="K16" s="2">
@@ -1298,23 +1313,23 @@
       <c r="L16" s="2">
         <v>-4.1529999999999997E-2</v>
       </c>
-      <c r="M16" s="1">
+      <c r="M16" s="4">
         <v>14</v>
       </c>
       <c r="N16" s="2">
-        <v>0.91959999999999997</v>
+        <v>0.84731000000000001</v>
       </c>
       <c r="O16" s="2">
-        <v>-0.26557999999999998</v>
-      </c>
-      <c r="P16" s="2">
+        <v>-2.8300000000000001E-3</v>
+      </c>
+      <c r="P16" s="4">
         <v>15</v>
       </c>
       <c r="Q16" s="2">
         <v>0.84731000000000001</v>
       </c>
       <c r="R16" s="2">
-        <v>-8.183E-2</v>
+        <v>-8.1839999999999996E-2</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
@@ -1327,7 +1342,7 @@
       <c r="C17" s="2">
         <v>-0.12346</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="4">
         <v>2</v>
       </c>
       <c r="E17" s="2">
@@ -1336,7 +1351,7 @@
       <c r="F17" s="2">
         <v>-3.848E-2</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="5">
         <v>6</v>
       </c>
       <c r="H17" s="2">
@@ -1345,25 +1360,25 @@
       <c r="I17" s="2">
         <v>-7.2590000000000002E-2</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17" s="4">
         <v>9</v>
       </c>
       <c r="K17" s="2">
         <v>0.83259000000000005</v>
       </c>
       <c r="L17" s="2">
-        <v>-5.7549999999999997E-2</v>
-      </c>
-      <c r="M17" s="1">
+        <v>-5.756E-2</v>
+      </c>
+      <c r="M17" s="4">
         <v>14</v>
       </c>
       <c r="N17" s="2">
-        <v>0.91032000000000002</v>
+        <v>0.83259000000000005</v>
       </c>
       <c r="O17" s="2">
-        <v>-0.26776</v>
-      </c>
-      <c r="P17" s="2">
+        <v>-5.1500000000000001E-3</v>
+      </c>
+      <c r="P17" s="4">
         <v>15</v>
       </c>
       <c r="Q17" s="2">
@@ -1383,7 +1398,7 @@
       <c r="C18" s="2">
         <v>-0.12594</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="4">
         <v>2</v>
       </c>
       <c r="E18" s="2">
@@ -1392,7 +1407,7 @@
       <c r="F18" s="2">
         <v>-5.3659999999999999E-2</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="5">
         <v>6</v>
       </c>
       <c r="H18" s="2">
@@ -1401,7 +1416,7 @@
       <c r="I18" s="2">
         <v>-9.5740000000000006E-2</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18" s="4">
         <v>9</v>
       </c>
       <c r="K18" s="2">
@@ -1410,16 +1425,16 @@
       <c r="L18" s="2">
         <v>-7.4819999999999998E-2</v>
       </c>
-      <c r="M18" s="1">
+      <c r="M18" s="4">
         <v>14</v>
       </c>
       <c r="N18" s="2">
-        <v>0.90102000000000004</v>
+        <v>0.81789000000000001</v>
       </c>
       <c r="O18" s="2">
-        <v>-0.26995999999999998</v>
-      </c>
-      <c r="P18" s="2">
+        <v>-7.4900000000000001E-3</v>
+      </c>
+      <c r="P18" s="4">
         <v>15</v>
       </c>
       <c r="Q18" s="2">
@@ -1439,7 +1454,7 @@
       <c r="C19" s="2">
         <v>-0.12839999999999999</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="4">
         <v>2</v>
       </c>
       <c r="E19" s="2">
@@ -1448,7 +1463,7 @@
       <c r="F19" s="2">
         <v>-7.0849999999999996E-2</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="5">
         <v>6</v>
       </c>
       <c r="H19" s="2">
@@ -1457,7 +1472,7 @@
       <c r="I19" s="2">
         <v>-0.11873</v>
       </c>
-      <c r="J19" s="1">
+      <c r="J19" s="4">
         <v>9</v>
       </c>
       <c r="K19" s="2">
@@ -1466,23 +1481,23 @@
       <c r="L19" s="2">
         <v>-9.3160000000000007E-2</v>
       </c>
-      <c r="M19" s="1">
+      <c r="M19" s="4">
         <v>14</v>
       </c>
       <c r="N19" s="2">
-        <v>0.89170000000000005</v>
+        <v>0.80320000000000003</v>
       </c>
       <c r="O19" s="2">
-        <v>-0.27217000000000002</v>
-      </c>
-      <c r="P19" s="2">
+        <v>-9.8700000000000003E-3</v>
+      </c>
+      <c r="P19" s="4">
         <v>15</v>
       </c>
       <c r="Q19" s="2">
         <v>0.80320000000000003</v>
       </c>
       <c r="R19" s="2">
-        <v>-8.9389999999999997E-2</v>
+        <v>-8.9399999999999993E-2</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
@@ -1495,7 +1510,7 @@
       <c r="C20" s="2">
         <v>-0.13092000000000001</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="4">
         <v>2</v>
       </c>
       <c r="E20" s="2">
@@ -1504,7 +1519,7 @@
       <c r="F20" s="2">
         <v>-9.3390000000000001E-2</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="5">
         <v>6</v>
       </c>
       <c r="H20" s="2">
@@ -1513,7 +1528,7 @@
       <c r="I20" s="2">
         <v>-0.14144999999999999</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J20" s="4">
         <v>9</v>
       </c>
       <c r="K20" s="2">
@@ -1522,16 +1537,16 @@
       <c r="L20" s="2">
         <v>-0.11253000000000001</v>
       </c>
-      <c r="M20" s="1">
+      <c r="M20" s="4">
         <v>14</v>
       </c>
       <c r="N20" s="2">
-        <v>0.88236999999999999</v>
+        <v>0.78852999999999995</v>
       </c>
       <c r="O20" s="2">
-        <v>-0.27439999999999998</v>
-      </c>
-      <c r="P20" s="2">
+        <v>-1.227E-2</v>
+      </c>
+      <c r="P20" s="4">
         <v>15</v>
       </c>
       <c r="Q20" s="2">
@@ -1551,7 +1566,7 @@
       <c r="C21" s="2">
         <v>-0.13356000000000001</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="4">
         <v>2</v>
       </c>
       <c r="E21" s="2">
@@ -1560,7 +1575,7 @@
       <c r="F21" s="2">
         <v>-0.12792000000000001</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="5">
         <v>6</v>
       </c>
       <c r="H21" s="2">
@@ -1569,7 +1584,7 @@
       <c r="I21" s="2">
         <v>-0.16400999999999999</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J21" s="4">
         <v>9</v>
       </c>
       <c r="K21" s="2">
@@ -1578,16 +1593,16 @@
       <c r="L21" s="2">
         <v>-0.13286000000000001</v>
       </c>
-      <c r="M21" s="1">
+      <c r="M21" s="4">
         <v>14</v>
       </c>
       <c r="N21" s="2">
-        <v>0.87302999999999997</v>
+        <v>0.77386999999999995</v>
       </c>
       <c r="O21" s="2">
-        <v>-0.27665000000000001</v>
-      </c>
-      <c r="P21" s="2">
+        <v>-1.4710000000000001E-2</v>
+      </c>
+      <c r="P21" s="4">
         <v>15</v>
       </c>
       <c r="Q21" s="2">
@@ -1607,7 +1622,7 @@
       <c r="C22" s="2">
         <v>-0.13642000000000001</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="4">
         <v>2</v>
       </c>
       <c r="E22" s="2">
@@ -1616,7 +1631,7 @@
       <c r="F22" s="2">
         <v>-0.18209</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="5">
         <v>6</v>
       </c>
       <c r="H22" s="2">
@@ -1625,7 +1640,7 @@
       <c r="I22" s="2">
         <v>-0.18704000000000001</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J22" s="4">
         <v>9</v>
       </c>
       <c r="K22" s="2">
@@ -1634,16 +1649,16 @@
       <c r="L22" s="2">
         <v>-0.15428</v>
       </c>
-      <c r="M22" s="1">
+      <c r="M22" s="4">
         <v>14</v>
       </c>
       <c r="N22" s="2">
-        <v>0.86368</v>
+        <v>0.75922000000000001</v>
       </c>
       <c r="O22" s="2">
-        <v>-0.27892</v>
-      </c>
-      <c r="P22" s="2">
+        <v>-1.7180000000000001E-2</v>
+      </c>
+      <c r="P22" s="4">
         <v>15</v>
       </c>
       <c r="Q22" s="2">
@@ -1663,7 +1678,7 @@
       <c r="C23" s="2">
         <v>-0.13955999999999999</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="4">
         <v>2</v>
       </c>
       <c r="E23" s="2">
@@ -1672,7 +1687,7 @@
       <c r="F23" s="2">
         <v>-0.26166</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="5">
         <v>6</v>
       </c>
       <c r="H23" s="2">
@@ -1681,7 +1696,7 @@
       <c r="I23" s="2">
         <v>-0.20907000000000001</v>
       </c>
-      <c r="J23" s="1">
+      <c r="J23" s="4">
         <v>9</v>
       </c>
       <c r="K23" s="2">
@@ -1690,16 +1705,16 @@
       <c r="L23" s="2">
         <v>-0.17621999999999999</v>
       </c>
-      <c r="M23" s="1">
+      <c r="M23" s="4">
         <v>14</v>
       </c>
       <c r="N23" s="2">
-        <v>0.85431999999999997</v>
+        <v>0.74458000000000002</v>
       </c>
       <c r="O23" s="2">
-        <v>-0.28121000000000002</v>
-      </c>
-      <c r="P23" s="2">
+        <v>-1.9689999999999999E-2</v>
+      </c>
+      <c r="P23" s="4">
         <v>15</v>
       </c>
       <c r="Q23" s="2">
@@ -1719,7 +1734,7 @@
       <c r="C24" s="2">
         <v>-0.14308000000000001</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="4">
         <v>2</v>
       </c>
       <c r="E24" s="2">
@@ -1728,7 +1743,7 @@
       <c r="F24" s="2">
         <v>-0.35827999999999999</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="5">
         <v>6</v>
       </c>
       <c r="H24" s="2">
@@ -1737,7 +1752,7 @@
       <c r="I24" s="2">
         <v>-0.23183000000000001</v>
       </c>
-      <c r="J24" s="1">
+      <c r="J24" s="4">
         <v>9</v>
       </c>
       <c r="K24" s="2">
@@ -1746,16 +1761,16 @@
       <c r="L24" s="2">
         <v>-0.19932</v>
       </c>
-      <c r="M24" s="1">
+      <c r="M24" s="4">
         <v>14</v>
       </c>
       <c r="N24" s="2">
-        <v>0.84494000000000002</v>
+        <v>0.72994000000000003</v>
       </c>
       <c r="O24" s="2">
-        <v>-0.28350999999999998</v>
-      </c>
-      <c r="P24" s="2">
+        <v>-2.2239999999999999E-2</v>
+      </c>
+      <c r="P24" s="4">
         <v>15</v>
       </c>
       <c r="Q24" s="2">
@@ -1775,7 +1790,7 @@
       <c r="C25" s="2">
         <v>-0.14707000000000001</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="4">
         <v>2</v>
       </c>
       <c r="E25" s="2">
@@ -1784,7 +1799,7 @@
       <c r="F25" s="2">
         <v>-0.37336000000000003</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G25" s="5">
         <v>6</v>
       </c>
       <c r="H25" s="2">
@@ -1793,7 +1808,7 @@
       <c r="I25" s="2">
         <v>-0.25353999999999999</v>
       </c>
-      <c r="J25" s="1">
+      <c r="J25" s="4">
         <v>9</v>
       </c>
       <c r="K25" s="2">
@@ -1802,16 +1817,16 @@
       <c r="L25" s="2">
         <v>-0.22267000000000001</v>
       </c>
-      <c r="M25" s="1">
+      <c r="M25" s="4">
         <v>14</v>
       </c>
       <c r="N25" s="2">
-        <v>0.83555999999999997</v>
+        <v>0.71531</v>
       </c>
       <c r="O25" s="2">
-        <v>-0.28583999999999998</v>
-      </c>
-      <c r="P25" s="2">
+        <v>-2.4840000000000001E-2</v>
+      </c>
+      <c r="P25" s="4">
         <v>15</v>
       </c>
       <c r="Q25" s="2">
@@ -1831,7 +1846,7 @@
       <c r="C26" s="2">
         <v>-0.15160000000000001</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="4">
         <v>2</v>
       </c>
       <c r="E26" s="2">
@@ -1840,7 +1855,7 @@
       <c r="F26" s="2">
         <v>-0.37785999999999997</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26" s="5">
         <v>6</v>
       </c>
       <c r="H26" s="2">
@@ -1849,7 +1864,7 @@
       <c r="I26" s="2">
         <v>-0.27611999999999998</v>
       </c>
-      <c r="J26" s="1">
+      <c r="J26" s="4">
         <v>9</v>
       </c>
       <c r="K26" s="2">
@@ -1858,16 +1873,16 @@
       <c r="L26" s="2">
         <v>-0.24703</v>
       </c>
-      <c r="M26" s="1">
+      <c r="M26" s="4">
         <v>14</v>
       </c>
       <c r="N26" s="2">
-        <v>0.82618999999999998</v>
+        <v>0.70069000000000004</v>
       </c>
       <c r="O26" s="2">
-        <v>-0.28819</v>
-      </c>
-      <c r="P26" s="2">
+        <v>-2.7490000000000001E-2</v>
+      </c>
+      <c r="P26" s="4">
         <v>15</v>
       </c>
       <c r="Q26" s="2">
@@ -1887,7 +1902,7 @@
       <c r="C27" s="2">
         <v>-0.15678</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="4">
         <v>2</v>
       </c>
       <c r="E27" s="2">
@@ -1896,7 +1911,7 @@
       <c r="F27" s="2">
         <v>-0.38213000000000003</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G27" s="5">
         <v>6</v>
       </c>
       <c r="H27" s="2">
@@ -1905,7 +1920,7 @@
       <c r="I27" s="2">
         <v>-0.29814000000000002</v>
       </c>
-      <c r="J27" s="1">
+      <c r="J27" s="4">
         <v>9</v>
       </c>
       <c r="K27" s="2">
@@ -1914,16 +1929,16 @@
       <c r="L27" s="2">
         <v>-0.27179999999999999</v>
       </c>
-      <c r="M27" s="1">
+      <c r="M27" s="4">
         <v>14</v>
       </c>
       <c r="N27" s="2">
-        <v>0.81681999999999999</v>
+        <v>0.68606999999999996</v>
       </c>
       <c r="O27" s="2">
-        <v>-0.29054999999999997</v>
-      </c>
-      <c r="P27" s="2">
+        <v>-3.0190000000000002E-2</v>
+      </c>
+      <c r="P27" s="4">
         <v>15</v>
       </c>
       <c r="Q27" s="2">
@@ -1943,7 +1958,7 @@
       <c r="C28" s="2">
         <v>-0.16266</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="4">
         <v>2</v>
       </c>
       <c r="E28" s="2">
@@ -1952,7 +1967,7 @@
       <c r="F28" s="2">
         <v>-0.38629999999999998</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G28" s="5">
         <v>6</v>
       </c>
       <c r="H28" s="2">
@@ -1961,7 +1976,7 @@
       <c r="I28" s="2">
         <v>-0.32013999999999998</v>
       </c>
-      <c r="J28" s="1">
+      <c r="J28" s="4">
         <v>9</v>
       </c>
       <c r="K28" s="2">
@@ -1970,23 +1985,23 @@
       <c r="L28" s="2">
         <v>-0.29698000000000002</v>
       </c>
-      <c r="M28" s="1">
+      <c r="M28" s="4">
         <v>14</v>
       </c>
       <c r="N28" s="2">
-        <v>0.80745999999999996</v>
+        <v>0.67145999999999995</v>
       </c>
       <c r="O28" s="2">
-        <v>-0.29293999999999998</v>
-      </c>
-      <c r="P28" s="2">
+        <v>-3.295E-2</v>
+      </c>
+      <c r="P28" s="4">
         <v>15</v>
       </c>
       <c r="Q28" s="2">
         <v>0.67145999999999995</v>
       </c>
       <c r="R28" s="2">
-        <v>-0.11515</v>
+        <v>-0.11516</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.3">
@@ -1999,7 +2014,7 @@
       <c r="C29" s="2">
         <v>-0.16925999999999999</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="4">
         <v>2</v>
       </c>
       <c r="E29" s="2">
@@ -2008,7 +2023,7 @@
       <c r="F29" s="2">
         <v>-0.39054</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="5">
         <v>6</v>
       </c>
       <c r="H29" s="2">
@@ -2017,7 +2032,7 @@
       <c r="I29" s="2">
         <v>-0.34083999999999998</v>
       </c>
-      <c r="J29" s="1">
+      <c r="J29" s="4">
         <v>9</v>
       </c>
       <c r="K29" s="2">
@@ -2026,16 +2041,16 @@
       <c r="L29" s="2">
         <v>-0.32223000000000002</v>
       </c>
-      <c r="M29" s="1">
+      <c r="M29" s="4">
         <v>14</v>
       </c>
       <c r="N29" s="2">
-        <v>0.79810999999999999</v>
+        <v>0.65683999999999998</v>
       </c>
       <c r="O29" s="2">
-        <v>-0.29535</v>
-      </c>
-      <c r="P29" s="2">
+        <v>-3.5779999999999999E-2</v>
+      </c>
+      <c r="P29" s="4">
         <v>15</v>
       </c>
       <c r="Q29" s="2">
@@ -2055,7 +2070,7 @@
       <c r="C30" s="2">
         <v>-0.17646999999999999</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="4">
         <v>2</v>
       </c>
       <c r="E30" s="2">
@@ -2064,7 +2079,7 @@
       <c r="F30" s="2">
         <v>-0.39490999999999998</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G30" s="5">
         <v>6</v>
       </c>
       <c r="H30" s="2">
@@ -2073,32 +2088,32 @@
       <c r="I30" s="2">
         <v>-0.36241000000000001</v>
       </c>
-      <c r="J30" s="1">
+      <c r="J30" s="4">
         <v>9</v>
       </c>
       <c r="K30" s="2">
         <v>0.64222000000000001</v>
       </c>
       <c r="L30" s="2">
-        <v>-0.34823999999999999</v>
-      </c>
-      <c r="M30" s="1">
+        <v>-0.34825</v>
+      </c>
+      <c r="M30" s="4">
         <v>14</v>
       </c>
       <c r="N30" s="2">
-        <v>0.78876000000000002</v>
+        <v>0.64222000000000001</v>
       </c>
       <c r="O30" s="2">
-        <v>-0.29779</v>
-      </c>
-      <c r="P30" s="2">
+        <v>-3.8670000000000003E-2</v>
+      </c>
+      <c r="P30" s="4">
         <v>15</v>
       </c>
       <c r="Q30" s="2">
         <v>0.64222000000000001</v>
       </c>
       <c r="R30" s="2">
-        <v>-0.12171</v>
+        <v>-0.12171999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.3">
@@ -2111,7 +2126,7 @@
       <c r="C31" s="2">
         <v>-0.18439</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="4">
         <v>2</v>
       </c>
       <c r="E31" s="2">
@@ -2120,7 +2135,7 @@
       <c r="F31" s="2">
         <v>-0.39959</v>
       </c>
-      <c r="G31" s="3">
+      <c r="G31" s="5">
         <v>6</v>
       </c>
       <c r="H31" s="2">
@@ -2129,7 +2144,7 @@
       <c r="I31" s="2">
         <v>-0.38346999999999998</v>
       </c>
-      <c r="J31" s="1">
+      <c r="J31" s="4">
         <v>9</v>
       </c>
       <c r="K31" s="2">
@@ -2138,16 +2153,16 @@
       <c r="L31" s="2">
         <v>-0.37413000000000002</v>
       </c>
-      <c r="M31" s="1">
+      <c r="M31" s="4">
         <v>14</v>
       </c>
       <c r="N31" s="2">
-        <v>0.77941000000000005</v>
+        <v>0.62760000000000005</v>
       </c>
       <c r="O31" s="2">
-        <v>-0.30024000000000001</v>
-      </c>
-      <c r="P31" s="2">
+        <v>-4.1640000000000003E-2</v>
+      </c>
+      <c r="P31" s="4">
         <v>15</v>
       </c>
       <c r="Q31" s="2">
@@ -2167,7 +2182,7 @@
       <c r="C32" s="2">
         <v>-0.19314000000000001</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="4">
         <v>2</v>
       </c>
       <c r="E32" s="2">
@@ -2176,7 +2191,7 @@
       <c r="F32" s="2">
         <v>-0.40465000000000001</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G32" s="5">
         <v>6</v>
       </c>
       <c r="H32" s="2">
@@ -2185,7 +2200,7 @@
       <c r="I32" s="2">
         <v>-0.40439000000000003</v>
       </c>
-      <c r="J32" s="1">
+      <c r="J32" s="4">
         <v>9</v>
       </c>
       <c r="K32" s="2">
@@ -2194,23 +2209,23 @@
       <c r="L32" s="2">
         <v>-0.40093000000000001</v>
       </c>
-      <c r="M32" s="1">
+      <c r="M32" s="4">
         <v>14</v>
       </c>
       <c r="N32" s="2">
-        <v>0.77007000000000003</v>
+        <v>0.61297999999999997</v>
       </c>
       <c r="O32" s="2">
-        <v>-0.30271999999999999</v>
-      </c>
-      <c r="P32" s="2">
+        <v>-4.4690000000000001E-2</v>
+      </c>
+      <c r="P32" s="4">
         <v>15</v>
       </c>
       <c r="Q32" s="2">
         <v>0.61297999999999997</v>
       </c>
       <c r="R32" s="2">
-        <v>-0.12867000000000001</v>
+        <v>-0.12867999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.3">
@@ -2223,7 +2238,7 @@
       <c r="C33" s="2">
         <v>-0.20272000000000001</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33" s="4">
         <v>2</v>
       </c>
       <c r="E33" s="2">
@@ -2232,7 +2247,7 @@
       <c r="F33" s="2">
         <v>-0.41021999999999997</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G33" s="5">
         <v>6</v>
       </c>
       <c r="H33" s="2">
@@ -2241,7 +2256,7 @@
       <c r="I33" s="2">
         <v>-0.42616999999999999</v>
       </c>
-      <c r="J33" s="1">
+      <c r="J33" s="4">
         <v>9</v>
       </c>
       <c r="K33" s="2">
@@ -2250,16 +2265,16 @@
       <c r="L33" s="2">
         <v>-0.42832999999999999</v>
       </c>
-      <c r="M33" s="1">
+      <c r="M33" s="4">
         <v>14</v>
       </c>
       <c r="N33" s="2">
-        <v>0.76073000000000002</v>
+        <v>0.59835000000000005</v>
       </c>
       <c r="O33" s="2">
-        <v>-0.30523</v>
-      </c>
-      <c r="P33" s="2">
+        <v>-4.7829999999999998E-2</v>
+      </c>
+      <c r="P33" s="4">
         <v>15</v>
       </c>
       <c r="Q33" s="2">
@@ -2279,7 +2294,7 @@
       <c r="C34" s="2">
         <v>-0.21301999999999999</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34" s="4">
         <v>2</v>
       </c>
       <c r="E34" s="2">
@@ -2288,7 +2303,7 @@
       <c r="F34" s="2">
         <v>-0.41643999999999998</v>
       </c>
-      <c r="G34" s="3">
+      <c r="G34" s="5">
         <v>6</v>
       </c>
       <c r="H34" s="2">
@@ -2297,7 +2312,7 @@
       <c r="I34" s="2">
         <v>-0.4481</v>
       </c>
-      <c r="J34" s="1">
+      <c r="J34" s="4">
         <v>9</v>
       </c>
       <c r="K34" s="2">
@@ -2306,16 +2321,16 @@
       <c r="L34" s="2">
         <v>-0.45548</v>
       </c>
-      <c r="M34" s="1">
+      <c r="M34" s="4">
         <v>14</v>
       </c>
       <c r="N34" s="2">
-        <v>0.75139999999999996</v>
+        <v>0.58372999999999997</v>
       </c>
       <c r="O34" s="2">
-        <v>-0.30776999999999999</v>
-      </c>
-      <c r="P34" s="2">
+        <v>-5.1049999999999998E-2</v>
+      </c>
+      <c r="P34" s="4">
         <v>15</v>
       </c>
       <c r="Q34" s="2">
@@ -2335,7 +2350,7 @@
       <c r="C35" s="2">
         <v>-0.22394</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35" s="4">
         <v>2</v>
       </c>
       <c r="E35" s="2">
@@ -2344,7 +2359,7 @@
       <c r="F35" s="2">
         <v>-0.42346</v>
       </c>
-      <c r="G35" s="3">
+      <c r="G35" s="5">
         <v>6</v>
       </c>
       <c r="H35" s="2">
@@ -2353,7 +2368,7 @@
       <c r="I35" s="2">
         <v>-0.46965000000000001</v>
       </c>
-      <c r="J35" s="1">
+      <c r="J35" s="4">
         <v>9</v>
       </c>
       <c r="K35" s="2">
@@ -2362,23 +2377,23 @@
       <c r="L35" s="2">
         <v>-0.48441000000000001</v>
       </c>
-      <c r="M35" s="1">
+      <c r="M35" s="4">
         <v>14</v>
       </c>
       <c r="N35" s="2">
-        <v>0.74207000000000001</v>
+        <v>0.56911</v>
       </c>
       <c r="O35" s="2">
-        <v>-0.31034</v>
-      </c>
-      <c r="P35" s="2">
+        <v>-5.4370000000000002E-2</v>
+      </c>
+      <c r="P35" s="4">
         <v>15</v>
       </c>
       <c r="Q35" s="2">
         <v>0.56911</v>
       </c>
       <c r="R35" s="2">
-        <v>-0.13996</v>
+        <v>-0.13997000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.3">
@@ -2391,7 +2406,7 @@
       <c r="C36" s="2">
         <v>-0.23518</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36" s="4">
         <v>2</v>
       </c>
       <c r="E36" s="2">
@@ -2400,7 +2415,7 @@
       <c r="F36" s="2">
         <v>-0.43135000000000001</v>
       </c>
-      <c r="G36" s="3">
+      <c r="G36" s="5">
         <v>6</v>
       </c>
       <c r="H36" s="2">
@@ -2409,7 +2424,7 @@
       <c r="I36" s="2">
         <v>-0.49229000000000001</v>
       </c>
-      <c r="J36" s="1">
+      <c r="J36" s="4">
         <v>9</v>
       </c>
       <c r="K36" s="2">
@@ -2418,16 +2433,16 @@
       <c r="L36" s="2">
         <v>-0.51297999999999999</v>
       </c>
-      <c r="M36" s="1">
+      <c r="M36" s="4">
         <v>14</v>
       </c>
       <c r="N36" s="2">
-        <v>0.73273999999999995</v>
+        <v>0.55452000000000001</v>
       </c>
       <c r="O36" s="2">
-        <v>-0.31292999999999999</v>
-      </c>
-      <c r="P36" s="2">
+        <v>-5.7779999999999998E-2</v>
+      </c>
+      <c r="P36" s="4">
         <v>15</v>
       </c>
       <c r="Q36" s="2">
@@ -2447,7 +2462,7 @@
       <c r="C37" s="2">
         <v>-0.24657000000000001</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37" s="4">
         <v>2</v>
       </c>
       <c r="E37" s="2">
@@ -2456,7 +2471,7 @@
       <c r="F37" s="2">
         <v>-0.44003999999999999</v>
       </c>
-      <c r="G37" s="3">
+      <c r="G37" s="5">
         <v>6</v>
       </c>
       <c r="H37" s="2">
@@ -2465,7 +2480,7 @@
       <c r="I37" s="2">
         <v>-0.51436999999999999</v>
       </c>
-      <c r="J37" s="1">
+      <c r="J37" s="4">
         <v>9</v>
       </c>
       <c r="K37" s="2">
@@ -2474,16 +2489,16 @@
       <c r="L37" s="2">
         <v>-0.54220999999999997</v>
       </c>
-      <c r="M37" s="1">
+      <c r="M37" s="4">
         <v>14</v>
       </c>
       <c r="N37" s="2">
-        <v>0.72341</v>
+        <v>0.53993999999999998</v>
       </c>
       <c r="O37" s="2">
-        <v>-0.31556000000000001</v>
-      </c>
-      <c r="P37" s="2">
+        <v>-6.13E-2</v>
+      </c>
+      <c r="P37" s="4">
         <v>15</v>
       </c>
       <c r="Q37" s="2">
@@ -2503,7 +2518,7 @@
       <c r="C38" s="2">
         <v>-0.25736999999999999</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38" s="4">
         <v>2</v>
       </c>
       <c r="E38" s="2">
@@ -2512,7 +2527,7 @@
       <c r="F38" s="2">
         <v>-0.44962999999999997</v>
       </c>
-      <c r="G38" s="3">
+      <c r="G38" s="5">
         <v>6</v>
       </c>
       <c r="H38" s="2">
@@ -2521,7 +2536,7 @@
       <c r="I38" s="2">
         <v>-0.53569</v>
       </c>
-      <c r="J38" s="1">
+      <c r="J38" s="4">
         <v>9</v>
       </c>
       <c r="K38" s="2">
@@ -2530,16 +2545,16 @@
       <c r="L38" s="2">
         <v>-0.57103000000000004</v>
       </c>
-      <c r="M38" s="1">
+      <c r="M38" s="4">
         <v>14</v>
       </c>
       <c r="N38" s="2">
-        <v>0.71409</v>
+        <v>0.52537999999999996</v>
       </c>
       <c r="O38" s="2">
-        <v>-0.31823000000000001</v>
-      </c>
-      <c r="P38" s="2">
+        <v>-6.4930000000000002E-2</v>
+      </c>
+      <c r="P38" s="4">
         <v>15</v>
       </c>
       <c r="Q38" s="2">
@@ -2559,7 +2574,7 @@
       <c r="C39" s="2">
         <v>-0.26763999999999999</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39" s="4">
         <v>2</v>
       </c>
       <c r="E39" s="2">
@@ -2568,7 +2583,7 @@
       <c r="F39" s="2">
         <v>-0.46031</v>
       </c>
-      <c r="G39" s="3">
+      <c r="G39" s="5">
         <v>6</v>
       </c>
       <c r="H39" s="2">
@@ -2577,7 +2592,7 @@
       <c r="I39" s="2">
         <v>-0.55642000000000003</v>
       </c>
-      <c r="J39" s="1">
+      <c r="J39" s="4">
         <v>9</v>
       </c>
       <c r="K39" s="2">
@@ -2586,16 +2601,16 @@
       <c r="L39" s="2">
         <v>-0.59933000000000003</v>
       </c>
-      <c r="M39" s="1">
+      <c r="M39" s="4">
         <v>14</v>
       </c>
       <c r="N39" s="2">
-        <v>0.70477000000000001</v>
+        <v>0.51083000000000001</v>
       </c>
       <c r="O39" s="2">
-        <v>-0.32091999999999998</v>
-      </c>
-      <c r="P39" s="2">
+        <v>-6.8690000000000001E-2</v>
+      </c>
+      <c r="P39" s="4">
         <v>15</v>
       </c>
       <c r="Q39" s="2">
@@ -2615,7 +2630,7 @@
       <c r="C40" s="2">
         <v>-0.27732000000000001</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40" s="4">
         <v>2</v>
       </c>
       <c r="E40" s="2">
@@ -2624,7 +2639,7 @@
       <c r="F40" s="2">
         <v>-0.47210000000000002</v>
       </c>
-      <c r="G40" s="3">
+      <c r="G40" s="5">
         <v>6</v>
       </c>
       <c r="H40" s="2">
@@ -2633,7 +2648,7 @@
       <c r="I40" s="2">
         <v>-0.57791999999999999</v>
       </c>
-      <c r="J40" s="1">
+      <c r="J40" s="4">
         <v>9</v>
       </c>
       <c r="K40" s="2">
@@ -2642,16 +2657,16 @@
       <c r="L40" s="2">
         <v>-0.62846000000000002</v>
       </c>
-      <c r="M40" s="1">
+      <c r="M40" s="4">
         <v>14</v>
       </c>
       <c r="N40" s="2">
-        <v>0.69545000000000001</v>
+        <v>0.49628</v>
       </c>
       <c r="O40" s="2">
-        <v>-0.32364999999999999</v>
-      </c>
-      <c r="P40" s="2">
+        <v>-7.2559999999999999E-2</v>
+      </c>
+      <c r="P40" s="4">
         <v>15</v>
       </c>
       <c r="Q40" s="2">
@@ -2671,7 +2686,7 @@
       <c r="C41" s="2">
         <v>-0.28561999999999999</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41" s="4">
         <v>2</v>
       </c>
       <c r="E41" s="2">
@@ -2680,7 +2695,7 @@
       <c r="F41" s="2">
         <v>-0.48458000000000001</v>
       </c>
-      <c r="G41" s="3">
+      <c r="G41" s="5">
         <v>6</v>
       </c>
       <c r="H41" s="2">
@@ -2689,7 +2704,7 @@
       <c r="I41" s="2">
         <v>-0.59945000000000004</v>
       </c>
-      <c r="J41" s="1">
+      <c r="J41" s="4">
         <v>9</v>
       </c>
       <c r="K41" s="2">
@@ -2698,16 +2713,16 @@
       <c r="L41" s="2">
         <v>-0.65568000000000004</v>
       </c>
-      <c r="M41" s="1">
+      <c r="M41" s="4">
         <v>14</v>
       </c>
       <c r="N41" s="2">
-        <v>0.68613999999999997</v>
+        <v>0.48172999999999999</v>
       </c>
       <c r="O41" s="2">
-        <v>-0.32641999999999999</v>
-      </c>
-      <c r="P41" s="2">
+        <v>-7.6560000000000003E-2</v>
+      </c>
+      <c r="P41" s="4">
         <v>15</v>
       </c>
       <c r="Q41" s="2">
@@ -2727,7 +2742,7 @@
       <c r="C42" s="2">
         <v>-0.29348000000000002</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42" s="4">
         <v>2</v>
       </c>
       <c r="E42" s="2">
@@ -2736,16 +2751,16 @@
       <c r="F42" s="2">
         <v>-0.49756</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G42" s="5">
         <v>6</v>
       </c>
       <c r="H42" s="2">
         <v>0.46717999999999998</v>
       </c>
       <c r="I42" s="2">
-        <v>-0.62495999999999996</v>
-      </c>
-      <c r="J42" s="1">
+        <v>-0.62497000000000003</v>
+      </c>
+      <c r="J42" s="4">
         <v>9</v>
       </c>
       <c r="K42" s="2">
@@ -2754,23 +2769,23 @@
       <c r="L42" s="2">
         <v>-0.68396999999999997</v>
       </c>
-      <c r="M42" s="1">
+      <c r="M42" s="4">
         <v>14</v>
       </c>
       <c r="N42" s="2">
-        <v>0.67683000000000004</v>
+        <v>0.46717999999999998</v>
       </c>
       <c r="O42" s="2">
-        <v>-0.32923000000000002</v>
-      </c>
-      <c r="P42" s="2">
+        <v>-8.0600000000000005E-2</v>
+      </c>
+      <c r="P42" s="4">
         <v>15</v>
       </c>
       <c r="Q42" s="2">
         <v>0.46717999999999998</v>
       </c>
       <c r="R42" s="2">
-        <v>-0.17154</v>
+        <v>-0.17155000000000001</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.3">
@@ -2783,7 +2798,7 @@
       <c r="C43" s="2">
         <v>-0.29938999999999999</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D43" s="4">
         <v>2</v>
       </c>
       <c r="E43" s="2">
@@ -2792,7 +2807,7 @@
       <c r="F43" s="2">
         <v>-0.51039000000000001</v>
       </c>
-      <c r="G43" s="3">
+      <c r="G43" s="5">
         <v>6</v>
       </c>
       <c r="H43" s="2">
@@ -2801,7 +2816,7 @@
       <c r="I43" s="2">
         <v>-0.65678000000000003</v>
       </c>
-      <c r="J43" s="1">
+      <c r="J43" s="4">
         <v>9</v>
       </c>
       <c r="K43" s="2">
@@ -2810,16 +2825,16 @@
       <c r="L43" s="2">
         <v>-0.70991000000000004</v>
       </c>
-      <c r="M43" s="1">
+      <c r="M43" s="4">
         <v>14</v>
       </c>
       <c r="N43" s="2">
-        <v>0.66751000000000005</v>
+        <v>0.45262999999999998</v>
       </c>
       <c r="O43" s="2">
-        <v>-0.33207999999999999</v>
-      </c>
-      <c r="P43" s="2">
+        <v>-8.4680000000000005E-2</v>
+      </c>
+      <c r="P43" s="4">
         <v>15</v>
       </c>
       <c r="Q43" s="2">
@@ -2839,7 +2854,7 @@
       <c r="C44" s="2">
         <v>-0.30547000000000002</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D44" s="4">
         <v>2</v>
       </c>
       <c r="E44" s="2">
@@ -2848,7 +2863,7 @@
       <c r="F44" s="2">
         <v>-0.52327999999999997</v>
       </c>
-      <c r="G44" s="3">
+      <c r="G44" s="5">
         <v>6</v>
       </c>
       <c r="H44" s="2">
@@ -2857,25 +2872,25 @@
       <c r="I44" s="2">
         <v>-0.69967000000000001</v>
       </c>
-      <c r="J44" s="1">
+      <c r="J44" s="4">
         <v>9</v>
       </c>
       <c r="K44" s="2">
         <v>0.43808000000000002</v>
       </c>
       <c r="L44" s="2">
-        <v>-0.73655000000000004</v>
-      </c>
-      <c r="M44" s="1">
+        <v>-0.73655999999999999</v>
+      </c>
+      <c r="M44" s="4">
         <v>14</v>
       </c>
       <c r="N44" s="2">
-        <v>0.65820000000000001</v>
+        <v>0.43808000000000002</v>
       </c>
       <c r="O44" s="2">
-        <v>-0.33496999999999999</v>
-      </c>
-      <c r="P44" s="2">
+        <v>-8.8569999999999996E-2</v>
+      </c>
+      <c r="P44" s="4">
         <v>15</v>
       </c>
       <c r="Q44" s="2">
@@ -2895,7 +2910,7 @@
       <c r="C45" s="2">
         <v>-0.30923</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D45" s="4">
         <v>2</v>
       </c>
       <c r="E45" s="2">
@@ -2904,7 +2919,7 @@
       <c r="F45" s="2">
         <v>-0.53598999999999997</v>
       </c>
-      <c r="G45" s="3">
+      <c r="G45" s="5">
         <v>6</v>
       </c>
       <c r="H45" s="2">
@@ -2913,7 +2928,7 @@
       <c r="I45" s="2">
         <v>-0.75109999999999999</v>
       </c>
-      <c r="J45" s="1">
+      <c r="J45" s="4">
         <v>9</v>
       </c>
       <c r="K45" s="2">
@@ -2922,16 +2937,16 @@
       <c r="L45" s="2">
         <v>-0.76478999999999997</v>
       </c>
-      <c r="M45" s="1">
+      <c r="M45" s="4">
         <v>14</v>
       </c>
       <c r="N45" s="2">
-        <v>0.64888000000000001</v>
+        <v>0.42352000000000001</v>
       </c>
       <c r="O45" s="2">
-        <v>-0.33790999999999999</v>
-      </c>
-      <c r="P45" s="2">
+        <v>-9.2069999999999999E-2</v>
+      </c>
+      <c r="P45" s="4">
         <v>15</v>
       </c>
       <c r="Q45" s="2">
@@ -2951,7 +2966,7 @@
       <c r="C46" s="2">
         <v>-0.31387999999999999</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D46" s="4">
         <v>2</v>
       </c>
       <c r="E46" s="2">
@@ -2960,7 +2975,7 @@
       <c r="F46" s="2">
         <v>-0.54800000000000004</v>
       </c>
-      <c r="G46" s="3">
+      <c r="G46" s="5">
         <v>6</v>
       </c>
       <c r="H46" s="2">
@@ -2969,7 +2984,7 @@
       <c r="I46" s="2">
         <v>-0.80196999999999996</v>
       </c>
-      <c r="J46" s="1">
+      <c r="J46" s="4">
         <v>9</v>
       </c>
       <c r="K46" s="2">
@@ -2978,23 +2993,23 @@
       <c r="L46" s="2">
         <v>-0.78971000000000002</v>
       </c>
-      <c r="M46" s="1">
+      <c r="M46" s="4">
         <v>14</v>
       </c>
       <c r="N46" s="2">
-        <v>0.63956000000000002</v>
+        <v>0.40897</v>
       </c>
       <c r="O46" s="2">
-        <v>-0.34089000000000003</v>
-      </c>
-      <c r="P46" s="2">
+        <v>-9.4950000000000007E-2</v>
+      </c>
+      <c r="P46" s="4">
         <v>15</v>
       </c>
       <c r="Q46" s="2">
         <v>0.40897</v>
       </c>
       <c r="R46" s="2">
-        <v>-0.19445000000000001</v>
+        <v>-0.19445999999999999</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.3">
@@ -3007,7 +3022,7 @@
       <c r="C47" s="2">
         <v>-0.31612000000000001</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D47" s="4">
         <v>2</v>
       </c>
       <c r="E47" s="2">
@@ -3016,16 +3031,16 @@
       <c r="F47" s="2">
         <v>-0.55918999999999996</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G47" s="5">
         <v>6</v>
       </c>
       <c r="H47" s="2">
         <v>0.39440999999999998</v>
       </c>
       <c r="I47" s="2">
-        <v>-0.81262000000000001</v>
-      </c>
-      <c r="J47" s="1">
+        <v>-0.81261000000000005</v>
+      </c>
+      <c r="J47" s="4">
         <v>9</v>
       </c>
       <c r="K47" s="2">
@@ -3034,16 +3049,16 @@
       <c r="L47" s="2">
         <v>-0.81588000000000005</v>
       </c>
-      <c r="M47" s="1">
+      <c r="M47" s="4">
         <v>14</v>
       </c>
       <c r="N47" s="2">
-        <v>0.63024000000000002</v>
+        <v>0.39440999999999998</v>
       </c>
       <c r="O47" s="2">
-        <v>-0.34392</v>
-      </c>
-      <c r="P47" s="2">
+        <v>-0.10069</v>
+      </c>
+      <c r="P47" s="4">
         <v>15</v>
       </c>
       <c r="Q47" s="2">
@@ -3063,7 +3078,7 @@
       <c r="C48" s="2">
         <v>-0.31879999999999997</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D48" s="4">
         <v>2</v>
       </c>
       <c r="E48" s="2">
@@ -3072,7 +3087,7 @@
       <c r="F48" s="2">
         <v>-0.57121999999999995</v>
       </c>
-      <c r="G48" s="3">
+      <c r="G48" s="5">
         <v>6</v>
       </c>
       <c r="H48" s="2">
@@ -3081,7 +3096,7 @@
       <c r="I48" s="2">
         <v>-0.82504</v>
       </c>
-      <c r="J48" s="1">
+      <c r="J48" s="4">
         <v>9</v>
       </c>
       <c r="K48" s="2">
@@ -3090,23 +3105,23 @@
       <c r="L48" s="2">
         <v>-0.84380999999999995</v>
       </c>
-      <c r="M48" s="1">
+      <c r="M48" s="4">
         <v>14</v>
       </c>
       <c r="N48" s="2">
-        <v>0.62092000000000003</v>
+        <v>0.37985000000000002</v>
       </c>
       <c r="O48" s="2">
-        <v>-0.34699999999999998</v>
-      </c>
-      <c r="P48" s="2">
+        <v>-0.11287</v>
+      </c>
+      <c r="P48" s="4">
         <v>15</v>
       </c>
       <c r="Q48" s="2">
         <v>0.37985000000000002</v>
       </c>
       <c r="R48" s="2">
-        <v>-0.20782</v>
+        <v>-0.20782999999999999</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.3">
@@ -3119,7 +3134,7 @@
       <c r="C49" s="2">
         <v>-0.31985999999999998</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D49" s="4">
         <v>2</v>
       </c>
       <c r="E49" s="2">
@@ -3128,7 +3143,7 @@
       <c r="F49" s="2">
         <v>-0.58135000000000003</v>
       </c>
-      <c r="G49" s="3">
+      <c r="G49" s="5">
         <v>6</v>
       </c>
       <c r="H49" s="2">
@@ -3137,7 +3152,7 @@
       <c r="I49" s="2">
         <v>-0.83828999999999998</v>
       </c>
-      <c r="J49" s="1">
+      <c r="J49" s="4">
         <v>9</v>
       </c>
       <c r="K49" s="2">
@@ -3146,16 +3161,16 @@
       <c r="L49" s="2">
         <v>-0.86878999999999995</v>
       </c>
-      <c r="M49" s="1">
+      <c r="M49" s="4">
         <v>14</v>
       </c>
       <c r="N49" s="2">
-        <v>0.61160000000000003</v>
+        <v>0.36530000000000001</v>
       </c>
       <c r="O49" s="2">
-        <v>-0.35013</v>
-      </c>
-      <c r="P49" s="2">
+        <v>-0.12948000000000001</v>
+      </c>
+      <c r="P49" s="4">
         <v>15</v>
       </c>
       <c r="Q49" s="2">
@@ -3175,7 +3190,7 @@
       <c r="C50" s="2">
         <v>-0.32106000000000001</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D50" s="4">
         <v>2</v>
       </c>
       <c r="E50" s="2">
@@ -3184,7 +3199,7 @@
       <c r="F50" s="2">
         <v>-0.59226000000000001</v>
       </c>
-      <c r="G50" s="3">
+      <c r="G50" s="5">
         <v>6</v>
       </c>
       <c r="H50" s="2">
@@ -3193,7 +3208,7 @@
       <c r="I50" s="2">
         <v>-0.85253000000000001</v>
       </c>
-      <c r="J50" s="1">
+      <c r="J50" s="4">
         <v>9</v>
       </c>
       <c r="K50" s="2">
@@ -3202,23 +3217,23 @@
       <c r="L50" s="2">
         <v>-0.89751999999999998</v>
       </c>
-      <c r="M50" s="1">
+      <c r="M50" s="4">
         <v>14</v>
       </c>
       <c r="N50" s="2">
-        <v>0.60228000000000004</v>
+        <v>0.35075000000000001</v>
       </c>
       <c r="O50" s="2">
-        <v>-0.35331000000000001</v>
-      </c>
-      <c r="P50" s="2">
+        <v>-0.15024000000000001</v>
+      </c>
+      <c r="P50" s="4">
         <v>15</v>
       </c>
       <c r="Q50" s="2">
         <v>0.35075000000000001</v>
       </c>
       <c r="R50" s="2">
-        <v>-0.22281000000000001</v>
+        <v>-0.22281999999999999</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.3">
@@ -3231,7 +3246,7 @@
       <c r="C51" s="2">
         <v>-0.31908999999999998</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D51" s="4">
         <v>2</v>
       </c>
       <c r="E51" s="2">
@@ -3240,7 +3255,7 @@
       <c r="F51" s="2">
         <v>-0.60189999999999999</v>
       </c>
-      <c r="G51" s="3">
+      <c r="G51" s="5">
         <v>6</v>
       </c>
       <c r="H51" s="2">
@@ -3249,7 +3264,7 @@
       <c r="I51" s="2">
         <v>-0.86748999999999998</v>
       </c>
-      <c r="J51" s="1">
+      <c r="J51" s="4">
         <v>9</v>
       </c>
       <c r="K51" s="2">
@@ -3258,23 +3273,23 @@
       <c r="L51" s="2">
         <v>-0.92481000000000002</v>
       </c>
-      <c r="M51" s="1">
+      <c r="M51" s="4">
         <v>14</v>
       </c>
       <c r="N51" s="2">
-        <v>0.59296000000000004</v>
+        <v>0.3362</v>
       </c>
       <c r="O51" s="2">
-        <v>-0.35654999999999998</v>
-      </c>
-      <c r="P51" s="2">
+        <v>-0.17585000000000001</v>
+      </c>
+      <c r="P51" s="4">
         <v>15</v>
       </c>
       <c r="Q51" s="2">
         <v>0.3362</v>
       </c>
       <c r="R51" s="2">
-        <v>-0.23102</v>
+        <v>-0.23103000000000001</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.3">
@@ -3287,7 +3302,7 @@
       <c r="C52" s="2">
         <v>-0.32033</v>
       </c>
-      <c r="D52" s="1">
+      <c r="D52" s="4">
         <v>2</v>
       </c>
       <c r="E52" s="2">
@@ -3296,7 +3311,7 @@
       <c r="F52" s="2">
         <v>-0.61238999999999999</v>
       </c>
-      <c r="G52" s="3">
+      <c r="G52" s="5">
         <v>6</v>
       </c>
       <c r="H52" s="2">
@@ -3305,7 +3320,7 @@
       <c r="I52" s="2">
         <v>-0.88343000000000005</v>
       </c>
-      <c r="J52" s="1">
+      <c r="J52" s="4">
         <v>9</v>
       </c>
       <c r="K52" s="2">
@@ -3314,23 +3329,23 @@
       <c r="L52" s="2">
         <v>-0.95279999999999998</v>
       </c>
-      <c r="M52" s="1">
+      <c r="M52" s="4">
         <v>14</v>
       </c>
       <c r="N52" s="2">
-        <v>0.58364000000000005</v>
+        <v>0.32167000000000001</v>
       </c>
       <c r="O52" s="2">
-        <v>-0.35982999999999998</v>
-      </c>
-      <c r="P52" s="2">
+        <v>-0.20544000000000001</v>
+      </c>
+      <c r="P52" s="4">
         <v>15</v>
       </c>
       <c r="Q52" s="2">
         <v>0.32167000000000001</v>
       </c>
       <c r="R52" s="2">
-        <v>-0.23979</v>
+        <v>-0.23980000000000001</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.3">
@@ -3343,7 +3358,7 @@
       <c r="C53" s="2">
         <v>-0.31773000000000001</v>
       </c>
-      <c r="D53" s="1">
+      <c r="D53" s="4">
         <v>2</v>
       </c>
       <c r="E53" s="2">
@@ -3352,7 +3367,7 @@
       <c r="F53" s="2">
         <v>-0.62189000000000005</v>
       </c>
-      <c r="G53" s="3">
+      <c r="G53" s="5">
         <v>6</v>
       </c>
       <c r="H53" s="2">
@@ -3361,7 +3376,7 @@
       <c r="I53" s="2">
         <v>-0.90025999999999995</v>
       </c>
-      <c r="J53" s="1">
+      <c r="J53" s="4">
         <v>9</v>
       </c>
       <c r="K53" s="2">
@@ -3370,16 +3385,16 @@
       <c r="L53" s="2">
         <v>-0.98251999999999995</v>
       </c>
-      <c r="M53" s="1">
+      <c r="M53" s="4">
         <v>14</v>
       </c>
       <c r="N53" s="2">
-        <v>0.57433000000000001</v>
+        <v>0.30714000000000002</v>
       </c>
       <c r="O53" s="2">
-        <v>-0.36318</v>
-      </c>
-      <c r="P53" s="2">
+        <v>-0.23984</v>
+      </c>
+      <c r="P53" s="4">
         <v>15</v>
       </c>
       <c r="Q53" s="2">
@@ -3399,7 +3414,7 @@
       <c r="C54" s="2">
         <v>-0.31641999999999998</v>
       </c>
-      <c r="D54" s="1">
+      <c r="D54" s="4">
         <v>2</v>
       </c>
       <c r="E54" s="2">
@@ -3408,7 +3423,7 @@
       <c r="F54" s="2">
         <v>-0.63153000000000004</v>
       </c>
-      <c r="G54" s="3">
+      <c r="G54" s="5">
         <v>6</v>
       </c>
       <c r="H54" s="2">
@@ -3417,7 +3432,7 @@
       <c r="I54" s="2">
         <v>-0.91805000000000003</v>
       </c>
-      <c r="J54" s="1">
+      <c r="J54" s="4">
         <v>9</v>
       </c>
       <c r="K54" s="2">
@@ -3426,23 +3441,23 @@
       <c r="L54" s="2">
         <v>-1.0135799999999999</v>
       </c>
-      <c r="M54" s="1">
+      <c r="M54" s="4">
         <v>14</v>
       </c>
       <c r="N54" s="2">
-        <v>0.56501999999999997</v>
+        <v>0.29261999999999999</v>
       </c>
       <c r="O54" s="2">
-        <v>-0.36657000000000001</v>
-      </c>
-      <c r="P54" s="2">
+        <v>-0.27823999999999999</v>
+      </c>
+      <c r="P54" s="4">
         <v>15</v>
       </c>
       <c r="Q54" s="2">
         <v>0.29261999999999999</v>
       </c>
       <c r="R54" s="2">
-        <v>-0.25927</v>
+        <v>-0.25928000000000001</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.3">
@@ -3455,7 +3470,7 @@
       <c r="C55" s="2">
         <v>-0.31356000000000001</v>
       </c>
-      <c r="D55" s="1">
+      <c r="D55" s="4">
         <v>2</v>
       </c>
       <c r="E55" s="2">
@@ -3464,7 +3479,7 @@
       <c r="F55" s="2">
         <v>-0.64046000000000003</v>
       </c>
-      <c r="G55" s="3">
+      <c r="G55" s="5">
         <v>6</v>
       </c>
       <c r="H55" s="2">
@@ -3473,7 +3488,7 @@
       <c r="I55" s="2">
         <v>-0.93718999999999997</v>
       </c>
-      <c r="J55" s="1">
+      <c r="J55" s="4">
         <v>9</v>
       </c>
       <c r="K55" s="2">
@@ -3482,23 +3497,23 @@
       <c r="L55" s="2">
         <v>-1.04322</v>
       </c>
-      <c r="M55" s="1">
+      <c r="M55" s="4">
         <v>14</v>
       </c>
       <c r="N55" s="2">
-        <v>0.55571999999999999</v>
+        <v>0.27812999999999999</v>
       </c>
       <c r="O55" s="2">
-        <v>-0.37001000000000001</v>
-      </c>
-      <c r="P55" s="2">
+        <v>-0.32046000000000002</v>
+      </c>
+      <c r="P55" s="4">
         <v>15</v>
       </c>
       <c r="Q55" s="2">
         <v>0.27812999999999999</v>
       </c>
       <c r="R55" s="2">
-        <v>-0.27016000000000001</v>
+        <v>-0.27017000000000002</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.3">
@@ -3511,7 +3526,7 @@
       <c r="C56" s="2">
         <v>-0.31152999999999997</v>
       </c>
-      <c r="D56" s="1">
+      <c r="D56" s="4">
         <v>2</v>
       </c>
       <c r="E56" s="2">
@@ -3520,7 +3535,7 @@
       <c r="F56" s="2">
         <v>-0.65190000000000003</v>
       </c>
-      <c r="G56" s="3">
+      <c r="G56" s="5">
         <v>6</v>
       </c>
       <c r="H56" s="2">
@@ -3529,25 +3544,25 @@
       <c r="I56" s="2">
         <v>-0.95738999999999996</v>
       </c>
-      <c r="J56" s="1">
+      <c r="J56" s="4">
         <v>9</v>
       </c>
       <c r="K56" s="2">
         <v>0.26365</v>
       </c>
       <c r="L56" s="2">
-        <v>-1.07752</v>
-      </c>
-      <c r="M56" s="1">
+        <v>-1.0775300000000001</v>
+      </c>
+      <c r="M56" s="4">
         <v>14</v>
       </c>
       <c r="N56" s="2">
-        <v>0.54642000000000002</v>
+        <v>0.26365</v>
       </c>
       <c r="O56" s="2">
-        <v>-0.3735</v>
-      </c>
-      <c r="P56" s="2">
+        <v>-0.36719000000000002</v>
+      </c>
+      <c r="P56" s="4">
         <v>15</v>
       </c>
       <c r="Q56" s="2">
@@ -3567,7 +3582,7 @@
       <c r="C57" s="2">
         <v>-0.30665999999999999</v>
       </c>
-      <c r="D57" s="1">
+      <c r="D57" s="4">
         <v>2</v>
       </c>
       <c r="E57" s="2">
@@ -3576,7 +3591,7 @@
       <c r="F57" s="2">
         <v>-0.66159000000000001</v>
       </c>
-      <c r="G57" s="3">
+      <c r="G57" s="5">
         <v>6</v>
       </c>
       <c r="H57" s="2">
@@ -3585,7 +3600,7 @@
       <c r="I57" s="2">
         <v>-0.97904999999999998</v>
       </c>
-      <c r="J57" s="1">
+      <c r="J57" s="4">
         <v>9</v>
       </c>
       <c r="K57" s="2">
@@ -3594,23 +3609,23 @@
       <c r="L57" s="2">
         <v>-1.1149899999999999</v>
       </c>
-      <c r="M57" s="1">
+      <c r="M57" s="4">
         <v>14</v>
       </c>
       <c r="N57" s="2">
-        <v>0.53713999999999995</v>
+        <v>0.24920999999999999</v>
       </c>
       <c r="O57" s="2">
-        <v>-0.37703999999999999</v>
-      </c>
-      <c r="P57" s="2">
+        <v>-0.41643000000000002</v>
+      </c>
+      <c r="P57" s="4">
         <v>15</v>
       </c>
       <c r="Q57" s="2">
         <v>0.24920999999999999</v>
       </c>
       <c r="R57" s="2">
-        <v>-0.29481000000000002</v>
+        <v>-0.29482000000000003</v>
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.3">
@@ -3623,7 +3638,7 @@
       <c r="C58" s="2">
         <v>-0.30180000000000001</v>
       </c>
-      <c r="D58" s="1">
+      <c r="D58" s="4">
         <v>2</v>
       </c>
       <c r="E58" s="2">
@@ -3632,7 +3647,7 @@
       <c r="F58" s="2">
         <v>-0.67039000000000004</v>
       </c>
-      <c r="G58" s="3">
+      <c r="G58" s="5">
         <v>6</v>
       </c>
       <c r="H58" s="2">
@@ -3641,7 +3656,7 @@
       <c r="I58" s="2">
         <v>-1.002</v>
       </c>
-      <c r="J58" s="1">
+      <c r="J58" s="4">
         <v>9</v>
       </c>
       <c r="K58" s="2">
@@ -3650,16 +3665,16 @@
       <c r="L58" s="2">
         <v>-1.1474599999999999</v>
       </c>
-      <c r="M58" s="1">
+      <c r="M58" s="4">
         <v>14</v>
       </c>
       <c r="N58" s="2">
-        <v>0.52786</v>
+        <v>0.23480000000000001</v>
       </c>
       <c r="O58" s="2">
-        <v>-0.38062000000000001</v>
-      </c>
-      <c r="P58" s="2">
+        <v>-0.47031000000000001</v>
+      </c>
+      <c r="P58" s="4">
         <v>15</v>
       </c>
       <c r="Q58" s="2">
@@ -3679,7 +3694,7 @@
       <c r="C59" s="2">
         <v>-0.29642000000000002</v>
       </c>
-      <c r="D59" s="1">
+      <c r="D59" s="4">
         <v>2</v>
       </c>
       <c r="E59" s="2">
@@ -3688,7 +3703,7 @@
       <c r="F59" s="2">
         <v>-0.68139000000000005</v>
       </c>
-      <c r="G59" s="3">
+      <c r="G59" s="5">
         <v>6</v>
       </c>
       <c r="H59" s="2">
@@ -3697,7 +3712,7 @@
       <c r="I59" s="2">
         <v>-1.0269999999999999</v>
       </c>
-      <c r="J59" s="1">
+      <c r="J59" s="4">
         <v>9</v>
       </c>
       <c r="K59" s="2">
@@ -3706,16 +3721,16 @@
       <c r="L59" s="2">
         <v>-1.1918800000000001</v>
       </c>
-      <c r="M59" s="1">
+      <c r="M59" s="4">
         <v>14</v>
       </c>
       <c r="N59" s="2">
-        <v>0.51858000000000004</v>
+        <v>0.22042999999999999</v>
       </c>
       <c r="O59" s="2">
-        <v>-0.38424000000000003</v>
-      </c>
-      <c r="P59" s="2">
+        <v>-0.52620999999999996</v>
+      </c>
+      <c r="P59" s="4">
         <v>15</v>
       </c>
       <c r="Q59" s="2">
@@ -3735,7 +3750,7 @@
       <c r="C60" s="2">
         <v>-0.28732000000000002</v>
       </c>
-      <c r="D60" s="1">
+      <c r="D60" s="4">
         <v>2</v>
       </c>
       <c r="E60" s="2">
@@ -3744,7 +3759,7 @@
       <c r="F60" s="2">
         <v>-0.69069000000000003</v>
       </c>
-      <c r="G60" s="3">
+      <c r="G60" s="5">
         <v>6</v>
       </c>
       <c r="H60" s="2">
@@ -3753,32 +3768,32 @@
       <c r="I60" s="2">
         <v>-1.0531999999999999</v>
       </c>
-      <c r="J60" s="1">
+      <c r="J60" s="4">
         <v>9</v>
       </c>
       <c r="K60" s="2">
         <v>0.20610000000000001</v>
       </c>
       <c r="L60" s="2">
-        <v>-1.22628</v>
-      </c>
-      <c r="M60" s="1">
+        <v>-1.2262900000000001</v>
+      </c>
+      <c r="M60" s="4">
         <v>14</v>
       </c>
       <c r="N60" s="2">
-        <v>0.50931000000000004</v>
+        <v>0.20610000000000001</v>
       </c>
       <c r="O60" s="2">
-        <v>-0.38789000000000001</v>
-      </c>
-      <c r="P60" s="2">
+        <v>-0.58609</v>
+      </c>
+      <c r="P60" s="4">
         <v>15</v>
       </c>
       <c r="Q60" s="2">
         <v>0.20610000000000001</v>
       </c>
       <c r="R60" s="2">
-        <v>-0.34173999999999999</v>
+        <v>-0.34175</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.3">
@@ -3791,16 +3806,16 @@
       <c r="C61" s="2">
         <v>-0.27933000000000002</v>
       </c>
-      <c r="D61" s="1">
+      <c r="D61" s="4">
         <v>2</v>
       </c>
       <c r="E61" s="2">
         <v>0.19183</v>
       </c>
       <c r="F61" s="2">
-        <v>-0.70060999999999996</v>
-      </c>
-      <c r="G61" s="3">
+        <v>-0.70062000000000002</v>
+      </c>
+      <c r="G61" s="5">
         <v>6</v>
       </c>
       <c r="H61" s="2">
@@ -3809,7 +3824,7 @@
       <c r="I61" s="2">
         <v>-1.08145</v>
       </c>
-      <c r="J61" s="1">
+      <c r="J61" s="4">
         <v>9</v>
       </c>
       <c r="K61" s="2">
@@ -3818,23 +3833,23 @@
       <c r="L61" s="2">
         <v>-1.27281</v>
       </c>
-      <c r="M61" s="1">
+      <c r="M61" s="4">
         <v>14</v>
       </c>
       <c r="N61" s="2">
-        <v>0.50002999999999997</v>
+        <v>0.19183</v>
       </c>
       <c r="O61" s="2">
-        <v>-0.39152999999999999</v>
-      </c>
-      <c r="P61" s="2">
+        <v>-0.64937999999999996</v>
+      </c>
+      <c r="P61" s="4">
         <v>15</v>
       </c>
       <c r="Q61" s="2">
         <v>0.19183</v>
       </c>
       <c r="R61" s="2">
-        <v>-0.36108000000000001</v>
+        <v>-0.36109000000000002</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.3">
@@ -3847,7 +3862,7 @@
       <c r="C62" s="2">
         <v>-0.26690999999999998</v>
       </c>
-      <c r="D62" s="1">
+      <c r="D62" s="4">
         <v>2</v>
       </c>
       <c r="E62" s="2">
@@ -3856,7 +3871,7 @@
       <c r="F62" s="2">
         <v>-0.70609999999999995</v>
       </c>
-      <c r="G62" s="3">
+      <c r="G62" s="5">
         <v>6</v>
       </c>
       <c r="H62" s="2">
@@ -3865,7 +3880,7 @@
       <c r="I62" s="2">
         <v>-1.1119000000000001</v>
       </c>
-      <c r="J62" s="1">
+      <c r="J62" s="4">
         <v>9</v>
       </c>
       <c r="K62" s="2">
@@ -3874,23 +3889,23 @@
       <c r="L62" s="2">
         <v>-1.32098</v>
       </c>
-      <c r="M62" s="1">
+      <c r="M62" s="4">
         <v>14</v>
       </c>
       <c r="N62" s="2">
-        <v>0.49075999999999997</v>
+        <v>0.17762</v>
       </c>
       <c r="O62" s="2">
-        <v>-0.39515</v>
-      </c>
-      <c r="P62" s="2">
+        <v>-0.71562000000000003</v>
+      </c>
+      <c r="P62" s="4">
         <v>15</v>
       </c>
       <c r="Q62" s="2">
         <v>0.17762</v>
       </c>
       <c r="R62" s="2">
-        <v>-0.38306000000000001</v>
+        <v>-0.38307000000000002</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.3">
@@ -3903,7 +3918,7 @@
       <c r="C63" s="2">
         <v>-0.25527</v>
       </c>
-      <c r="D63" s="1">
+      <c r="D63" s="4">
         <v>2</v>
       </c>
       <c r="E63" s="2">
@@ -3912,7 +3927,7 @@
       <c r="F63" s="2">
         <v>-0.72135000000000005</v>
       </c>
-      <c r="G63" s="3">
+      <c r="G63" s="5">
         <v>6</v>
       </c>
       <c r="H63" s="2">
@@ -3921,7 +3936,7 @@
       <c r="I63" s="2">
         <v>-1.14496</v>
       </c>
-      <c r="J63" s="1">
+      <c r="J63" s="4">
         <v>9</v>
       </c>
       <c r="K63" s="2">
@@ -3930,16 +3945,16 @@
       <c r="L63" s="2">
         <v>-1.37016</v>
       </c>
-      <c r="M63" s="1">
+      <c r="M63" s="4">
         <v>14</v>
       </c>
       <c r="N63" s="2">
-        <v>0.48148999999999997</v>
+        <v>0.16347</v>
       </c>
       <c r="O63" s="2">
-        <v>-0.39871000000000001</v>
-      </c>
-      <c r="P63" s="2">
+        <v>-0.78335999999999995</v>
+      </c>
+      <c r="P63" s="4">
         <v>15</v>
       </c>
       <c r="Q63" s="2">
@@ -3959,7 +3974,7 @@
       <c r="C64" s="2">
         <v>-0.23791000000000001</v>
       </c>
-      <c r="D64" s="1">
+      <c r="D64" s="4">
         <v>2</v>
       </c>
       <c r="E64" s="2">
@@ -3968,7 +3983,7 @@
       <c r="F64" s="2">
         <v>-0.72577000000000003</v>
       </c>
-      <c r="G64" s="3">
+      <c r="G64" s="5">
         <v>6</v>
       </c>
       <c r="H64" s="2">
@@ -3977,7 +3992,7 @@
       <c r="I64" s="2">
         <v>-1.1800299999999999</v>
       </c>
-      <c r="J64" s="1">
+      <c r="J64" s="4">
         <v>9</v>
       </c>
       <c r="K64" s="2">
@@ -3986,16 +4001,16 @@
       <c r="L64" s="2">
         <v>-1.4214599999999999</v>
       </c>
-      <c r="M64" s="1">
+      <c r="M64" s="4">
         <v>14</v>
       </c>
       <c r="N64" s="2">
-        <v>0.47221999999999997</v>
+        <v>0.14942</v>
       </c>
       <c r="O64" s="2">
-        <v>-0.40221000000000001</v>
-      </c>
-      <c r="P64" s="2">
+        <v>-0.86312999999999995</v>
+      </c>
+      <c r="P64" s="4">
         <v>15</v>
       </c>
       <c r="Q64" s="2">
@@ -4015,7 +4030,7 @@
       <c r="C65" s="2">
         <v>-0.21990999999999999</v>
       </c>
-      <c r="D65" s="1">
+      <c r="D65" s="4">
         <v>2</v>
       </c>
       <c r="E65" s="2">
@@ -4024,7 +4039,7 @@
       <c r="F65" s="2">
         <v>-0.73673</v>
       </c>
-      <c r="G65" s="3">
+      <c r="G65" s="5">
         <v>6</v>
       </c>
       <c r="H65" s="2">
@@ -4033,7 +4048,7 @@
       <c r="I65" s="2">
         <v>-1.21828</v>
       </c>
-      <c r="J65" s="1">
+      <c r="J65" s="4">
         <v>9</v>
       </c>
       <c r="K65" s="2">
@@ -4042,23 +4057,23 @@
       <c r="L65" s="2">
         <v>-1.4827600000000001</v>
       </c>
-      <c r="M65" s="1">
+      <c r="M65" s="4">
         <v>14</v>
       </c>
       <c r="N65" s="2">
-        <v>0.46294999999999997</v>
+        <v>0.13547000000000001</v>
       </c>
       <c r="O65" s="2">
-        <v>-0.40559000000000001</v>
-      </c>
-      <c r="P65" s="2">
+        <v>-0.94123000000000001</v>
+      </c>
+      <c r="P65" s="4">
         <v>15</v>
       </c>
       <c r="Q65" s="2">
         <v>0.13547000000000001</v>
       </c>
       <c r="R65" s="2">
-        <v>-0.47211999999999998</v>
+        <v>-0.47212999999999999</v>
       </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.3">
@@ -4071,7 +4086,7 @@
       <c r="C66" s="2">
         <v>-0.19822999999999999</v>
       </c>
-      <c r="D66" s="1">
+      <c r="D66" s="4">
         <v>2</v>
       </c>
       <c r="E66" s="2">
@@ -4080,7 +4095,7 @@
       <c r="F66" s="2">
         <v>-0.74329000000000001</v>
       </c>
-      <c r="G66" s="3">
+      <c r="G66" s="5">
         <v>6</v>
       </c>
       <c r="H66" s="2">
@@ -4089,7 +4104,7 @@
       <c r="I66" s="2">
         <v>-1.2612300000000001</v>
       </c>
-      <c r="J66" s="1">
+      <c r="J66" s="4">
         <v>9</v>
       </c>
       <c r="K66" s="2">
@@ -4098,16 +4113,16 @@
       <c r="L66" s="2">
         <v>-1.54715</v>
       </c>
-      <c r="M66" s="1">
+      <c r="M66" s="4">
         <v>14</v>
       </c>
       <c r="N66" s="2">
-        <v>0.45367000000000002</v>
+        <v>0.12164999999999999</v>
       </c>
       <c r="O66" s="2">
-        <v>-0.40882000000000002</v>
-      </c>
-      <c r="P66" s="2">
+        <v>-1.0281400000000001</v>
+      </c>
+      <c r="P66" s="4">
         <v>15</v>
       </c>
       <c r="Q66" s="2">
@@ -4127,7 +4142,7 @@
       <c r="C67" s="2">
         <v>-0.17043</v>
       </c>
-      <c r="D67" s="1">
+      <c r="D67" s="4">
         <v>2</v>
       </c>
       <c r="E67" s="2">
@@ -4136,7 +4151,7 @@
       <c r="F67" s="2">
         <v>-0.74936000000000003</v>
       </c>
-      <c r="G67" s="3">
+      <c r="G67" s="5">
         <v>6</v>
       </c>
       <c r="H67" s="2">
@@ -4145,7 +4160,7 @@
       <c r="I67" s="2">
         <v>-1.30708</v>
       </c>
-      <c r="J67" s="1">
+      <c r="J67" s="4">
         <v>9</v>
       </c>
       <c r="K67" s="2">
@@ -4154,23 +4169,23 @@
       <c r="L67" s="2">
         <v>-1.6148400000000001</v>
       </c>
-      <c r="M67" s="1">
+      <c r="M67" s="4">
         <v>14</v>
       </c>
       <c r="N67" s="2">
-        <v>0.44440000000000002</v>
+        <v>0.10799</v>
       </c>
       <c r="O67" s="2">
-        <v>-0.41227000000000003</v>
-      </c>
-      <c r="P67" s="2">
+        <v>-1.11869</v>
+      </c>
+      <c r="P67" s="4">
         <v>15</v>
       </c>
       <c r="Q67" s="2">
         <v>0.10799</v>
       </c>
       <c r="R67" s="2">
-        <v>-0.56589</v>
+        <v>-0.56589999999999996</v>
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.3">
@@ -4183,7 +4198,7 @@
       <c r="C68" s="2">
         <v>-0.13381999999999999</v>
       </c>
-      <c r="D68" s="1">
+      <c r="D68" s="4">
         <v>2</v>
       </c>
       <c r="E68" s="2">
@@ -4192,7 +4207,7 @@
       <c r="F68" s="2">
         <v>-0.75083</v>
       </c>
-      <c r="G68" s="3">
+      <c r="G68" s="5">
         <v>6</v>
       </c>
       <c r="H68" s="2">
@@ -4201,7 +4216,7 @@
       <c r="I68" s="2">
         <v>-1.3570800000000001</v>
       </c>
-      <c r="J68" s="1">
+      <c r="J68" s="4">
         <v>9</v>
       </c>
       <c r="K68" s="2">
@@ -4210,23 +4225,23 @@
       <c r="L68" s="2">
         <v>-1.69231</v>
       </c>
-      <c r="M68" s="1">
+      <c r="M68" s="4">
         <v>14</v>
       </c>
       <c r="N68" s="2">
-        <v>0.43512000000000001</v>
+        <v>9.4539999999999999E-2</v>
       </c>
       <c r="O68" s="2">
-        <v>-0.41682000000000002</v>
-      </c>
-      <c r="P68" s="2">
+        <v>-1.2307399999999999</v>
+      </c>
+      <c r="P68" s="4">
         <v>15</v>
       </c>
       <c r="Q68" s="2">
         <v>9.4539999999999999E-2</v>
       </c>
       <c r="R68" s="2">
-        <v>-0.63287000000000004</v>
+        <v>-0.63288</v>
       </c>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.3">
@@ -4239,7 +4254,7 @@
       <c r="C69" s="2">
         <v>-9.3140000000000001E-2</v>
       </c>
-      <c r="D69" s="1">
+      <c r="D69" s="4">
         <v>2</v>
       </c>
       <c r="E69" s="2">
@@ -4248,7 +4263,7 @@
       <c r="F69" s="2">
         <v>-0.75544999999999995</v>
       </c>
-      <c r="G69" s="3">
+      <c r="G69" s="5">
         <v>6</v>
       </c>
       <c r="H69" s="2">
@@ -4257,7 +4272,7 @@
       <c r="I69" s="2">
         <v>-1.4132499999999999</v>
       </c>
-      <c r="J69" s="1">
+      <c r="J69" s="4">
         <v>9</v>
       </c>
       <c r="K69" s="2">
@@ -4266,16 +4281,16 @@
       <c r="L69" s="2">
         <v>-1.77528</v>
       </c>
-      <c r="M69" s="1">
+      <c r="M69" s="4">
         <v>14</v>
       </c>
       <c r="N69" s="2">
-        <v>0.42584</v>
+        <v>8.1339999999999996E-2</v>
       </c>
       <c r="O69" s="2">
-        <v>-0.42415000000000003</v>
-      </c>
-      <c r="P69" s="2">
+        <v>-1.3456999999999999</v>
+      </c>
+      <c r="P69" s="4">
         <v>15</v>
       </c>
       <c r="Q69" s="2">
@@ -4295,7 +4310,7 @@
       <c r="C70" s="2">
         <v>-3.5639999999999998E-2</v>
       </c>
-      <c r="D70" s="1">
+      <c r="D70" s="4">
         <v>2</v>
       </c>
       <c r="E70" s="2">
@@ -4304,7 +4319,7 @@
       <c r="F70" s="2">
         <v>-0.74746000000000001</v>
       </c>
-      <c r="G70" s="3">
+      <c r="G70" s="5">
         <v>6</v>
       </c>
       <c r="H70" s="2">
@@ -4313,7 +4328,7 @@
       <c r="I70" s="2">
         <v>-1.4724999999999999</v>
       </c>
-      <c r="J70" s="1">
+      <c r="J70" s="4">
         <v>9</v>
       </c>
       <c r="K70" s="2">
@@ -4322,23 +4337,23 @@
       <c r="L70" s="2">
         <v>-1.8576699999999999</v>
       </c>
-      <c r="M70" s="1">
+      <c r="M70" s="4">
         <v>14</v>
       </c>
       <c r="N70" s="2">
-        <v>0.41657</v>
+        <v>6.8470000000000003E-2</v>
       </c>
       <c r="O70" s="2">
-        <v>-0.43304999999999999</v>
-      </c>
-      <c r="P70" s="2">
+        <v>-1.4935</v>
+      </c>
+      <c r="P70" s="4">
         <v>15</v>
       </c>
       <c r="Q70" s="2">
         <v>6.8470000000000003E-2</v>
       </c>
       <c r="R70" s="2">
-        <v>-0.84340999999999999</v>
+        <v>-0.84341999999999995</v>
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.3">
@@ -4351,7 +4366,7 @@
       <c r="C71" s="2">
         <v>3.44E-2</v>
       </c>
-      <c r="D71" s="1">
+      <c r="D71" s="4">
         <v>2</v>
       </c>
       <c r="E71" s="2">
@@ -4360,7 +4375,7 @@
       <c r="F71" s="2">
         <v>-0.73434999999999995</v>
       </c>
-      <c r="G71" s="3">
+      <c r="G71" s="5">
         <v>6</v>
       </c>
       <c r="H71" s="2">
@@ -4369,7 +4384,7 @@
       <c r="I71" s="2">
         <v>-1.54172</v>
       </c>
-      <c r="J71" s="1">
+      <c r="J71" s="4">
         <v>9</v>
       </c>
       <c r="K71" s="2">
@@ -4378,23 +4393,23 @@
       <c r="L71" s="2">
         <v>-1.9841899999999999</v>
       </c>
-      <c r="M71" s="1">
+      <c r="M71" s="4">
         <v>14</v>
       </c>
       <c r="N71" s="2">
-        <v>0.40728999999999999</v>
+        <v>5.604E-2</v>
       </c>
       <c r="O71" s="2">
-        <v>-0.44320999999999999</v>
-      </c>
-      <c r="P71" s="2">
+        <v>-1.6796599999999999</v>
+      </c>
+      <c r="P71" s="4">
         <v>15</v>
       </c>
       <c r="Q71" s="2">
         <v>5.604E-2</v>
       </c>
       <c r="R71" s="2">
-        <v>-1.0151699999999999</v>
+        <v>-1.01518</v>
       </c>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.3">
@@ -4407,7 +4422,7 @@
       <c r="C72" s="2">
         <v>0.12790000000000001</v>
       </c>
-      <c r="D72" s="1">
+      <c r="D72" s="4">
         <v>2</v>
       </c>
       <c r="E72" s="2">
@@ -4416,7 +4431,7 @@
       <c r="F72" s="2">
         <v>-0.70423000000000002</v>
       </c>
-      <c r="G72" s="3">
+      <c r="G72" s="5">
         <v>6</v>
       </c>
       <c r="H72" s="2">
@@ -4425,7 +4440,7 @@
       <c r="I72" s="2">
         <v>-1.60975</v>
       </c>
-      <c r="J72" s="1">
+      <c r="J72" s="4">
         <v>9</v>
       </c>
       <c r="K72" s="2">
@@ -4434,16 +4449,16 @@
       <c r="L72" s="2">
         <v>-2.3266900000000001</v>
       </c>
-      <c r="M72" s="1">
+      <c r="M72" s="4">
         <v>14</v>
       </c>
       <c r="N72" s="2">
-        <v>0.39800999999999997</v>
+        <v>4.4200000000000003E-2</v>
       </c>
       <c r="O72" s="2">
-        <v>-0.45456000000000002</v>
-      </c>
-      <c r="P72" s="2">
+        <v>-1.9734700000000001</v>
+      </c>
+      <c r="P72" s="4">
         <v>15</v>
       </c>
       <c r="Q72" s="2">
@@ -4463,7 +4478,7 @@
       <c r="C73" s="2">
         <v>0.24248</v>
       </c>
-      <c r="D73" s="1">
+      <c r="D73" s="4">
         <v>2</v>
       </c>
       <c r="E73" s="2">
@@ -4472,7 +4487,7 @@
       <c r="F73" s="2">
         <v>-0.66664000000000001</v>
       </c>
-      <c r="G73" s="3">
+      <c r="G73" s="5">
         <v>6</v>
       </c>
       <c r="H73" s="2">
@@ -4481,7 +4496,7 @@
       <c r="I73" s="2">
         <v>-1.70028</v>
       </c>
-      <c r="J73" s="1">
+      <c r="J73" s="4">
         <v>9</v>
       </c>
       <c r="K73" s="2">
@@ -4490,16 +4505,16 @@
       <c r="L73" s="2">
         <v>-3.1357400000000002</v>
       </c>
-      <c r="M73" s="1">
+      <c r="M73" s="4">
         <v>14</v>
       </c>
       <c r="N73" s="2">
-        <v>0.38873000000000002</v>
+        <v>3.3239999999999999E-2</v>
       </c>
       <c r="O73" s="2">
-        <v>-0.46728999999999998</v>
-      </c>
-      <c r="P73" s="2">
+        <v>-2.4893200000000002</v>
+      </c>
+      <c r="P73" s="4">
         <v>15</v>
       </c>
       <c r="Q73" s="2">
@@ -4519,7 +4534,7 @@
       <c r="C74" s="2">
         <v>0.37714999999999999</v>
       </c>
-      <c r="D74" s="1">
+      <c r="D74" s="4">
         <v>2</v>
       </c>
       <c r="E74" s="2">
@@ -4528,7 +4543,7 @@
       <c r="F74" s="2">
         <v>-0.60834999999999995</v>
       </c>
-      <c r="G74" s="3">
+      <c r="G74" s="5">
         <v>6</v>
       </c>
       <c r="H74" s="2">
@@ -4537,7 +4552,7 @@
       <c r="I74" s="2">
         <v>-1.7864500000000001</v>
       </c>
-      <c r="J74" s="1">
+      <c r="J74" s="4">
         <v>9</v>
       </c>
       <c r="K74" s="2">
@@ -4546,23 +4561,23 @@
       <c r="L74" s="2">
         <v>-3.2153800000000001</v>
       </c>
-      <c r="M74" s="1">
+      <c r="M74" s="4">
         <v>14</v>
       </c>
       <c r="N74" s="2">
-        <v>0.37946000000000002</v>
+        <v>2.375E-2</v>
       </c>
       <c r="O74" s="2">
-        <v>-0.48114000000000001</v>
-      </c>
-      <c r="P74" s="2">
+        <v>-3.3273799999999998</v>
+      </c>
+      <c r="P74" s="4">
         <v>15</v>
       </c>
       <c r="Q74" s="2">
         <v>2.375E-2</v>
       </c>
       <c r="R74" s="2">
-        <v>-1.7629699999999999</v>
+        <v>-1.76298</v>
       </c>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.3">
@@ -4575,7 +4590,7 @@
       <c r="C75" s="2">
         <v>0.55089999999999995</v>
       </c>
-      <c r="D75" s="1">
+      <c r="D75" s="4">
         <v>2</v>
       </c>
       <c r="E75" s="2">
@@ -4584,7 +4599,7 @@
       <c r="F75" s="2">
         <v>-0.50260000000000005</v>
       </c>
-      <c r="G75" s="3">
+      <c r="G75" s="5">
         <v>6</v>
       </c>
       <c r="H75" s="2">
@@ -4593,32 +4608,32 @@
       <c r="I75" s="2">
         <v>-1.8469</v>
       </c>
-      <c r="J75" s="1">
+      <c r="J75" s="4">
         <v>9</v>
       </c>
       <c r="K75" s="2">
         <v>1.6209999999999999E-2</v>
       </c>
       <c r="L75" s="2">
-        <v>-3.29819</v>
-      </c>
-      <c r="M75" s="1">
+        <v>-3.2982</v>
+      </c>
+      <c r="M75" s="4">
         <v>14</v>
       </c>
       <c r="N75" s="2">
-        <v>0.37018000000000001</v>
+        <v>1.6209999999999999E-2</v>
       </c>
       <c r="O75" s="2">
-        <v>-0.49637999999999999</v>
-      </c>
-      <c r="P75" s="2">
+        <v>-3.3722599999999998</v>
+      </c>
+      <c r="P75" s="4">
         <v>15</v>
       </c>
       <c r="Q75" s="2">
         <v>1.6209999999999999E-2</v>
       </c>
       <c r="R75" s="2">
-        <v>-1.78237</v>
+        <v>-1.7823800000000001</v>
       </c>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.3">
@@ -4631,7 +4646,7 @@
       <c r="C76" s="2">
         <v>0.71197999999999995</v>
       </c>
-      <c r="D76" s="1">
+      <c r="D76" s="4">
         <v>2</v>
       </c>
       <c r="E76" s="2">
@@ -4640,7 +4655,7 @@
       <c r="F76" s="2">
         <v>-0.35771999999999998</v>
       </c>
-      <c r="G76" s="3">
+      <c r="G76" s="5">
         <v>6</v>
       </c>
       <c r="H76" s="2">
@@ -4649,7 +4664,7 @@
       <c r="I76" s="2">
         <v>-1.9442600000000001</v>
       </c>
-      <c r="J76" s="1">
+      <c r="J76" s="4">
         <v>9</v>
       </c>
       <c r="K76" s="2">
@@ -4658,23 +4673,23 @@
       <c r="L76" s="2">
         <v>-3.3919700000000002</v>
       </c>
-      <c r="M76" s="1">
+      <c r="M76" s="4">
         <v>14</v>
       </c>
       <c r="N76" s="2">
-        <v>0.3609</v>
+        <v>1.0659999999999999E-2</v>
       </c>
       <c r="O76" s="2">
-        <v>-0.51290000000000002</v>
-      </c>
-      <c r="P76" s="2">
+        <v>-3.41296</v>
+      </c>
+      <c r="P76" s="4">
         <v>15</v>
       </c>
       <c r="Q76" s="2">
         <v>1.0659999999999999E-2</v>
       </c>
       <c r="R76" s="2">
-        <v>-1.8060400000000001</v>
+        <v>-1.8060499999999999</v>
       </c>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.3">
@@ -4687,7 +4702,7 @@
       <c r="C77" s="2">
         <v>0.84204000000000001</v>
       </c>
-      <c r="D77" s="1">
+      <c r="D77" s="4">
         <v>2</v>
       </c>
       <c r="E77" s="2">
@@ -4696,7 +4711,7 @@
       <c r="F77" s="2">
         <v>-0.29320000000000002</v>
       </c>
-      <c r="G77" s="3">
+      <c r="G77" s="5">
         <v>6</v>
       </c>
       <c r="H77" s="2">
@@ -4705,7 +4720,7 @@
       <c r="I77" s="2">
         <v>-2.1337999999999999</v>
       </c>
-      <c r="J77" s="1">
+      <c r="J77" s="4">
         <v>9</v>
       </c>
       <c r="K77" s="2">
@@ -4714,16 +4729,16 @@
       <c r="L77" s="2">
         <v>-3.5103200000000001</v>
       </c>
-      <c r="M77" s="1">
+      <c r="M77" s="4">
         <v>14</v>
       </c>
       <c r="N77" s="2">
-        <v>0.35163</v>
+        <v>6.77E-3</v>
       </c>
       <c r="O77" s="2">
-        <v>-0.53054000000000001</v>
-      </c>
-      <c r="P77" s="2">
+        <v>-3.4506399999999999</v>
+      </c>
+      <c r="P77" s="4">
         <v>15</v>
       </c>
       <c r="Q77" s="2">
@@ -4743,7 +4758,7 @@
       <c r="C78" s="2">
         <v>0.93500000000000005</v>
       </c>
-      <c r="D78" s="1">
+      <c r="D78" s="4">
         <v>2</v>
       </c>
       <c r="E78" s="2">
@@ -4752,7 +4767,7 @@
       <c r="F78" s="2">
         <v>-0.22255</v>
       </c>
-      <c r="G78" s="3">
+      <c r="G78" s="5">
         <v>6</v>
       </c>
       <c r="H78" s="2">
@@ -4761,7 +4776,7 @@
       <c r="I78" s="2">
         <v>-2.33874</v>
       </c>
-      <c r="J78" s="1">
+      <c r="J78" s="4">
         <v>9</v>
       </c>
       <c r="K78" s="2">
@@ -4770,16 +4785,16 @@
       <c r="L78" s="2">
         <v>-3.7025100000000002</v>
       </c>
-      <c r="M78" s="1">
+      <c r="M78" s="4">
         <v>14</v>
       </c>
       <c r="N78" s="2">
-        <v>0.34236</v>
+        <v>4.1000000000000003E-3</v>
       </c>
       <c r="O78" s="2">
-        <v>-0.54959999999999998</v>
-      </c>
-      <c r="P78" s="2">
+        <v>-3.5095499999999999</v>
+      </c>
+      <c r="P78" s="4">
         <v>15</v>
       </c>
       <c r="Q78" s="2">
@@ -4799,7 +4814,7 @@
       <c r="C79" s="2">
         <v>0.99758999999999998</v>
       </c>
-      <c r="D79" s="1">
+      <c r="D79" s="4">
         <v>2</v>
       </c>
       <c r="E79" s="2">
@@ -4808,7 +4823,7 @@
       <c r="F79" s="2">
         <v>-6.2740000000000004E-2</v>
       </c>
-      <c r="G79" s="3">
+      <c r="G79" s="5">
         <v>6</v>
       </c>
       <c r="H79" s="2">
@@ -4817,7 +4832,7 @@
       <c r="I79" s="2">
         <v>-2.4073699999999998</v>
       </c>
-      <c r="J79" s="1">
+      <c r="J79" s="4">
         <v>9</v>
       </c>
       <c r="K79" s="2">
@@ -4826,23 +4841,23 @@
       <c r="L79" s="2">
         <v>-4.01518</v>
       </c>
-      <c r="M79" s="1">
+      <c r="M79" s="4">
         <v>14</v>
       </c>
       <c r="N79" s="2">
-        <v>0.33309</v>
+        <v>2.2899999999999999E-3</v>
       </c>
       <c r="O79" s="2">
-        <v>-0.56996000000000002</v>
-      </c>
-      <c r="P79" s="2">
+        <v>-3.6411899999999999</v>
+      </c>
+      <c r="P79" s="4">
         <v>15</v>
       </c>
       <c r="Q79" s="2">
         <v>2.2899999999999999E-3</v>
       </c>
       <c r="R79" s="2">
-        <v>-1.9947999999999999</v>
+        <v>-1.99481</v>
       </c>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.3">
@@ -4855,7 +4870,7 @@
       <c r="C80" s="2">
         <v>0.96796000000000004</v>
       </c>
-      <c r="D80" s="1">
+      <c r="D80" s="4">
         <v>2</v>
       </c>
       <c r="E80" s="2">
@@ -4864,7 +4879,7 @@
       <c r="F80" s="2">
         <v>0.19384999999999999</v>
       </c>
-      <c r="G80" s="3">
+      <c r="G80" s="5">
         <v>6</v>
       </c>
       <c r="H80" s="2">
@@ -4873,7 +4888,7 @@
       <c r="I80" s="2">
         <v>-2.3178299999999998</v>
       </c>
-      <c r="J80" s="1">
+      <c r="J80" s="4">
         <v>9</v>
       </c>
       <c r="K80" s="2">
@@ -4882,23 +4897,23 @@
       <c r="L80" s="2">
         <v>-4.3446300000000004</v>
       </c>
-      <c r="M80" s="1">
+      <c r="M80" s="4">
         <v>14</v>
       </c>
       <c r="N80" s="2">
-        <v>0.32383000000000001</v>
+        <v>1.08E-3</v>
       </c>
       <c r="O80" s="2">
-        <v>-0.59157000000000004</v>
-      </c>
-      <c r="P80" s="2">
+        <v>-3.9031500000000001</v>
+      </c>
+      <c r="P80" s="4">
         <v>15</v>
       </c>
       <c r="Q80" s="2">
         <v>1.08E-3</v>
       </c>
       <c r="R80" s="2">
-        <v>-2.2019199999999999</v>
+        <v>-2.2019299999999999</v>
       </c>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.3">
@@ -4911,7 +4926,7 @@
       <c r="C81" s="2">
         <v>0.79056999999999999</v>
       </c>
-      <c r="D81" s="1">
+      <c r="D81" s="4">
         <v>2</v>
       </c>
       <c r="E81" s="2">
@@ -4920,7 +4935,7 @@
       <c r="F81" s="2">
         <v>0.41059000000000001</v>
       </c>
-      <c r="G81" s="3">
+      <c r="G81" s="5">
         <v>6</v>
       </c>
       <c r="H81" s="2">
@@ -4929,7 +4944,7 @@
       <c r="I81" s="2">
         <v>-2.2224200000000001</v>
       </c>
-      <c r="J81" s="1">
+      <c r="J81" s="4">
         <v>9</v>
       </c>
       <c r="K81" s="2">
@@ -4938,16 +4953,16 @@
       <c r="L81" s="2">
         <v>-4.7132399999999999</v>
       </c>
-      <c r="M81" s="1">
+      <c r="M81" s="4">
         <v>14</v>
       </c>
       <c r="N81" s="2">
-        <v>0.31457000000000002</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="O81" s="2">
-        <v>-0.61429999999999996</v>
-      </c>
-      <c r="P81" s="2">
+        <v>-4.32064</v>
+      </c>
+      <c r="P81" s="4">
         <v>15</v>
       </c>
       <c r="Q81" s="2">
@@ -4967,7 +4982,7 @@
       <c r="C82" s="2">
         <v>0.42147000000000001</v>
       </c>
-      <c r="D82" s="1">
+      <c r="D82" s="4">
         <v>2</v>
       </c>
       <c r="E82" s="2">
@@ -4976,7 +4991,7 @@
       <c r="F82" s="2">
         <v>0.65342999999999996</v>
       </c>
-      <c r="G82" s="3">
+      <c r="G82" s="5">
         <v>6</v>
       </c>
       <c r="H82" s="2">
@@ -4985,7 +5000,7 @@
       <c r="I82" s="2">
         <v>-2.1773099999999999</v>
       </c>
-      <c r="J82" s="1">
+      <c r="J82" s="4">
         <v>9</v>
       </c>
       <c r="K82" s="2">
@@ -4994,23 +5009,23 @@
       <c r="L82" s="2">
         <v>-4.93527</v>
       </c>
-      <c r="M82" s="1">
+      <c r="M82" s="4">
         <v>14</v>
       </c>
       <c r="N82" s="2">
-        <v>0.30531000000000003</v>
+        <v>-1E-4</v>
       </c>
       <c r="O82" s="2">
-        <v>-0.63878999999999997</v>
-      </c>
-      <c r="P82" s="2">
+        <v>-4.7962699999999998</v>
+      </c>
+      <c r="P82" s="4">
         <v>15</v>
       </c>
       <c r="Q82" s="2">
         <v>-1E-4</v>
       </c>
       <c r="R82" s="2">
-        <v>-2.7836500000000002</v>
+        <v>-2.7836599999999998</v>
       </c>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.3">
@@ -5023,7 +5038,7 @@
       <c r="C83" s="2">
         <v>-0.36137000000000002</v>
       </c>
-      <c r="D83" s="1">
+      <c r="D83" s="4">
         <v>2</v>
       </c>
       <c r="E83" s="2">
@@ -5032,7 +5047,7 @@
       <c r="F83" s="2">
         <v>0.87565000000000004</v>
       </c>
-      <c r="G83" s="3">
+      <c r="G83" s="5">
         <v>6</v>
       </c>
       <c r="H83" s="2">
@@ -5041,7 +5056,7 @@
       <c r="I83" s="2">
         <v>-1.6129199999999999</v>
       </c>
-      <c r="J83" s="1">
+      <c r="J83" s="4">
         <v>9</v>
       </c>
       <c r="K83" s="2">
@@ -5050,23 +5065,23 @@
       <c r="L83" s="2">
         <v>-4.6071299999999997</v>
       </c>
-      <c r="M83" s="1">
+      <c r="M83" s="4">
         <v>14</v>
       </c>
       <c r="N83" s="2">
-        <v>0.29605999999999999</v>
+        <v>-6.9999999999999994E-5</v>
       </c>
       <c r="O83" s="2">
-        <v>-0.66413</v>
-      </c>
-      <c r="P83" s="2">
+        <v>-4.6791799999999997</v>
+      </c>
+      <c r="P83" s="4">
         <v>15</v>
       </c>
       <c r="Q83" s="2">
         <v>-6.9999999999999994E-5</v>
       </c>
       <c r="R83" s="2">
-        <v>-2.4773700000000001</v>
+        <v>-2.4773800000000001</v>
       </c>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.3">
@@ -5079,7 +5094,7 @@
       <c r="C84" s="2">
         <v>-0.99629000000000001</v>
       </c>
-      <c r="D84" s="1">
+      <c r="D84" s="4">
         <v>2</v>
       </c>
       <c r="E84" s="2">
@@ -5088,7 +5103,7 @@
       <c r="F84" s="2">
         <v>1.0008300000000001</v>
       </c>
-      <c r="G84" s="3">
+      <c r="G84" s="5">
         <v>6</v>
       </c>
       <c r="H84" s="2">
@@ -5097,25 +5112,25 @@
       <c r="I84" s="2">
         <v>-0.36308000000000001</v>
       </c>
-      <c r="J84" s="1">
+      <c r="J84" s="4">
         <v>9</v>
       </c>
       <c r="K84" s="2">
         <v>5.4000000000000001E-4</v>
       </c>
       <c r="L84" s="2">
-        <v>-2.53437</v>
-      </c>
-      <c r="M84" s="1">
+        <v>-2.5343800000000001</v>
+      </c>
+      <c r="M84" s="4">
         <v>14</v>
       </c>
       <c r="N84" s="2">
-        <v>0.28681000000000001</v>
+        <v>5.4000000000000001E-4</v>
       </c>
       <c r="O84" s="2">
-        <v>-0.69094</v>
-      </c>
-      <c r="P84" s="2">
+        <v>-2.9516800000000001</v>
+      </c>
+      <c r="P84" s="4">
         <v>15</v>
       </c>
       <c r="Q84" s="2">
@@ -5135,7 +5150,7 @@
       <c r="C85" s="2">
         <v>-1.03433</v>
       </c>
-      <c r="D85" s="1">
+      <c r="D85" s="4">
         <v>2</v>
       </c>
       <c r="E85" s="2">
@@ -5144,7 +5159,7 @@
       <c r="F85" s="2">
         <v>0.91325999999999996</v>
       </c>
-      <c r="G85" s="3">
+      <c r="G85" s="5">
         <v>6</v>
       </c>
       <c r="H85" s="2">
@@ -5153,7 +5168,7 @@
       <c r="I85" s="2">
         <v>0.49803999999999998</v>
       </c>
-      <c r="J85" s="1">
+      <c r="J85" s="4">
         <v>9</v>
       </c>
       <c r="K85" s="2">
@@ -5162,16 +5177,16 @@
       <c r="L85" s="2">
         <v>-0.69037999999999999</v>
       </c>
-      <c r="M85" s="1">
+      <c r="M85" s="4">
         <v>14</v>
       </c>
       <c r="N85" s="2">
-        <v>0.27757999999999999</v>
+        <v>1.7700000000000001E-3</v>
       </c>
       <c r="O85" s="2">
-        <v>-0.71930000000000005</v>
-      </c>
-      <c r="P85" s="2">
+        <v>-0.96640000000000004</v>
+      </c>
+      <c r="P85" s="4">
         <v>15</v>
       </c>
       <c r="Q85" s="2">
@@ -5191,7 +5206,7 @@
       <c r="C86" s="2">
         <v>-0.91669</v>
       </c>
-      <c r="D86" s="1">
+      <c r="D86" s="4">
         <v>2</v>
       </c>
       <c r="E86" s="2">
@@ -5200,7 +5215,7 @@
       <c r="F86" s="2">
         <v>0.81998000000000004</v>
       </c>
-      <c r="G86" s="3">
+      <c r="G86" s="5">
         <v>6</v>
       </c>
       <c r="H86" s="2">
@@ -5209,7 +5224,7 @@
       <c r="I86" s="2">
         <v>0.85726999999999998</v>
       </c>
-      <c r="J86" s="1">
+      <c r="J86" s="4">
         <v>9</v>
       </c>
       <c r="K86" s="2">
@@ -5218,16 +5233,16 @@
       <c r="L86" s="2">
         <v>0.26574999999999999</v>
       </c>
-      <c r="M86" s="1">
+      <c r="M86" s="4">
         <v>14</v>
       </c>
       <c r="N86" s="2">
-        <v>0.26834999999999998</v>
+        <v>3.5699999999999998E-3</v>
       </c>
       <c r="O86" s="2">
-        <v>-0.74822</v>
-      </c>
-      <c r="P86" s="2">
+        <v>6.8870000000000001E-2</v>
+      </c>
+      <c r="P86" s="4">
         <v>15</v>
       </c>
       <c r="Q86" s="2">
@@ -5247,7 +5262,7 @@
       <c r="C87" s="2">
         <v>-0.81711999999999996</v>
       </c>
-      <c r="D87" s="1">
+      <c r="D87" s="4">
         <v>2</v>
       </c>
       <c r="E87" s="2">
@@ -5256,7 +5271,7 @@
       <c r="F87" s="2">
         <v>0.72150000000000003</v>
       </c>
-      <c r="G87" s="3">
+      <c r="G87" s="5">
         <v>6</v>
       </c>
       <c r="H87" s="2">
@@ -5265,7 +5280,7 @@
       <c r="I87" s="2">
         <v>0.98341000000000001</v>
       </c>
-      <c r="J87" s="1">
+      <c r="J87" s="4">
         <v>9</v>
       </c>
       <c r="K87" s="2">
@@ -5274,16 +5289,16 @@
       <c r="L87" s="2">
         <v>0.68901999999999997</v>
       </c>
-      <c r="M87" s="1">
+      <c r="M87" s="4">
         <v>14</v>
       </c>
       <c r="N87" s="2">
-        <v>0.25913999999999998</v>
+        <v>5.9899999999999997E-3</v>
       </c>
       <c r="O87" s="2">
-        <v>-0.77968000000000004</v>
-      </c>
-      <c r="P87" s="2">
+        <v>0.55262</v>
+      </c>
+      <c r="P87" s="4">
         <v>15</v>
       </c>
       <c r="Q87" s="2">
@@ -5303,16 +5318,16 @@
       <c r="C88" s="2">
         <v>-0.79244000000000003</v>
       </c>
-      <c r="D88" s="1">
+      <c r="D88" s="4">
         <v>2</v>
       </c>
       <c r="E88" s="2">
         <v>9.2499999999999995E-3</v>
       </c>
       <c r="F88" s="2">
-        <v>0.58159000000000005</v>
-      </c>
-      <c r="G88" s="3">
+        <v>0.58160000000000001</v>
+      </c>
+      <c r="G88" s="5">
         <v>6</v>
       </c>
       <c r="H88" s="2">
@@ -5321,7 +5336,7 @@
       <c r="I88" s="2">
         <v>0.99883999999999995</v>
       </c>
-      <c r="J88" s="1">
+      <c r="J88" s="4">
         <v>9</v>
       </c>
       <c r="K88" s="2">
@@ -5330,16 +5345,16 @@
       <c r="L88" s="2">
         <v>0.90081999999999995</v>
       </c>
-      <c r="M88" s="1">
+      <c r="M88" s="4">
         <v>14</v>
       </c>
       <c r="N88" s="2">
-        <v>0.24993000000000001</v>
+        <v>9.2499999999999995E-3</v>
       </c>
       <c r="O88" s="2">
-        <v>-0.81149000000000004</v>
-      </c>
-      <c r="P88" s="2">
+        <v>0.82038999999999995</v>
+      </c>
+      <c r="P88" s="4">
         <v>15</v>
       </c>
       <c r="Q88" s="2">
@@ -5359,7 +5374,7 @@
       <c r="C89" s="2">
         <v>-0.77159</v>
       </c>
-      <c r="D89" s="1">
+      <c r="D89" s="4">
         <v>2</v>
       </c>
       <c r="E89" s="2">
@@ -5368,7 +5383,7 @@
       <c r="F89" s="2">
         <v>0.46556999999999998</v>
       </c>
-      <c r="G89" s="3">
+      <c r="G89" s="5">
         <v>6</v>
       </c>
       <c r="H89" s="2">
@@ -5377,7 +5392,7 @@
       <c r="I89" s="2">
         <v>0.95194999999999996</v>
       </c>
-      <c r="J89" s="1">
+      <c r="J89" s="4">
         <v>9</v>
       </c>
       <c r="K89" s="2">
@@ -5386,16 +5401,16 @@
       <c r="L89" s="2">
         <v>0.99063999999999997</v>
       </c>
-      <c r="M89" s="1">
+      <c r="M89" s="4">
         <v>14</v>
       </c>
       <c r="N89" s="2">
-        <v>0.24074999999999999</v>
+        <v>1.3780000000000001E-2</v>
       </c>
       <c r="O89" s="2">
-        <v>-0.84504999999999997</v>
-      </c>
-      <c r="P89" s="2">
+        <v>0.95638999999999996</v>
+      </c>
+      <c r="P89" s="4">
         <v>15</v>
       </c>
       <c r="Q89" s="2">
@@ -5415,7 +5430,7 @@
       <c r="C90" s="2">
         <v>-0.72514999999999996</v>
       </c>
-      <c r="D90" s="1">
+      <c r="D90" s="4">
         <v>2</v>
       </c>
       <c r="E90" s="2">
@@ -5424,7 +5439,7 @@
       <c r="F90" s="2">
         <v>0.35736000000000001</v>
       </c>
-      <c r="G90" s="3">
+      <c r="G90" s="5">
         <v>6</v>
       </c>
       <c r="H90" s="2">
@@ -5433,7 +5448,7 @@
       <c r="I90" s="2">
         <v>0.86534999999999995</v>
       </c>
-      <c r="J90" s="1">
+      <c r="J90" s="4">
         <v>9</v>
       </c>
       <c r="K90" s="2">
@@ -5442,16 +5457,16 @@
       <c r="L90" s="2">
         <v>0.99209000000000003</v>
       </c>
-      <c r="M90" s="1">
+      <c r="M90" s="4">
         <v>14</v>
       </c>
       <c r="N90" s="2">
-        <v>0.23157</v>
+        <v>2.026E-2</v>
       </c>
       <c r="O90" s="2">
-        <v>-0.88021000000000005</v>
-      </c>
-      <c r="P90" s="2">
+        <v>1.0005500000000001</v>
+      </c>
+      <c r="P90" s="4">
         <v>15</v>
       </c>
       <c r="Q90" s="2">
@@ -5471,7 +5486,7 @@
       <c r="C91" s="2">
         <v>-0.66818</v>
       </c>
-      <c r="D91" s="1">
+      <c r="D91" s="4">
         <v>2</v>
       </c>
       <c r="E91" s="2">
@@ -5480,7 +5495,7 @@
       <c r="F91" s="2">
         <v>0.26650000000000001</v>
       </c>
-      <c r="G91" s="3">
+      <c r="G91" s="5">
         <v>6</v>
       </c>
       <c r="H91" s="2">
@@ -5489,7 +5504,7 @@
       <c r="I91" s="2">
         <v>0.76251999999999998</v>
       </c>
-      <c r="J91" s="1">
+      <c r="J91" s="4">
         <v>9</v>
       </c>
       <c r="K91" s="2">
@@ -5498,16 +5513,16 @@
       <c r="L91" s="2">
         <v>0.93489999999999995</v>
       </c>
-      <c r="M91" s="1">
+      <c r="M91" s="4">
         <v>14</v>
       </c>
       <c r="N91" s="2">
-        <v>0.22241</v>
+        <v>2.9219999999999999E-2</v>
       </c>
       <c r="O91" s="2">
-        <v>-0.91568000000000005</v>
-      </c>
-      <c r="P91" s="2">
+        <v>0.97894000000000003</v>
+      </c>
+      <c r="P91" s="4">
         <v>15</v>
       </c>
       <c r="Q91" s="2">
@@ -5527,7 +5542,7 @@
       <c r="C92" s="2">
         <v>-0.61290999999999995</v>
       </c>
-      <c r="D92" s="1">
+      <c r="D92" s="4">
         <v>2</v>
       </c>
       <c r="E92" s="2">
@@ -5536,7 +5551,7 @@
       <c r="F92" s="2">
         <v>0.19769999999999999</v>
       </c>
-      <c r="G92" s="3">
+      <c r="G92" s="5">
         <v>6</v>
       </c>
       <c r="H92" s="2">
@@ -5545,7 +5560,7 @@
       <c r="I92" s="2">
         <v>0.66415000000000002</v>
       </c>
-      <c r="J92" s="1">
+      <c r="J92" s="4">
         <v>9</v>
       </c>
       <c r="K92" s="2">
@@ -5554,16 +5569,16 @@
       <c r="L92" s="2">
         <v>0.85919999999999996</v>
       </c>
-      <c r="M92" s="1">
+      <c r="M92" s="4">
         <v>14</v>
       </c>
       <c r="N92" s="2">
-        <v>0.21326999999999999</v>
+        <v>4.0430000000000001E-2</v>
       </c>
       <c r="O92" s="2">
-        <v>-0.95470999999999995</v>
-      </c>
-      <c r="P92" s="2">
+        <v>0.92264999999999997</v>
+      </c>
+      <c r="P92" s="4">
         <v>15</v>
       </c>
       <c r="Q92" s="2">
@@ -5583,7 +5598,7 @@
       <c r="C93" s="2">
         <v>-0.56381999999999999</v>
       </c>
-      <c r="D93" s="1">
+      <c r="D93" s="4">
         <v>2</v>
       </c>
       <c r="E93" s="2">
@@ -5592,7 +5607,7 @@
       <c r="F93" s="2">
         <v>0.14371999999999999</v>
       </c>
-      <c r="G93" s="3">
+      <c r="G93" s="5">
         <v>6</v>
       </c>
       <c r="H93" s="2">
@@ -5601,7 +5616,7 @@
       <c r="I93" s="2">
         <v>0.58301000000000003</v>
       </c>
-      <c r="J93" s="1">
+      <c r="J93" s="4">
         <v>9</v>
       </c>
       <c r="K93" s="2">
@@ -5610,16 +5625,16 @@
       <c r="L93" s="2">
         <v>0.77842999999999996</v>
       </c>
-      <c r="M93" s="1">
+      <c r="M93" s="4">
         <v>14</v>
       </c>
       <c r="N93" s="2">
-        <v>0.20415</v>
+        <v>5.3010000000000002E-2</v>
       </c>
       <c r="O93" s="2">
-        <v>-0.99475000000000002</v>
-      </c>
-      <c r="P93" s="2">
+        <v>0.85943999999999998</v>
+      </c>
+      <c r="P93" s="4">
         <v>15</v>
       </c>
       <c r="Q93" s="2">
@@ -5639,16 +5654,16 @@
       <c r="C94" s="2">
         <v>-0.52225999999999995</v>
       </c>
-      <c r="D94" s="1">
+      <c r="D94" s="4">
         <v>2</v>
       </c>
       <c r="E94" s="2">
         <v>6.6360000000000002E-2</v>
       </c>
       <c r="F94" s="2">
-        <v>0.11422</v>
-      </c>
-      <c r="G94" s="3">
+        <v>0.11423</v>
+      </c>
+      <c r="G94" s="5">
         <v>6</v>
       </c>
       <c r="H94" s="2">
@@ -5657,7 +5672,7 @@
       <c r="I94" s="2">
         <v>0.51827000000000001</v>
       </c>
-      <c r="J94" s="1">
+      <c r="J94" s="4">
         <v>9</v>
       </c>
       <c r="K94" s="2">
@@ -5666,16 +5681,16 @@
       <c r="L94" s="2">
         <v>0.71235999999999999</v>
       </c>
-      <c r="M94" s="1">
+      <c r="M94" s="4">
         <v>14</v>
       </c>
       <c r="N94" s="2">
-        <v>0.19505</v>
+        <v>6.6360000000000002E-2</v>
       </c>
       <c r="O94" s="2">
-        <v>-1.03352</v>
-      </c>
-      <c r="P94" s="2">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="P94" s="4">
         <v>15</v>
       </c>
       <c r="Q94" s="2">
@@ -5695,7 +5710,7 @@
       <c r="C95" s="2">
         <v>-0.48681000000000002</v>
       </c>
-      <c r="D95" s="1">
+      <c r="D95" s="4">
         <v>2</v>
       </c>
       <c r="E95" s="2">
@@ -5704,7 +5719,7 @@
       <c r="F95" s="2">
         <v>8.7760000000000005E-2</v>
       </c>
-      <c r="G95" s="3">
+      <c r="G95" s="5">
         <v>6</v>
       </c>
       <c r="H95" s="2">
@@ -5713,7 +5728,7 @@
       <c r="I95" s="2">
         <v>0.46387</v>
       </c>
-      <c r="J95" s="1">
+      <c r="J95" s="4">
         <v>9</v>
       </c>
       <c r="K95" s="2">
@@ -5722,16 +5737,16 @@
       <c r="L95" s="2">
         <v>0.65388999999999997</v>
       </c>
-      <c r="M95" s="1">
+      <c r="M95" s="4">
         <v>14</v>
       </c>
       <c r="N95" s="2">
-        <v>0.18598000000000001</v>
+        <v>8.0119999999999997E-2</v>
       </c>
       <c r="O95" s="2">
-        <v>-1.07887</v>
-      </c>
-      <c r="P95" s="2">
+        <v>0.75077000000000005</v>
+      </c>
+      <c r="P95" s="4">
         <v>15</v>
       </c>
       <c r="Q95" s="2">
@@ -5751,7 +5766,7 @@
       <c r="C96" s="2">
         <v>-0.45645999999999998</v>
       </c>
-      <c r="D96" s="1">
+      <c r="D96" s="4">
         <v>2</v>
       </c>
       <c r="E96" s="2">
@@ -5760,7 +5775,7 @@
       <c r="F96" s="2">
         <v>7.0529999999999995E-2</v>
       </c>
-      <c r="G96" s="3">
+      <c r="G96" s="5">
         <v>6</v>
       </c>
       <c r="H96" s="2">
@@ -5769,7 +5784,7 @@
       <c r="I96" s="2">
         <v>0.42337000000000002</v>
       </c>
-      <c r="J96" s="1">
+      <c r="J96" s="4">
         <v>9</v>
       </c>
       <c r="K96" s="2">
@@ -5778,16 +5793,16 @@
       <c r="L96" s="2">
         <v>0.60575000000000001</v>
       </c>
-      <c r="M96" s="1">
+      <c r="M96" s="4">
         <v>14</v>
       </c>
       <c r="N96" s="2">
-        <v>0.17693</v>
+        <v>9.4140000000000001E-2</v>
       </c>
       <c r="O96" s="2">
-        <v>-1.1230899999999999</v>
-      </c>
-      <c r="P96" s="2">
+        <v>0.70406999999999997</v>
+      </c>
+      <c r="P96" s="4">
         <v>15</v>
       </c>
       <c r="Q96" s="2">
@@ -5807,7 +5822,7 @@
       <c r="C97" s="2">
         <v>-0.43018000000000001</v>
       </c>
-      <c r="D97" s="1">
+      <c r="D97" s="4">
         <v>2</v>
       </c>
       <c r="E97" s="2">
@@ -5816,7 +5831,7 @@
       <c r="F97" s="2">
         <v>5.586E-2</v>
       </c>
-      <c r="G97" s="3">
+      <c r="G97" s="5">
         <v>6</v>
       </c>
       <c r="H97" s="2">
@@ -5825,7 +5840,7 @@
       <c r="I97" s="2">
         <v>0.38794000000000001</v>
       </c>
-      <c r="J97" s="1">
+      <c r="J97" s="4">
         <v>9</v>
       </c>
       <c r="K97" s="2">
@@ -5834,16 +5849,16 @@
       <c r="L97" s="2">
         <v>0.56228</v>
       </c>
-      <c r="M97" s="1">
+      <c r="M97" s="4">
         <v>14</v>
       </c>
       <c r="N97" s="2">
-        <v>0.16791</v>
+        <v>0.10835</v>
       </c>
       <c r="O97" s="2">
-        <v>-1.1708000000000001</v>
-      </c>
-      <c r="P97" s="2">
+        <v>0.66452</v>
+      </c>
+      <c r="P97" s="4">
         <v>15</v>
       </c>
       <c r="Q97" s="2">
@@ -5863,7 +5878,7 @@
       <c r="C98" s="2">
         <v>-0.40760999999999997</v>
       </c>
-      <c r="D98" s="1">
+      <c r="D98" s="4">
         <v>2</v>
       </c>
       <c r="E98" s="2">
@@ -5872,7 +5887,7 @@
       <c r="F98" s="2">
         <v>4.4350000000000001E-2</v>
       </c>
-      <c r="G98" s="3">
+      <c r="G98" s="5">
         <v>6</v>
       </c>
       <c r="H98" s="2">
@@ -5881,7 +5896,7 @@
       <c r="I98" s="2">
         <v>0.35976999999999998</v>
       </c>
-      <c r="J98" s="1">
+      <c r="J98" s="4">
         <v>9</v>
       </c>
       <c r="K98" s="2">
@@ -5890,16 +5905,16 @@
       <c r="L98" s="2">
         <v>0.52768999999999999</v>
       </c>
-      <c r="M98" s="1">
+      <c r="M98" s="4">
         <v>14</v>
       </c>
       <c r="N98" s="2">
-        <v>0.15892000000000001</v>
+        <v>0.1227</v>
       </c>
       <c r="O98" s="2">
-        <v>-1.22132</v>
-      </c>
-      <c r="P98" s="2">
+        <v>0.62865000000000004</v>
+      </c>
+      <c r="P98" s="4">
         <v>15</v>
       </c>
       <c r="Q98" s="2">
@@ -5919,7 +5934,7 @@
       <c r="C99" s="2">
         <v>-0.38740000000000002</v>
       </c>
-      <c r="D99" s="1">
+      <c r="D99" s="4">
         <v>2</v>
       </c>
       <c r="E99" s="2">
@@ -5928,7 +5943,7 @@
       <c r="F99" s="2">
         <v>3.5990000000000001E-2</v>
       </c>
-      <c r="G99" s="3">
+      <c r="G99" s="5">
         <v>6</v>
       </c>
       <c r="H99" s="2">
@@ -5937,7 +5952,7 @@
       <c r="I99" s="2">
         <v>0.33317000000000002</v>
       </c>
-      <c r="J99" s="1">
+      <c r="J99" s="4">
         <v>9</v>
       </c>
       <c r="K99" s="2">
@@ -5946,16 +5961,16 @@
       <c r="L99" s="2">
         <v>0.49530999999999997</v>
       </c>
-      <c r="M99" s="1">
+      <c r="M99" s="4">
         <v>14</v>
       </c>
       <c r="N99" s="2">
-        <v>0.14996999999999999</v>
+        <v>0.13713</v>
       </c>
       <c r="O99" s="2">
-        <v>-1.27355</v>
-      </c>
-      <c r="P99" s="2">
+        <v>0.59535000000000005</v>
+      </c>
+      <c r="P99" s="4">
         <v>15</v>
       </c>
       <c r="Q99" s="2">
@@ -5975,7 +5990,7 @@
       <c r="C100" s="2">
         <v>-0.36941000000000002</v>
       </c>
-      <c r="D100" s="1">
+      <c r="D100" s="4">
         <v>2</v>
       </c>
       <c r="E100" s="2">
@@ -5984,7 +5999,7 @@
       <c r="F100" s="2">
         <v>2.93E-2</v>
       </c>
-      <c r="G100" s="3">
+      <c r="G100" s="5">
         <v>6</v>
       </c>
       <c r="H100" s="2">
@@ -5993,7 +6008,7 @@
       <c r="I100" s="2">
         <v>0.31</v>
       </c>
-      <c r="J100" s="1">
+      <c r="J100" s="4">
         <v>9</v>
       </c>
       <c r="K100" s="2">
@@ -6002,16 +6017,16 @@
       <c r="L100" s="2">
         <v>0.46772000000000002</v>
       </c>
-      <c r="M100" s="1">
+      <c r="M100" s="4">
         <v>14</v>
       </c>
       <c r="N100" s="2">
-        <v>0.14105999999999999</v>
+        <v>0.15162999999999999</v>
       </c>
       <c r="O100" s="2">
-        <v>-1.3301099999999999</v>
-      </c>
-      <c r="P100" s="2">
+        <v>0.56972999999999996</v>
+      </c>
+      <c r="P100" s="4">
         <v>15</v>
       </c>
       <c r="Q100" s="2">
@@ -6031,7 +6046,7 @@
       <c r="C101" s="2">
         <v>-0.35436000000000001</v>
       </c>
-      <c r="D101" s="1">
+      <c r="D101" s="4">
         <v>2</v>
       </c>
       <c r="E101" s="2">
@@ -6040,7 +6055,7 @@
       <c r="F101" s="2">
         <v>2.171E-2</v>
       </c>
-      <c r="G101" s="3">
+      <c r="G101" s="5">
         <v>6</v>
       </c>
       <c r="H101" s="2">
@@ -6049,7 +6064,7 @@
       <c r="I101" s="2">
         <v>0.29278999999999999</v>
       </c>
-      <c r="J101" s="1">
+      <c r="J101" s="4">
         <v>9</v>
       </c>
       <c r="K101" s="2">
@@ -6058,16 +6073,16 @@
       <c r="L101" s="2">
         <v>0.43968000000000002</v>
       </c>
-      <c r="M101" s="1">
+      <c r="M101" s="4">
         <v>14</v>
       </c>
       <c r="N101" s="2">
-        <v>0.13220000000000001</v>
+        <v>0.16617999999999999</v>
       </c>
       <c r="O101" s="2">
-        <v>-1.38723</v>
-      </c>
-      <c r="P101" s="2">
+        <v>0.54186000000000001</v>
+      </c>
+      <c r="P101" s="4">
         <v>15</v>
       </c>
       <c r="Q101" s="2">
@@ -6087,7 +6102,7 @@
       <c r="C102" s="2">
         <v>-0.34010000000000001</v>
       </c>
-      <c r="D102" s="1">
+      <c r="D102" s="4">
         <v>2</v>
       </c>
       <c r="E102" s="2">
@@ -6096,7 +6111,7 @@
       <c r="F102" s="2">
         <v>1.8849999999999999E-2</v>
       </c>
-      <c r="G102" s="3">
+      <c r="G102" s="5">
         <v>6</v>
       </c>
       <c r="H102" s="2">
@@ -6105,7 +6120,7 @@
       <c r="I102" s="2">
         <v>0.27456000000000003</v>
       </c>
-      <c r="J102" s="1">
+      <c r="J102" s="4">
         <v>9</v>
       </c>
       <c r="K102" s="2">
@@ -6114,16 +6129,16 @@
       <c r="L102" s="2">
         <v>0.42002</v>
       </c>
-      <c r="M102" s="1">
+      <c r="M102" s="4">
         <v>14</v>
       </c>
       <c r="N102" s="2">
-        <v>0.1234</v>
+        <v>0.18078</v>
       </c>
       <c r="O102" s="2">
-        <v>-1.45445</v>
-      </c>
-      <c r="P102" s="2">
+        <v>0.52</v>
+      </c>
+      <c r="P102" s="4">
         <v>15</v>
       </c>
       <c r="Q102" s="2">
@@ -6143,7 +6158,7 @@
       <c r="C103" s="2">
         <v>-0.32712999999999998</v>
       </c>
-      <c r="D103" s="1">
+      <c r="D103" s="4">
         <v>2</v>
       </c>
       <c r="E103" s="2">
@@ -6152,7 +6167,7 @@
       <c r="F103" s="2">
         <v>1.2149999999999999E-2</v>
       </c>
-      <c r="G103" s="3">
+      <c r="G103" s="5">
         <v>6</v>
       </c>
       <c r="H103" s="2">
@@ -6161,7 +6176,7 @@
       <c r="I103" s="2">
         <v>0.25918000000000002</v>
       </c>
-      <c r="J103" s="1">
+      <c r="J103" s="4">
         <v>9</v>
       </c>
       <c r="K103" s="2">
@@ -6170,16 +6185,16 @@
       <c r="L103" s="2">
         <v>0.39763999999999999</v>
       </c>
-      <c r="M103" s="1">
+      <c r="M103" s="4">
         <v>14</v>
       </c>
       <c r="N103" s="2">
-        <v>0.11466</v>
+        <v>0.19542000000000001</v>
       </c>
       <c r="O103" s="2">
-        <v>-1.52071</v>
-      </c>
-      <c r="P103" s="2">
+        <v>0.49880000000000002</v>
+      </c>
+      <c r="P103" s="4">
         <v>15</v>
       </c>
       <c r="Q103" s="2">
@@ -6199,7 +6214,7 @@
       <c r="C104" s="2">
         <v>-0.31459999999999999</v>
       </c>
-      <c r="D104" s="1">
+      <c r="D104" s="4">
         <v>2</v>
       </c>
       <c r="E104" s="2">
@@ -6208,7 +6223,7 @@
       <c r="F104" s="2">
         <v>1.155E-2</v>
       </c>
-      <c r="G104" s="3">
+      <c r="G104" s="5">
         <v>6</v>
       </c>
       <c r="H104" s="2">
@@ -6217,7 +6232,7 @@
       <c r="I104" s="2">
         <v>0.24586</v>
       </c>
-      <c r="J104" s="1">
+      <c r="J104" s="4">
         <v>9</v>
       </c>
       <c r="K104" s="2">
@@ -6226,16 +6241,16 @@
       <c r="L104" s="2">
         <v>0.38051000000000001</v>
       </c>
-      <c r="M104" s="1">
+      <c r="M104" s="4">
         <v>14</v>
       </c>
       <c r="N104" s="2">
-        <v>0.106</v>
+        <v>0.21007999999999999</v>
       </c>
       <c r="O104" s="2">
-        <v>-1.5922400000000001</v>
-      </c>
-      <c r="P104" s="2">
+        <v>0.47678999999999999</v>
+      </c>
+      <c r="P104" s="4">
         <v>15</v>
       </c>
       <c r="Q104" s="2">
@@ -6255,7 +6270,7 @@
       <c r="C105" s="2">
         <v>-0.30377999999999999</v>
       </c>
-      <c r="D105" s="1">
+      <c r="D105" s="4">
         <v>2</v>
       </c>
       <c r="E105" s="2">
@@ -6264,7 +6279,7 @@
       <c r="F105" s="2">
         <v>7.5900000000000004E-3</v>
       </c>
-      <c r="G105" s="3">
+      <c r="G105" s="5">
         <v>6</v>
       </c>
       <c r="H105" s="2">
@@ -6273,7 +6288,7 @@
       <c r="I105" s="2">
         <v>0.23263</v>
       </c>
-      <c r="J105" s="1">
+      <c r="J105" s="4">
         <v>9</v>
       </c>
       <c r="K105" s="2">
@@ -6282,16 +6297,16 @@
       <c r="L105" s="2">
         <v>0.36201</v>
       </c>
-      <c r="M105" s="1">
+      <c r="M105" s="4">
         <v>14</v>
       </c>
       <c r="N105" s="2">
-        <v>9.7409999999999997E-2</v>
+        <v>0.22478000000000001</v>
       </c>
       <c r="O105" s="2">
-        <v>-1.67208</v>
-      </c>
-      <c r="P105" s="2">
+        <v>0.45999000000000001</v>
+      </c>
+      <c r="P105" s="4">
         <v>15</v>
       </c>
       <c r="Q105" s="2">
@@ -6311,7 +6326,7 @@
       <c r="C106" s="2">
         <v>-0.29398999999999997</v>
       </c>
-      <c r="D106" s="1">
+      <c r="D106" s="4">
         <v>2</v>
       </c>
       <c r="E106" s="2">
@@ -6320,7 +6335,7 @@
       <c r="F106" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="G106" s="3">
+      <c r="G106" s="5">
         <v>6</v>
       </c>
       <c r="H106" s="2">
@@ -6329,7 +6344,7 @@
       <c r="I106" s="2">
         <v>0.22031999999999999</v>
       </c>
-      <c r="J106" s="1">
+      <c r="J106" s="4">
         <v>9</v>
       </c>
       <c r="K106" s="2">
@@ -6338,16 +6353,16 @@
       <c r="L106" s="2">
         <v>0.34470000000000001</v>
       </c>
-      <c r="M106" s="1">
+      <c r="M106" s="4">
         <v>14</v>
       </c>
       <c r="N106" s="2">
-        <v>8.8929999999999995E-2</v>
+        <v>0.23949000000000001</v>
       </c>
       <c r="O106" s="2">
-        <v>-1.76376</v>
-      </c>
-      <c r="P106" s="2">
+        <v>0.44433</v>
+      </c>
+      <c r="P106" s="4">
         <v>15</v>
       </c>
       <c r="Q106" s="2">
@@ -6367,7 +6382,7 @@
       <c r="C107" s="2">
         <v>-0.28410999999999997</v>
       </c>
-      <c r="D107" s="1">
+      <c r="D107" s="4">
         <v>2</v>
       </c>
       <c r="E107" s="2">
@@ -6376,7 +6391,7 @@
       <c r="F107" s="2">
         <v>1.74E-3</v>
       </c>
-      <c r="G107" s="3">
+      <c r="G107" s="5">
         <v>6</v>
       </c>
       <c r="H107" s="2">
@@ -6385,7 +6400,7 @@
       <c r="I107" s="2">
         <v>0.21052999999999999</v>
       </c>
-      <c r="J107" s="1">
+      <c r="J107" s="4">
         <v>9</v>
       </c>
       <c r="K107" s="2">
@@ -6394,16 +6409,16 @@
       <c r="L107" s="2">
         <v>0.33048</v>
       </c>
-      <c r="M107" s="1">
+      <c r="M107" s="4">
         <v>14</v>
       </c>
       <c r="N107" s="2">
-        <v>8.0570000000000003E-2</v>
+        <v>0.25420999999999999</v>
       </c>
       <c r="O107" s="2">
-        <v>-1.8587899999999999</v>
-      </c>
-      <c r="P107" s="2">
+        <v>0.42544999999999999</v>
+      </c>
+      <c r="P107" s="4">
         <v>15</v>
       </c>
       <c r="Q107" s="2">
@@ -6423,7 +6438,7 @@
       <c r="C108" s="2">
         <v>-0.27562999999999999</v>
       </c>
-      <c r="D108" s="1">
+      <c r="D108" s="4">
         <v>2</v>
       </c>
       <c r="E108" s="2">
@@ -6432,7 +6447,7 @@
       <c r="F108" s="2">
         <v>4.4000000000000002E-4</v>
       </c>
-      <c r="G108" s="3">
+      <c r="G108" s="5">
         <v>6</v>
       </c>
       <c r="H108" s="2">
@@ -6441,7 +6456,7 @@
       <c r="I108" s="2">
         <v>0.20011000000000001</v>
       </c>
-      <c r="J108" s="1">
+      <c r="J108" s="4">
         <v>9</v>
       </c>
       <c r="K108" s="2">
@@ -6450,16 +6465,16 @@
       <c r="L108" s="2">
         <v>0.31641999999999998</v>
       </c>
-      <c r="M108" s="1">
+      <c r="M108" s="4">
         <v>14</v>
       </c>
       <c r="N108" s="2">
-        <v>7.2340000000000002E-2</v>
+        <v>0.26895000000000002</v>
       </c>
       <c r="O108" s="2">
-        <v>-1.9729699999999999</v>
-      </c>
-      <c r="P108" s="2">
+        <v>0.40842000000000001</v>
+      </c>
+      <c r="P108" s="4">
         <v>15</v>
       </c>
       <c r="Q108" s="2">
@@ -6479,7 +6494,7 @@
       <c r="C109" s="2">
         <v>-0.26767000000000002</v>
       </c>
-      <c r="D109" s="1">
+      <c r="D109" s="4">
         <v>2</v>
       </c>
       <c r="E109" s="2">
@@ -6488,7 +6503,7 @@
       <c r="F109" s="2">
         <v>-4.1200000000000004E-3</v>
       </c>
-      <c r="G109" s="3">
+      <c r="G109" s="5">
         <v>6</v>
       </c>
       <c r="H109" s="2">
@@ -6497,7 +6512,7 @@
       <c r="I109" s="2">
         <v>0.18962999999999999</v>
       </c>
-      <c r="J109" s="1">
+      <c r="J109" s="4">
         <v>9</v>
       </c>
       <c r="K109" s="2">
@@ -6506,16 +6521,16 @@
       <c r="L109" s="2">
         <v>0.30223</v>
       </c>
-      <c r="M109" s="1">
+      <c r="M109" s="4">
         <v>14</v>
       </c>
       <c r="N109" s="2">
-        <v>6.4269999999999994E-2</v>
+        <v>0.28369</v>
       </c>
       <c r="O109" s="2">
-        <v>-2.1060500000000002</v>
-      </c>
-      <c r="P109" s="2">
+        <v>0.39788000000000001</v>
+      </c>
+      <c r="P109" s="4">
         <v>15</v>
       </c>
       <c r="Q109" s="2">
@@ -6535,7 +6550,7 @@
       <c r="C110" s="2">
         <v>-0.25944</v>
       </c>
-      <c r="D110" s="1">
+      <c r="D110" s="4">
         <v>2</v>
       </c>
       <c r="E110" s="2">
@@ -6544,7 +6559,7 @@
       <c r="F110" s="2">
         <v>-4.0099999999999997E-3</v>
       </c>
-      <c r="G110" s="3">
+      <c r="G110" s="5">
         <v>6</v>
       </c>
       <c r="H110" s="2">
@@ -6553,7 +6568,7 @@
       <c r="I110" s="2">
         <v>0.18228</v>
       </c>
-      <c r="J110" s="1">
+      <c r="J110" s="4">
         <v>9</v>
       </c>
       <c r="K110" s="2">
@@ -6562,16 +6577,16 @@
       <c r="L110" s="2">
         <v>0.29021999999999998</v>
       </c>
-      <c r="M110" s="1">
+      <c r="M110" s="4">
         <v>14</v>
       </c>
       <c r="N110" s="2">
-        <v>5.6390000000000003E-2</v>
+        <v>0.29843999999999998</v>
       </c>
       <c r="O110" s="2">
-        <v>-2.2648100000000002</v>
-      </c>
-      <c r="P110" s="2">
+        <v>0.38146000000000002</v>
+      </c>
+      <c r="P110" s="4">
         <v>15</v>
       </c>
       <c r="Q110" s="2">
@@ -6591,7 +6606,7 @@
       <c r="C111" s="2">
         <v>-0.25274000000000002</v>
       </c>
-      <c r="D111" s="1">
+      <c r="D111" s="4">
         <v>2</v>
       </c>
       <c r="E111" s="2">
@@ -6600,7 +6615,7 @@
       <c r="F111" s="2">
         <v>-6.5900000000000004E-3</v>
       </c>
-      <c r="G111" s="3">
+      <c r="G111" s="5">
         <v>6</v>
       </c>
       <c r="H111" s="2">
@@ -6609,7 +6624,7 @@
       <c r="I111" s="2">
         <v>0.17351</v>
       </c>
-      <c r="J111" s="1">
+      <c r="J111" s="4">
         <v>9</v>
       </c>
       <c r="K111" s="2">
@@ -6618,16 +6633,16 @@
       <c r="L111" s="2">
         <v>0.27848000000000001</v>
       </c>
-      <c r="M111" s="1">
+      <c r="M111" s="4">
         <v>14</v>
       </c>
       <c r="N111" s="2">
-        <v>4.8739999999999999E-2</v>
+        <v>0.31320999999999999</v>
       </c>
       <c r="O111" s="2">
-        <v>-2.47126</v>
-      </c>
-      <c r="P111" s="2">
+        <v>0.36992999999999998</v>
+      </c>
+      <c r="P111" s="4">
         <v>15</v>
       </c>
       <c r="Q111" s="2">
@@ -6647,7 +6662,7 @@
       <c r="C112" s="2">
         <v>-0.24503</v>
       </c>
-      <c r="D112" s="1">
+      <c r="D112" s="4">
         <v>2</v>
       </c>
       <c r="E112" s="2">
@@ -6656,7 +6671,7 @@
       <c r="F112" s="2">
         <v>-7.77E-3</v>
       </c>
-      <c r="G112" s="3">
+      <c r="G112" s="5">
         <v>6</v>
       </c>
       <c r="H112" s="2">
@@ -6665,7 +6680,7 @@
       <c r="I112" s="2">
         <v>0.16672000000000001</v>
       </c>
-      <c r="J112" s="1">
+      <c r="J112" s="4">
         <v>9</v>
       </c>
       <c r="K112" s="2">
@@ -6674,16 +6689,16 @@
       <c r="L112" s="2">
         <v>0.26751000000000003</v>
       </c>
-      <c r="M112" s="1">
+      <c r="M112" s="4">
         <v>14</v>
       </c>
       <c r="N112" s="2">
-        <v>4.1399999999999999E-2</v>
+        <v>0.32797999999999999</v>
       </c>
       <c r="O112" s="2">
-        <v>-2.74444</v>
-      </c>
-      <c r="P112" s="2">
+        <v>0.35535</v>
+      </c>
+      <c r="P112" s="4">
         <v>15</v>
       </c>
       <c r="Q112" s="2">
@@ -6703,7 +6718,7 @@
       <c r="C113" s="2">
         <v>-0.23845</v>
       </c>
-      <c r="D113" s="1">
+      <c r="D113" s="4">
         <v>2</v>
       </c>
       <c r="E113" s="2">
@@ -6712,7 +6727,7 @@
       <c r="F113" s="2">
         <v>-7.9600000000000001E-3</v>
       </c>
-      <c r="G113" s="3">
+      <c r="G113" s="5">
         <v>6</v>
       </c>
       <c r="H113" s="2">
@@ -6721,7 +6736,7 @@
       <c r="I113" s="2">
         <v>0.15811</v>
       </c>
-      <c r="J113" s="1">
+      <c r="J113" s="4">
         <v>9</v>
       </c>
       <c r="K113" s="2">
@@ -6730,16 +6745,16 @@
       <c r="L113" s="2">
         <v>0.25569999999999998</v>
       </c>
-      <c r="M113" s="1">
+      <c r="M113" s="4">
         <v>14</v>
       </c>
       <c r="N113" s="2">
-        <v>3.4439999999999998E-2</v>
+        <v>0.34275</v>
       </c>
       <c r="O113" s="2">
-        <v>-3.1248</v>
-      </c>
-      <c r="P113" s="2">
+        <v>0.34450999999999998</v>
+      </c>
+      <c r="P113" s="4">
         <v>15</v>
       </c>
       <c r="Q113" s="2">
@@ -6759,16 +6774,16 @@
       <c r="C114" s="2">
         <v>-0.2321</v>
       </c>
-      <c r="D114" s="1">
+      <c r="D114" s="4">
         <v>2</v>
       </c>
       <c r="E114" s="2">
         <v>0.35753000000000001</v>
       </c>
       <c r="F114" s="2">
-        <v>-1.0070000000000001E-2</v>
-      </c>
-      <c r="G114" s="3">
+        <v>-1.008E-2</v>
+      </c>
+      <c r="G114" s="5">
         <v>6</v>
       </c>
       <c r="H114" s="2">
@@ -6777,7 +6792,7 @@
       <c r="I114" s="2">
         <v>0.15217</v>
       </c>
-      <c r="J114" s="1">
+      <c r="J114" s="4">
         <v>9</v>
       </c>
       <c r="K114" s="2">
@@ -6786,16 +6801,16 @@
       <c r="L114" s="2">
         <v>0.24665999999999999</v>
       </c>
-      <c r="M114" s="1">
+      <c r="M114" s="4">
         <v>14</v>
       </c>
       <c r="N114" s="2">
-        <v>2.8049999999999999E-2</v>
+        <v>0.35753000000000001</v>
       </c>
       <c r="O114" s="2">
-        <v>-3.6003799999999999</v>
-      </c>
-      <c r="P114" s="2">
+        <v>0.33409</v>
+      </c>
+      <c r="P114" s="4">
         <v>15</v>
       </c>
       <c r="Q114" s="2">
@@ -6815,7 +6830,7 @@
       <c r="C115" s="2">
         <v>-0.22548000000000001</v>
       </c>
-      <c r="D115" s="1">
+      <c r="D115" s="4">
         <v>2</v>
       </c>
       <c r="E115" s="2">
@@ -6824,7 +6839,7 @@
       <c r="F115" s="2">
         <v>-9.8099999999999993E-3</v>
       </c>
-      <c r="G115" s="3">
+      <c r="G115" s="5">
         <v>6</v>
       </c>
       <c r="H115" s="2">
@@ -6833,7 +6848,7 @@
       <c r="I115" s="2">
         <v>0.14616000000000001</v>
       </c>
-      <c r="J115" s="1">
+      <c r="J115" s="4">
         <v>9</v>
       </c>
       <c r="K115" s="2">
@@ -6842,23 +6857,23 @@
       <c r="L115" s="2">
         <v>0.23721</v>
       </c>
-      <c r="M115" s="1">
+      <c r="M115" s="4">
         <v>14</v>
       </c>
       <c r="N115" s="2">
-        <v>2.24E-2</v>
+        <v>0.37230999999999997</v>
       </c>
       <c r="O115" s="2">
-        <v>-4.3304099999999996</v>
-      </c>
-      <c r="P115" s="2">
+        <v>0.32036999999999999</v>
+      </c>
+      <c r="P115" s="4">
         <v>15</v>
       </c>
       <c r="Q115" s="2">
         <v>0.37230999999999997</v>
       </c>
       <c r="R115" s="2">
-        <v>0.28022999999999998</v>
+        <v>0.28022000000000002</v>
       </c>
     </row>
     <row r="116" spans="1:18" x14ac:dyDescent="0.3">
@@ -6871,7 +6886,7 @@
       <c r="C116" s="2">
         <v>-0.21964</v>
       </c>
-      <c r="D116" s="1">
+      <c r="D116" s="4">
         <v>2</v>
       </c>
       <c r="E116" s="2">
@@ -6880,7 +6895,7 @@
       <c r="F116" s="2">
         <v>-1.125E-2</v>
       </c>
-      <c r="G116" s="3">
+      <c r="G116" s="5">
         <v>6</v>
       </c>
       <c r="H116" s="2">
@@ -6889,7 +6904,7 @@
       <c r="I116" s="2">
         <v>0.13965</v>
       </c>
-      <c r="J116" s="1">
+      <c r="J116" s="4">
         <v>9</v>
       </c>
       <c r="K116" s="2">
@@ -6898,16 +6913,16 @@
       <c r="L116" s="2">
         <v>0.2273</v>
       </c>
-      <c r="M116" s="1">
+      <c r="M116" s="4">
         <v>14</v>
       </c>
       <c r="N116" s="2">
-        <v>1.7559999999999999E-2</v>
+        <v>0.38708999999999999</v>
       </c>
       <c r="O116" s="2">
-        <v>-4.4552300000000002</v>
-      </c>
-      <c r="P116" s="2">
+        <v>0.31187999999999999</v>
+      </c>
+      <c r="P116" s="4">
         <v>15</v>
       </c>
       <c r="Q116" s="2">
@@ -6927,7 +6942,7 @@
       <c r="C117" s="2">
         <v>-0.21365999999999999</v>
       </c>
-      <c r="D117" s="1">
+      <c r="D117" s="4">
         <v>2</v>
       </c>
       <c r="E117" s="2">
@@ -6936,7 +6951,7 @@
       <c r="F117" s="2">
         <v>-1.125E-2</v>
       </c>
-      <c r="G117" s="3">
+      <c r="G117" s="5">
         <v>6</v>
       </c>
       <c r="H117" s="2">
@@ -6945,7 +6960,7 @@
       <c r="I117" s="2">
         <v>0.13433999999999999</v>
       </c>
-      <c r="J117" s="1">
+      <c r="J117" s="4">
         <v>9</v>
       </c>
       <c r="K117" s="2">
@@ -6954,16 +6969,16 @@
       <c r="L117" s="2">
         <v>0.21947</v>
       </c>
-      <c r="M117" s="1">
+      <c r="M117" s="4">
         <v>14</v>
       </c>
       <c r="N117" s="2">
-        <v>1.354E-2</v>
+        <v>0.40187</v>
       </c>
       <c r="O117" s="2">
-        <v>-4.4823199999999996</v>
-      </c>
-      <c r="P117" s="2">
+        <v>0.29973</v>
+      </c>
+      <c r="P117" s="4">
         <v>15</v>
       </c>
       <c r="Q117" s="2">
@@ -6983,7 +6998,7 @@
       <c r="C118" s="2">
         <v>-0.20769000000000001</v>
       </c>
-      <c r="D118" s="1">
+      <c r="D118" s="4">
         <v>2</v>
       </c>
       <c r="E118" s="2">
@@ -6992,7 +7007,7 @@
       <c r="F118" s="2">
         <v>-1.1979999999999999E-2</v>
       </c>
-      <c r="G118" s="3">
+      <c r="G118" s="5">
         <v>6</v>
       </c>
       <c r="H118" s="2">
@@ -7001,7 +7016,7 @@
       <c r="I118" s="2">
         <v>0.12794</v>
       </c>
-      <c r="J118" s="1">
+      <c r="J118" s="4">
         <v>9</v>
       </c>
       <c r="K118" s="2">
@@ -7010,23 +7025,23 @@
       <c r="L118" s="2">
         <v>0.20896999999999999</v>
       </c>
-      <c r="M118" s="1">
+      <c r="M118" s="4">
         <v>14</v>
       </c>
       <c r="N118" s="2">
-        <v>1.03E-2</v>
+        <v>0.41665999999999997</v>
       </c>
       <c r="O118" s="2">
-        <v>-4.5062699999999998</v>
-      </c>
-      <c r="P118" s="2">
+        <v>0.29365999999999998</v>
+      </c>
+      <c r="P118" s="4">
         <v>15</v>
       </c>
       <c r="Q118" s="2">
         <v>0.41665999999999997</v>
       </c>
       <c r="R118" s="2">
-        <v>0.25197999999999998</v>
+        <v>0.25197000000000003</v>
       </c>
     </row>
     <row r="119" spans="1:18" x14ac:dyDescent="0.3">
@@ -7039,7 +7054,7 @@
       <c r="C119" s="2">
         <v>-0.20177</v>
       </c>
-      <c r="D119" s="1">
+      <c r="D119" s="4">
         <v>2</v>
       </c>
       <c r="E119" s="2">
@@ -7048,7 +7063,7 @@
       <c r="F119" s="2">
         <v>-1.187E-2</v>
       </c>
-      <c r="G119" s="3">
+      <c r="G119" s="5">
         <v>6</v>
       </c>
       <c r="H119" s="2">
@@ -7057,7 +7072,7 @@
       <c r="I119" s="2">
         <v>0.12384000000000001</v>
       </c>
-      <c r="J119" s="1">
+      <c r="J119" s="4">
         <v>9</v>
       </c>
       <c r="K119" s="2">
@@ -7066,16 +7081,16 @@
       <c r="L119" s="2">
         <v>0.20307</v>
       </c>
-      <c r="M119" s="1">
+      <c r="M119" s="4">
         <v>14</v>
       </c>
       <c r="N119" s="2">
-        <v>7.7299999999999999E-3</v>
+        <v>0.43145</v>
       </c>
       <c r="O119" s="2">
-        <v>-4.5257500000000004</v>
-      </c>
-      <c r="P119" s="2">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="P119" s="4">
         <v>15</v>
       </c>
       <c r="Q119" s="2">
@@ -7095,7 +7110,7 @@
       <c r="C120" s="2">
         <v>-0.19619</v>
       </c>
-      <c r="D120" s="1">
+      <c r="D120" s="4">
         <v>2</v>
       </c>
       <c r="E120" s="2">
@@ -7104,16 +7119,16 @@
       <c r="F120" s="2">
         <v>-1.2030000000000001E-2</v>
       </c>
-      <c r="G120" s="3">
+      <c r="G120" s="5">
         <v>6</v>
       </c>
       <c r="H120" s="2">
         <v>0.44623000000000002</v>
       </c>
       <c r="I120" s="2">
-        <v>0.11840000000000001</v>
-      </c>
-      <c r="J120" s="1">
+        <v>0.11839</v>
+      </c>
+      <c r="J120" s="4">
         <v>9</v>
       </c>
       <c r="K120" s="2">
@@ -7122,16 +7137,16 @@
       <c r="L120" s="2">
         <v>0.19370000000000001</v>
       </c>
-      <c r="M120" s="1">
+      <c r="M120" s="4">
         <v>14</v>
       </c>
       <c r="N120" s="2">
-        <v>5.7000000000000002E-3</v>
+        <v>0.44623000000000002</v>
       </c>
       <c r="O120" s="2">
-        <v>-4.5448199999999996</v>
-      </c>
-      <c r="P120" s="2">
+        <v>0.27289000000000002</v>
+      </c>
+      <c r="P120" s="4">
         <v>15</v>
       </c>
       <c r="Q120" s="2">
@@ -7151,7 +7166,7 @@
       <c r="C121" s="2">
         <v>-0.19036</v>
       </c>
-      <c r="D121" s="1">
+      <c r="D121" s="4">
         <v>2</v>
       </c>
       <c r="E121" s="2">
@@ -7160,7 +7175,7 @@
       <c r="F121" s="2">
         <v>-1.137E-2</v>
       </c>
-      <c r="G121" s="3">
+      <c r="G121" s="5">
         <v>6</v>
       </c>
       <c r="H121" s="2">
@@ -7169,7 +7184,7 @@
       <c r="I121" s="2">
         <v>0.11396000000000001</v>
       </c>
-      <c r="J121" s="1">
+      <c r="J121" s="4">
         <v>9</v>
       </c>
       <c r="K121" s="2">
@@ -7178,16 +7193,16 @@
       <c r="L121" s="2">
         <v>0.18703</v>
       </c>
-      <c r="M121" s="1">
+      <c r="M121" s="4">
         <v>14</v>
       </c>
       <c r="N121" s="2">
-        <v>4.1200000000000004E-3</v>
+        <v>0.46100999999999998</v>
       </c>
       <c r="O121" s="2">
-        <v>-4.5706800000000003</v>
-      </c>
-      <c r="P121" s="2">
+        <v>0.26518999999999998</v>
+      </c>
+      <c r="P121" s="4">
         <v>15</v>
       </c>
       <c r="Q121" s="2">
@@ -7207,7 +7222,7 @@
       <c r="C122" s="2">
         <v>-0.18445</v>
       </c>
-      <c r="D122" s="1">
+      <c r="D122" s="4">
         <v>2</v>
       </c>
       <c r="E122" s="2">
@@ -7216,7 +7231,7 @@
       <c r="F122" s="2">
         <v>-1.0580000000000001E-2</v>
       </c>
-      <c r="G122" s="3">
+      <c r="G122" s="5">
         <v>6</v>
       </c>
       <c r="H122" s="2">
@@ -7225,7 +7240,7 @@
       <c r="I122" s="2">
         <v>0.11013000000000001</v>
       </c>
-      <c r="J122" s="1">
+      <c r="J122" s="4">
         <v>9</v>
       </c>
       <c r="K122" s="2">
@@ -7234,16 +7249,16 @@
       <c r="L122" s="2">
         <v>0.17943999999999999</v>
       </c>
-      <c r="M122" s="1">
+      <c r="M122" s="4">
         <v>14</v>
       </c>
       <c r="N122" s="2">
-        <v>2.8800000000000002E-3</v>
+        <v>0.47578999999999999</v>
       </c>
       <c r="O122" s="2">
-        <v>-4.6159800000000004</v>
-      </c>
-      <c r="P122" s="2">
+        <v>0.25570999999999999</v>
+      </c>
+      <c r="P122" s="4">
         <v>15</v>
       </c>
       <c r="Q122" s="2">
@@ -7263,7 +7278,7 @@
       <c r="C123" s="2">
         <v>-0.17846999999999999</v>
       </c>
-      <c r="D123" s="1">
+      <c r="D123" s="4">
         <v>2</v>
       </c>
       <c r="E123" s="2">
@@ -7272,7 +7287,7 @@
       <c r="F123" s="2">
         <v>-9.8399999999999998E-3</v>
       </c>
-      <c r="G123" s="3">
+      <c r="G123" s="5">
         <v>6</v>
       </c>
       <c r="H123" s="2">
@@ -7281,7 +7296,7 @@
       <c r="I123" s="2">
         <v>0.10634</v>
       </c>
-      <c r="J123" s="1">
+      <c r="J123" s="4">
         <v>9</v>
       </c>
       <c r="K123" s="2">
@@ -7290,16 +7305,16 @@
       <c r="L123" s="2">
         <v>0.17319999999999999</v>
       </c>
-      <c r="M123" s="1">
+      <c r="M123" s="4">
         <v>14</v>
       </c>
       <c r="N123" s="2">
-        <v>1.91E-3</v>
+        <v>0.49057000000000001</v>
       </c>
       <c r="O123" s="2">
-        <v>-4.6922899999999998</v>
-      </c>
-      <c r="P123" s="2">
+        <v>0.24768000000000001</v>
+      </c>
+      <c r="P123" s="4">
         <v>15</v>
       </c>
       <c r="Q123" s="2">
@@ -7319,7 +7334,7 @@
       <c r="C124" s="2">
         <v>-0.17254</v>
       </c>
-      <c r="D124" s="1">
+      <c r="D124" s="4">
         <v>2</v>
       </c>
       <c r="E124" s="2">
@@ -7328,7 +7343,7 @@
       <c r="F124" s="2">
         <v>-8.7399999999999995E-3</v>
       </c>
-      <c r="G124" s="3">
+      <c r="G124" s="5">
         <v>6</v>
       </c>
       <c r="H124" s="2">
@@ -7337,7 +7352,7 @@
       <c r="I124" s="2">
         <v>0.10289</v>
       </c>
-      <c r="J124" s="1">
+      <c r="J124" s="4">
         <v>9</v>
       </c>
       <c r="K124" s="2">
@@ -7346,16 +7361,16 @@
       <c r="L124" s="2">
         <v>0.16672000000000001</v>
       </c>
-      <c r="M124" s="1">
+      <c r="M124" s="4">
         <v>14</v>
       </c>
       <c r="N124" s="2">
-        <v>1.17E-3</v>
+        <v>0.50534999999999997</v>
       </c>
       <c r="O124" s="2">
-        <v>-4.8259699999999999</v>
-      </c>
-      <c r="P124" s="2">
+        <v>0.24010000000000001</v>
+      </c>
+      <c r="P124" s="4">
         <v>15</v>
       </c>
       <c r="Q124" s="2">
@@ -7375,7 +7390,7 @@
       <c r="C125" s="2">
         <v>-0.16628999999999999</v>
       </c>
-      <c r="D125" s="1">
+      <c r="D125" s="4">
         <v>2</v>
       </c>
       <c r="E125" s="2">
@@ -7384,7 +7399,7 @@
       <c r="F125" s="2">
         <v>-7.0499999999999998E-3</v>
       </c>
-      <c r="G125" s="3">
+      <c r="G125" s="5">
         <v>6</v>
       </c>
       <c r="H125" s="2">
@@ -7393,7 +7408,7 @@
       <c r="I125" s="2">
         <v>9.9739999999999995E-2</v>
       </c>
-      <c r="J125" s="1">
+      <c r="J125" s="4">
         <v>9</v>
       </c>
       <c r="K125" s="2">
@@ -7402,16 +7417,16 @@
       <c r="L125" s="2">
         <v>0.16064999999999999</v>
       </c>
-      <c r="M125" s="1">
+      <c r="M125" s="4">
         <v>14</v>
       </c>
       <c r="N125" s="2">
-        <v>5.9999999999999995E-4</v>
+        <v>0.52012999999999998</v>
       </c>
       <c r="O125" s="2">
-        <v>-5.0435100000000004</v>
-      </c>
-      <c r="P125" s="2">
+        <v>0.23302999999999999</v>
+      </c>
+      <c r="P125" s="4">
         <v>15</v>
       </c>
       <c r="Q125" s="2">
@@ -7431,7 +7446,7 @@
       <c r="C126" s="2">
         <v>-0.16023000000000001</v>
       </c>
-      <c r="D126" s="1">
+      <c r="D126" s="4">
         <v>2</v>
       </c>
       <c r="E126" s="2">
@@ -7440,7 +7455,7 @@
       <c r="F126" s="2">
         <v>-5.5599999999999998E-3</v>
       </c>
-      <c r="G126" s="3">
+      <c r="G126" s="5">
         <v>6</v>
       </c>
       <c r="H126" s="2">
@@ -7449,7 +7464,7 @@
       <c r="I126" s="2">
         <v>9.6930000000000002E-2</v>
       </c>
-      <c r="J126" s="1">
+      <c r="J126" s="4">
         <v>9</v>
       </c>
       <c r="K126" s="2">
@@ -7458,16 +7473,16 @@
       <c r="L126" s="2">
         <v>0.15540000000000001</v>
       </c>
-      <c r="M126" s="1">
+      <c r="M126" s="4">
         <v>14</v>
       </c>
       <c r="N126" s="2">
-        <v>2.0000000000000001E-4</v>
+        <v>0.53491</v>
       </c>
       <c r="O126" s="2">
-        <v>-5.3646599999999998</v>
-      </c>
-      <c r="P126" s="2">
+        <v>0.22486999999999999</v>
+      </c>
+      <c r="P126" s="4">
         <v>15</v>
       </c>
       <c r="Q126" s="2">
@@ -7487,7 +7502,7 @@
       <c r="C127" s="2">
         <v>-0.15404000000000001</v>
       </c>
-      <c r="D127" s="1">
+      <c r="D127" s="4">
         <v>2</v>
       </c>
       <c r="E127" s="2">
@@ -7496,7 +7511,7 @@
       <c r="F127" s="2">
         <v>-3.7499999999999999E-3</v>
       </c>
-      <c r="G127" s="3">
+      <c r="G127" s="5">
         <v>6</v>
       </c>
       <c r="H127" s="2">
@@ -7505,7 +7520,7 @@
       <c r="I127" s="2">
         <v>9.4240000000000004E-2</v>
       </c>
-      <c r="J127" s="1">
+      <c r="J127" s="4">
         <v>9</v>
       </c>
       <c r="K127" s="2">
@@ -7514,16 +7529,16 @@
       <c r="L127" s="2">
         <v>0.14931</v>
       </c>
-      <c r="M127" s="1">
+      <c r="M127" s="4">
         <v>14</v>
       </c>
       <c r="N127" s="2">
-        <v>-5.0000000000000002E-5</v>
+        <v>0.54969000000000001</v>
       </c>
       <c r="O127" s="2">
-        <v>-5.7894199999999998</v>
-      </c>
-      <c r="P127" s="2">
+        <v>0.21890000000000001</v>
+      </c>
+      <c r="P127" s="4">
         <v>15</v>
       </c>
       <c r="Q127" s="2">
@@ -7543,7 +7558,7 @@
       <c r="C128" s="2">
         <v>-0.14779999999999999</v>
       </c>
-      <c r="D128" s="1">
+      <c r="D128" s="4">
         <v>2</v>
       </c>
       <c r="E128" s="2">
@@ -7552,7 +7567,7 @@
       <c r="F128" s="2">
         <v>-1.24E-3</v>
       </c>
-      <c r="G128" s="3">
+      <c r="G128" s="5">
         <v>6</v>
       </c>
       <c r="H128" s="2">
@@ -7561,7 +7576,7 @@
       <c r="I128" s="2">
         <v>9.1920000000000002E-2</v>
       </c>
-      <c r="J128" s="1">
+      <c r="J128" s="4">
         <v>9</v>
       </c>
       <c r="K128" s="2">
@@ -7570,16 +7585,16 @@
       <c r="L128" s="2">
         <v>0.14460999999999999</v>
       </c>
-      <c r="M128" s="1">
+      <c r="M128" s="4">
         <v>14</v>
       </c>
       <c r="N128" s="2">
-        <v>-1.3999999999999999E-4</v>
+        <v>0.56445999999999996</v>
       </c>
       <c r="O128" s="2">
-        <v>-6.1859900000000003</v>
-      </c>
-      <c r="P128" s="2">
+        <v>0.2122</v>
+      </c>
+      <c r="P128" s="4">
         <v>15</v>
       </c>
       <c r="Q128" s="2">
@@ -7599,7 +7614,7 @@
       <c r="C129" s="2">
         <v>-0.14130999999999999</v>
       </c>
-      <c r="D129" s="1">
+      <c r="D129" s="4">
         <v>2</v>
       </c>
       <c r="E129" s="2">
@@ -7608,7 +7623,7 @@
       <c r="F129" s="2">
         <v>1.1900000000000001E-3</v>
       </c>
-      <c r="G129" s="3">
+      <c r="G129" s="5">
         <v>6</v>
       </c>
       <c r="H129" s="2">
@@ -7617,7 +7632,7 @@
       <c r="I129" s="2">
         <v>9.0109999999999996E-2</v>
       </c>
-      <c r="J129" s="1">
+      <c r="J129" s="4">
         <v>9</v>
       </c>
       <c r="K129" s="2">
@@ -7626,16 +7641,16 @@
       <c r="L129" s="2">
         <v>0.1394</v>
       </c>
-      <c r="M129" s="1">
+      <c r="M129" s="4">
         <v>14</v>
       </c>
       <c r="N129" s="2">
-        <v>-4.0000000000000003E-5</v>
+        <v>0.57923000000000002</v>
       </c>
       <c r="O129" s="2">
-        <v>-5.90707</v>
-      </c>
-      <c r="P129" s="2">
+        <v>0.20577000000000001</v>
+      </c>
+      <c r="P129" s="4">
         <v>15</v>
       </c>
       <c r="Q129" s="2">
@@ -7655,7 +7670,7 @@
       <c r="C130" s="2">
         <v>-0.13475000000000001</v>
       </c>
-      <c r="D130" s="1">
+      <c r="D130" s="4">
         <v>2</v>
       </c>
       <c r="E130" s="2">
@@ -7664,7 +7679,7 @@
       <c r="F130" s="2">
         <v>4.3E-3</v>
       </c>
-      <c r="G130" s="3">
+      <c r="G130" s="5">
         <v>6</v>
       </c>
       <c r="H130" s="2">
@@ -7673,7 +7688,7 @@
       <c r="I130" s="2">
         <v>8.8529999999999998E-2</v>
       </c>
-      <c r="J130" s="1">
+      <c r="J130" s="4">
         <v>9</v>
       </c>
       <c r="K130" s="2">
@@ -7682,16 +7697,16 @@
       <c r="L130" s="2">
         <v>0.13544</v>
       </c>
-      <c r="M130" s="1">
+      <c r="M130" s="4">
         <v>14</v>
       </c>
       <c r="N130" s="2">
-        <v>3.1E-4</v>
+        <v>0.59399000000000002</v>
       </c>
       <c r="O130" s="2">
-        <v>-4.7464700000000004</v>
-      </c>
-      <c r="P130" s="2">
+        <v>0.20077</v>
+      </c>
+      <c r="P130" s="4">
         <v>15</v>
       </c>
       <c r="Q130" s="2">
@@ -7711,7 +7726,7 @@
       <c r="C131" s="2">
         <v>-0.12820999999999999</v>
       </c>
-      <c r="D131" s="1">
+      <c r="D131" s="4">
         <v>2</v>
       </c>
       <c r="E131" s="2">
@@ -7720,7 +7735,7 @@
       <c r="F131" s="2">
         <v>7.9600000000000001E-3</v>
       </c>
-      <c r="G131" s="3">
+      <c r="G131" s="5">
         <v>6</v>
       </c>
       <c r="H131" s="2">
@@ -7729,7 +7744,7 @@
       <c r="I131" s="2">
         <v>8.7679999999999994E-2</v>
       </c>
-      <c r="J131" s="1">
+      <c r="J131" s="4">
         <v>9</v>
       </c>
       <c r="K131" s="2">
@@ -7738,16 +7753,16 @@
       <c r="L131" s="2">
         <v>0.13153999999999999</v>
       </c>
-      <c r="M131" s="1">
+      <c r="M131" s="4">
         <v>14</v>
       </c>
       <c r="N131" s="2">
-        <v>9.2000000000000003E-4</v>
+        <v>0.60875999999999997</v>
       </c>
       <c r="O131" s="2">
-        <v>-2.9284699999999999</v>
-      </c>
-      <c r="P131" s="2">
+        <v>0.19519</v>
+      </c>
+      <c r="P131" s="4">
         <v>15</v>
       </c>
       <c r="Q131" s="2">
@@ -7767,7 +7782,7 @@
       <c r="C132" s="2">
         <v>-0.12163</v>
       </c>
-      <c r="D132" s="1">
+      <c r="D132" s="4">
         <v>2</v>
       </c>
       <c r="E132" s="2">
@@ -7776,7 +7791,7 @@
       <c r="F132" s="2">
         <v>1.2189999999999999E-2</v>
       </c>
-      <c r="G132" s="3">
+      <c r="G132" s="5">
         <v>6</v>
       </c>
       <c r="H132" s="2">
@@ -7785,7 +7800,7 @@
       <c r="I132" s="2">
         <v>8.7050000000000002E-2</v>
       </c>
-      <c r="J132" s="1">
+      <c r="J132" s="4">
         <v>9</v>
       </c>
       <c r="K132" s="2">
@@ -7794,16 +7809,16 @@
       <c r="L132" s="2">
         <v>0.12801000000000001</v>
       </c>
-      <c r="M132" s="1">
+      <c r="M132" s="4">
         <v>14</v>
       </c>
       <c r="N132" s="2">
-        <v>1.7799999999999999E-3</v>
+        <v>0.62353000000000003</v>
       </c>
       <c r="O132" s="2">
-        <v>-1.6820900000000001</v>
-      </c>
-      <c r="P132" s="2">
+        <v>0.19026000000000001</v>
+      </c>
+      <c r="P132" s="4">
         <v>15</v>
       </c>
       <c r="Q132" s="2">
@@ -7823,7 +7838,7 @@
       <c r="C133" s="2">
         <v>-0.11521000000000001</v>
       </c>
-      <c r="D133" s="1">
+      <c r="D133" s="4">
         <v>2</v>
       </c>
       <c r="E133" s="2">
@@ -7832,7 +7847,7 @@
       <c r="F133" s="2">
         <v>1.6310000000000002E-2</v>
       </c>
-      <c r="G133" s="3">
+      <c r="G133" s="5">
         <v>6</v>
       </c>
       <c r="H133" s="2">
@@ -7841,7 +7856,7 @@
       <c r="I133" s="2">
         <v>8.6639999999999995E-2</v>
       </c>
-      <c r="J133" s="1">
+      <c r="J133" s="4">
         <v>9</v>
       </c>
       <c r="K133" s="2">
@@ -7850,23 +7865,23 @@
       <c r="L133" s="2">
         <v>0.12454</v>
       </c>
-      <c r="M133" s="1">
+      <c r="M133" s="4">
         <v>14</v>
       </c>
       <c r="N133" s="2">
-        <v>2.8600000000000001E-3</v>
+        <v>0.63829999999999998</v>
       </c>
       <c r="O133" s="2">
-        <v>-0.76302000000000003</v>
-      </c>
-      <c r="P133" s="2">
+        <v>0.18551000000000001</v>
+      </c>
+      <c r="P133" s="4">
         <v>15</v>
       </c>
       <c r="Q133" s="2">
         <v>0.63829999999999998</v>
       </c>
       <c r="R133" s="2">
-        <v>0.14152999999999999</v>
+        <v>0.14152000000000001</v>
       </c>
     </row>
     <row r="134" spans="1:18" x14ac:dyDescent="0.3">
@@ -7879,7 +7894,7 @@
       <c r="C134" s="2">
         <v>-0.10888</v>
       </c>
-      <c r="D134" s="1">
+      <c r="D134" s="4">
         <v>2</v>
       </c>
       <c r="E134" s="2">
@@ -7888,7 +7903,7 @@
       <c r="F134" s="2">
         <v>2.129E-2</v>
       </c>
-      <c r="G134" s="3">
+      <c r="G134" s="5">
         <v>6</v>
       </c>
       <c r="H134" s="2">
@@ -7897,7 +7912,7 @@
       <c r="I134" s="2">
         <v>8.6800000000000002E-2</v>
       </c>
-      <c r="J134" s="1">
+      <c r="J134" s="4">
         <v>9</v>
       </c>
       <c r="K134" s="2">
@@ -7906,16 +7921,16 @@
       <c r="L134" s="2">
         <v>0.12196</v>
       </c>
-      <c r="M134" s="1">
+      <c r="M134" s="4">
         <v>14</v>
       </c>
       <c r="N134" s="2">
-        <v>4.1799999999999997E-3</v>
+        <v>0.65305999999999997</v>
       </c>
       <c r="O134" s="2">
-        <v>-4.0090000000000001E-2</v>
-      </c>
-      <c r="P134" s="2">
+        <v>0.18153</v>
+      </c>
+      <c r="P134" s="4">
         <v>15</v>
       </c>
       <c r="Q134" s="2">
@@ -7935,7 +7950,7 @@
       <c r="C135" s="2">
         <v>-0.10279000000000001</v>
       </c>
-      <c r="D135" s="1">
+      <c r="D135" s="4">
         <v>2</v>
       </c>
       <c r="E135" s="2">
@@ -7944,7 +7959,7 @@
       <c r="F135" s="2">
         <v>2.6499999999999999E-2</v>
       </c>
-      <c r="G135" s="3">
+      <c r="G135" s="5">
         <v>6</v>
       </c>
       <c r="H135" s="2">
@@ -7953,7 +7968,7 @@
       <c r="I135" s="2">
         <v>8.7559999999999999E-2</v>
       </c>
-      <c r="J135" s="1">
+      <c r="J135" s="4">
         <v>9</v>
       </c>
       <c r="K135" s="2">
@@ -7962,16 +7977,16 @@
       <c r="L135" s="2">
         <v>0.1195</v>
       </c>
-      <c r="M135" s="1">
+      <c r="M135" s="4">
         <v>14</v>
       </c>
       <c r="N135" s="2">
-        <v>5.7600000000000004E-3</v>
+        <v>0.66783000000000003</v>
       </c>
       <c r="O135" s="2">
-        <v>0.26823999999999998</v>
-      </c>
-      <c r="P135" s="2">
+        <v>0.17749999999999999</v>
+      </c>
+      <c r="P135" s="4">
         <v>15</v>
       </c>
       <c r="Q135" s="2">
@@ -7991,7 +8006,7 @@
       <c r="C136" s="2">
         <v>-9.6970000000000001E-2</v>
       </c>
-      <c r="D136" s="1">
+      <c r="D136" s="4">
         <v>2</v>
       </c>
       <c r="E136" s="2">
@@ -8000,7 +8015,7 @@
       <c r="F136" s="2">
         <v>3.227E-2</v>
       </c>
-      <c r="G136" s="3">
+      <c r="G136" s="5">
         <v>6</v>
       </c>
       <c r="H136" s="2">
@@ -8009,7 +8024,7 @@
       <c r="I136" s="2">
         <v>8.8389999999999996E-2</v>
       </c>
-      <c r="J136" s="1">
+      <c r="J136" s="4">
         <v>9</v>
       </c>
       <c r="K136" s="2">
@@ -8018,16 +8033,16 @@
       <c r="L136" s="2">
         <v>0.11763</v>
       </c>
-      <c r="M136" s="1">
+      <c r="M136" s="4">
         <v>14</v>
       </c>
       <c r="N136" s="2">
-        <v>7.6699999999999997E-3</v>
+        <v>0.68259999999999998</v>
       </c>
       <c r="O136" s="2">
-        <v>0.56230999999999998</v>
-      </c>
-      <c r="P136" s="2">
+        <v>0.17388000000000001</v>
+      </c>
+      <c r="P136" s="4">
         <v>15</v>
       </c>
       <c r="Q136" s="2">
@@ -8047,7 +8062,7 @@
       <c r="C137" s="2">
         <v>-9.1469999999999996E-2</v>
       </c>
-      <c r="D137" s="1">
+      <c r="D137" s="4">
         <v>2</v>
       </c>
       <c r="E137" s="2">
@@ -8056,7 +8071,7 @@
       <c r="F137" s="2">
         <v>3.8240000000000003E-2</v>
       </c>
-      <c r="G137" s="3">
+      <c r="G137" s="5">
         <v>6</v>
       </c>
       <c r="H137" s="2">
@@ -8065,7 +8080,7 @@
       <c r="I137" s="2">
         <v>8.9880000000000002E-2</v>
       </c>
-      <c r="J137" s="1">
+      <c r="J137" s="4">
         <v>9</v>
       </c>
       <c r="K137" s="2">
@@ -8074,23 +8089,23 @@
       <c r="L137" s="2">
         <v>0.11584999999999999</v>
       </c>
-      <c r="M137" s="1">
+      <c r="M137" s="4">
         <v>14</v>
       </c>
       <c r="N137" s="2">
-        <v>1.001E-2</v>
+        <v>0.69737000000000005</v>
       </c>
       <c r="O137" s="2">
-        <v>0.75268999999999997</v>
-      </c>
-      <c r="P137" s="2">
+        <v>0.17102999999999999</v>
+      </c>
+      <c r="P137" s="4">
         <v>15</v>
       </c>
       <c r="Q137" s="2">
         <v>0.69737000000000005</v>
       </c>
       <c r="R137" s="2">
-        <v>0.12486</v>
+        <v>0.12485</v>
       </c>
     </row>
     <row r="138" spans="1:18" x14ac:dyDescent="0.3">
@@ -8103,7 +8118,7 @@
       <c r="C138" s="2">
         <v>-8.6319999999999994E-2</v>
       </c>
-      <c r="D138" s="1">
+      <c r="D138" s="4">
         <v>2</v>
       </c>
       <c r="E138" s="2">
@@ -8112,7 +8127,7 @@
       <c r="F138" s="2">
         <v>4.4650000000000002E-2</v>
       </c>
-      <c r="G138" s="3">
+      <c r="G138" s="5">
         <v>6</v>
       </c>
       <c r="H138" s="2">
@@ -8121,7 +8136,7 @@
       <c r="I138" s="2">
         <v>9.178E-2</v>
       </c>
-      <c r="J138" s="1">
+      <c r="J138" s="4">
         <v>9</v>
       </c>
       <c r="K138" s="2">
@@ -8130,16 +8145,16 @@
       <c r="L138" s="2">
         <v>0.11479</v>
       </c>
-      <c r="M138" s="1">
+      <c r="M138" s="4">
         <v>14</v>
       </c>
       <c r="N138" s="2">
-        <v>1.29E-2</v>
+        <v>0.71214999999999995</v>
       </c>
       <c r="O138" s="2">
-        <v>0.86736999999999997</v>
-      </c>
-      <c r="P138" s="2">
+        <v>0.16788</v>
+      </c>
+      <c r="P138" s="4">
         <v>15</v>
       </c>
       <c r="Q138" s="2">
@@ -8159,7 +8174,7 @@
       <c r="C139" s="2">
         <v>-8.1490000000000007E-2</v>
       </c>
-      <c r="D139" s="1">
+      <c r="D139" s="4">
         <v>2</v>
       </c>
       <c r="E139" s="2">
@@ -8168,7 +8183,7 @@
       <c r="F139" s="2">
         <v>5.1200000000000002E-2</v>
       </c>
-      <c r="G139" s="3">
+      <c r="G139" s="5">
         <v>6</v>
       </c>
       <c r="H139" s="2">
@@ -8177,7 +8192,7 @@
       <c r="I139" s="2">
         <v>9.3939999999999996E-2</v>
       </c>
-      <c r="J139" s="1">
+      <c r="J139" s="4">
         <v>9</v>
       </c>
       <c r="K139" s="2">
@@ -8186,23 +8201,23 @@
       <c r="L139" s="2">
         <v>0.11388</v>
       </c>
-      <c r="M139" s="1">
+      <c r="M139" s="4">
         <v>14</v>
       </c>
       <c r="N139" s="2">
-        <v>1.6549999999999999E-2</v>
+        <v>0.72692999999999997</v>
       </c>
       <c r="O139" s="2">
-        <v>0.96050000000000002</v>
-      </c>
-      <c r="P139" s="2">
+        <v>0.16611999999999999</v>
+      </c>
+      <c r="P139" s="4">
         <v>15</v>
       </c>
       <c r="Q139" s="2">
         <v>0.72692999999999997</v>
       </c>
       <c r="R139" s="2">
-        <v>0.11923</v>
+        <v>0.11922000000000001</v>
       </c>
     </row>
     <row r="140" spans="1:18" x14ac:dyDescent="0.3">
@@ -8215,7 +8230,7 @@
       <c r="C140" s="2">
         <v>-7.6950000000000005E-2</v>
       </c>
-      <c r="D140" s="1">
+      <c r="D140" s="4">
         <v>2</v>
       </c>
       <c r="E140" s="2">
@@ -8224,7 +8239,7 @@
       <c r="F140" s="2">
         <v>5.7799999999999997E-2</v>
       </c>
-      <c r="G140" s="3">
+      <c r="G140" s="5">
         <v>6</v>
       </c>
       <c r="H140" s="2">
@@ -8233,7 +8248,7 @@
       <c r="I140" s="2">
         <v>9.6439999999999998E-2</v>
       </c>
-      <c r="J140" s="1">
+      <c r="J140" s="4">
         <v>9</v>
       </c>
       <c r="K140" s="2">
@@ -8242,16 +8257,16 @@
       <c r="L140" s="2">
         <v>0.11315</v>
       </c>
-      <c r="M140" s="1">
+      <c r="M140" s="4">
         <v>14</v>
       </c>
       <c r="N140" s="2">
-        <v>2.1129999999999999E-2</v>
+        <v>0.74173</v>
       </c>
       <c r="O140" s="2">
-        <v>0.99385999999999997</v>
-      </c>
-      <c r="P140" s="2">
+        <v>0.16364000000000001</v>
+      </c>
+      <c r="P140" s="4">
         <v>15</v>
       </c>
       <c r="Q140" s="2">
@@ -8271,7 +8286,7 @@
       <c r="C141" s="2">
         <v>-7.2639999999999996E-2</v>
       </c>
-      <c r="D141" s="1">
+      <c r="D141" s="4">
         <v>2</v>
       </c>
       <c r="E141" s="2">
@@ -8280,7 +8295,7 @@
       <c r="F141" s="2">
         <v>6.4329999999999998E-2</v>
       </c>
-      <c r="G141" s="3">
+      <c r="G141" s="5">
         <v>6</v>
       </c>
       <c r="H141" s="2">
@@ -8289,7 +8304,7 @@
       <c r="I141" s="2">
         <v>9.9290000000000003E-2</v>
       </c>
-      <c r="J141" s="1">
+      <c r="J141" s="4">
         <v>9</v>
       </c>
       <c r="K141" s="2">
@@ -8298,16 +8313,16 @@
       <c r="L141" s="2">
         <v>0.11279</v>
       </c>
-      <c r="M141" s="1">
+      <c r="M141" s="4">
         <v>14</v>
       </c>
       <c r="N141" s="2">
-        <v>2.6749999999999999E-2</v>
+        <v>0.75653999999999999</v>
       </c>
       <c r="O141" s="2">
-        <v>0.99888999999999994</v>
-      </c>
-      <c r="P141" s="2">
+        <v>0.16209999999999999</v>
+      </c>
+      <c r="P141" s="4">
         <v>15</v>
       </c>
       <c r="Q141" s="2">
@@ -8327,7 +8342,7 @@
       <c r="C142" s="2">
         <v>-6.8529999999999994E-2</v>
       </c>
-      <c r="D142" s="1">
+      <c r="D142" s="4">
         <v>2</v>
       </c>
       <c r="E142" s="2">
@@ -8336,7 +8351,7 @@
       <c r="F142" s="2">
         <v>7.0629999999999998E-2</v>
       </c>
-      <c r="G142" s="3">
+      <c r="G142" s="5">
         <v>6</v>
       </c>
       <c r="H142" s="2">
@@ -8345,7 +8360,7 @@
       <c r="I142" s="2">
         <v>0.10242</v>
       </c>
-      <c r="J142" s="1">
+      <c r="J142" s="4">
         <v>9</v>
       </c>
       <c r="K142" s="2">
@@ -8354,16 +8369,16 @@
       <c r="L142" s="2">
         <v>0.11272</v>
       </c>
-      <c r="M142" s="1">
+      <c r="M142" s="4">
         <v>14</v>
       </c>
       <c r="N142" s="2">
-        <v>3.3369999999999997E-2</v>
+        <v>0.77136000000000005</v>
       </c>
       <c r="O142" s="2">
-        <v>0.97794000000000003</v>
-      </c>
-      <c r="P142" s="2">
+        <v>0.16059999999999999</v>
+      </c>
+      <c r="P142" s="4">
         <v>15</v>
       </c>
       <c r="Q142" s="2">
@@ -8383,7 +8398,7 @@
       <c r="C143" s="2">
         <v>-6.4640000000000003E-2</v>
       </c>
-      <c r="D143" s="1">
+      <c r="D143" s="4">
         <v>2</v>
       </c>
       <c r="E143" s="2">
@@ -8392,7 +8407,7 @@
       <c r="F143" s="2">
         <v>7.6520000000000005E-2</v>
       </c>
-      <c r="G143" s="3">
+      <c r="G143" s="5">
         <v>6</v>
       </c>
       <c r="H143" s="2">
@@ -8401,7 +8416,7 @@
       <c r="I143" s="2">
         <v>0.10539999999999999</v>
       </c>
-      <c r="J143" s="1">
+      <c r="J143" s="4">
         <v>9</v>
       </c>
       <c r="K143" s="2">
@@ -8410,16 +8425,16 @@
       <c r="L143" s="2">
         <v>0.11221</v>
       </c>
-      <c r="M143" s="1">
+      <c r="M143" s="4">
         <v>14</v>
       </c>
       <c r="N143" s="2">
-        <v>4.0759999999999998E-2</v>
+        <v>0.78619000000000006</v>
       </c>
       <c r="O143" s="2">
-        <v>0.94596999999999998</v>
-      </c>
-      <c r="P143" s="2">
+        <v>0.15878999999999999</v>
+      </c>
+      <c r="P143" s="4">
         <v>15</v>
       </c>
       <c r="Q143" s="2">
@@ -8439,7 +8454,7 @@
       <c r="C144" s="2">
         <v>-6.0929999999999998E-2</v>
       </c>
-      <c r="D144" s="1">
+      <c r="D144" s="4">
         <v>2</v>
       </c>
       <c r="E144" s="2">
@@ -8448,7 +8463,7 @@
       <c r="F144" s="2">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="G144" s="3">
+      <c r="G144" s="5">
         <v>6</v>
       </c>
       <c r="H144" s="2">
@@ -8457,7 +8472,7 @@
       <c r="I144" s="2">
         <v>0.10891000000000001</v>
       </c>
-      <c r="J144" s="1">
+      <c r="J144" s="4">
         <v>9</v>
       </c>
       <c r="K144" s="2">
@@ -8466,16 +8481,16 @@
       <c r="L144" s="2">
         <v>0.11237</v>
       </c>
-      <c r="M144" s="1">
+      <c r="M144" s="4">
         <v>14</v>
       </c>
       <c r="N144" s="2">
-        <v>4.8689999999999997E-2</v>
+        <v>0.80101999999999995</v>
       </c>
       <c r="O144" s="2">
-        <v>0.90983000000000003</v>
-      </c>
-      <c r="P144" s="2">
+        <v>0.15733</v>
+      </c>
+      <c r="P144" s="4">
         <v>15</v>
       </c>
       <c r="Q144" s="2">
@@ -8495,7 +8510,7 @@
       <c r="C145" s="2">
         <v>-5.7349999999999998E-2</v>
       </c>
-      <c r="D145" s="1">
+      <c r="D145" s="4">
         <v>2</v>
       </c>
       <c r="E145" s="2">
@@ -8504,7 +8519,7 @@
       <c r="F145" s="2">
         <v>8.6970000000000006E-2</v>
       </c>
-      <c r="G145" s="3">
+      <c r="G145" s="5">
         <v>6</v>
       </c>
       <c r="H145" s="2">
@@ -8513,7 +8528,7 @@
       <c r="I145" s="2">
         <v>0.11243</v>
       </c>
-      <c r="J145" s="1">
+      <c r="J145" s="4">
         <v>9</v>
       </c>
       <c r="K145" s="2">
@@ -8522,16 +8537,16 @@
       <c r="L145" s="2">
         <v>0.11226</v>
       </c>
-      <c r="M145" s="1">
+      <c r="M145" s="4">
         <v>14</v>
       </c>
       <c r="N145" s="2">
-        <v>5.7000000000000002E-2</v>
+        <v>0.81584999999999996</v>
       </c>
       <c r="O145" s="2">
-        <v>0.86777000000000004</v>
-      </c>
-      <c r="P145" s="2">
+        <v>0.15609000000000001</v>
+      </c>
+      <c r="P145" s="4">
         <v>15</v>
       </c>
       <c r="Q145" s="2">
@@ -8551,7 +8566,7 @@
       <c r="C146" s="2">
         <v>-5.3870000000000001E-2</v>
       </c>
-      <c r="D146" s="1">
+      <c r="D146" s="4">
         <v>2</v>
       </c>
       <c r="E146" s="2">
@@ -8560,7 +8575,7 @@
       <c r="F146" s="2">
         <v>9.1469999999999996E-2</v>
       </c>
-      <c r="G146" s="3">
+      <c r="G146" s="5">
         <v>6</v>
       </c>
       <c r="H146" s="2">
@@ -8569,7 +8584,7 @@
       <c r="I146" s="2">
         <v>0.11622</v>
       </c>
-      <c r="J146" s="1">
+      <c r="J146" s="4">
         <v>9</v>
       </c>
       <c r="K146" s="2">
@@ -8578,16 +8593,16 @@
       <c r="L146" s="2">
         <v>0.11235000000000001</v>
       </c>
-      <c r="M146" s="1">
+      <c r="M146" s="4">
         <v>14</v>
       </c>
       <c r="N146" s="2">
-        <v>6.5549999999999997E-2</v>
+        <v>0.83069999999999999</v>
       </c>
       <c r="O146" s="2">
-        <v>0.82643</v>
-      </c>
-      <c r="P146" s="2">
+        <v>0.15484000000000001</v>
+      </c>
+      <c r="P146" s="4">
         <v>15</v>
       </c>
       <c r="Q146" s="2">
@@ -8607,7 +8622,7 @@
       <c r="C147" s="2">
         <v>-5.042E-2</v>
       </c>
-      <c r="D147" s="1">
+      <c r="D147" s="4">
         <v>2</v>
       </c>
       <c r="E147" s="2">
@@ -8616,7 +8631,7 @@
       <c r="F147" s="2">
         <v>9.5610000000000001E-2</v>
       </c>
-      <c r="G147" s="3">
+      <c r="G147" s="5">
         <v>6</v>
       </c>
       <c r="H147" s="2">
@@ -8625,7 +8640,7 @@
       <c r="I147" s="2">
         <v>0.12025</v>
       </c>
-      <c r="J147" s="1">
+      <c r="J147" s="4">
         <v>9</v>
       </c>
       <c r="K147" s="2">
@@ -8634,16 +8649,16 @@
       <c r="L147" s="2">
         <v>0.11254</v>
       </c>
-      <c r="M147" s="1">
+      <c r="M147" s="4">
         <v>14</v>
       </c>
       <c r="N147" s="2">
-        <v>7.4270000000000003E-2</v>
+        <v>0.84553999999999996</v>
       </c>
       <c r="O147" s="2">
-        <v>0.79605999999999999</v>
-      </c>
-      <c r="P147" s="2">
+        <v>0.15373999999999999</v>
+      </c>
+      <c r="P147" s="4">
         <v>15</v>
       </c>
       <c r="Q147" s="2">
@@ -8663,7 +8678,7 @@
       <c r="C148" s="2">
         <v>-4.0800000000000003E-2</v>
       </c>
-      <c r="D148" s="1">
+      <c r="D148" s="4">
         <v>2</v>
       </c>
       <c r="E148" s="2">
@@ -8672,7 +8687,7 @@
       <c r="F148" s="2">
         <v>9.9390000000000006E-2</v>
       </c>
-      <c r="G148" s="3">
+      <c r="G148" s="5">
         <v>6</v>
       </c>
       <c r="H148" s="2">
@@ -8681,7 +8696,7 @@
       <c r="I148" s="2">
         <v>0.12456</v>
       </c>
-      <c r="J148" s="1">
+      <c r="J148" s="4">
         <v>9</v>
       </c>
       <c r="K148" s="2">
@@ -8690,16 +8705,16 @@
       <c r="L148" s="2">
         <v>0.11298</v>
       </c>
-      <c r="M148" s="1">
+      <c r="M148" s="4">
         <v>14</v>
       </c>
       <c r="N148" s="2">
-        <v>8.3119999999999999E-2</v>
+        <v>0.86038999999999999</v>
       </c>
       <c r="O148" s="2">
-        <v>0.75451000000000001</v>
-      </c>
-      <c r="P148" s="2">
+        <v>0.15296999999999999</v>
+      </c>
+      <c r="P148" s="4">
         <v>15</v>
       </c>
       <c r="Q148" s="2">
@@ -8719,7 +8734,7 @@
       <c r="C149" s="2">
         <v>5.0099999999999997E-3</v>
       </c>
-      <c r="D149" s="1">
+      <c r="D149" s="4">
         <v>2</v>
       </c>
       <c r="E149" s="2">
@@ -8728,7 +8743,7 @@
       <c r="F149" s="2">
         <v>0.10272000000000001</v>
       </c>
-      <c r="G149" s="3">
+      <c r="G149" s="5">
         <v>6</v>
       </c>
       <c r="H149" s="2">
@@ -8737,7 +8752,7 @@
       <c r="I149" s="2">
         <v>0.12909000000000001</v>
       </c>
-      <c r="J149" s="1">
+      <c r="J149" s="4">
         <v>9</v>
       </c>
       <c r="K149" s="2">
@@ -8746,16 +8761,16 @@
       <c r="L149" s="2">
         <v>0.11360000000000001</v>
       </c>
-      <c r="M149" s="1">
+      <c r="M149" s="4">
         <v>14</v>
       </c>
       <c r="N149" s="2">
-        <v>9.2060000000000003E-2</v>
+        <v>0.87522</v>
       </c>
       <c r="O149" s="2">
-        <v>0.72711999999999999</v>
-      </c>
-      <c r="P149" s="2">
+        <v>0.15246000000000001</v>
+      </c>
+      <c r="P149" s="4">
         <v>15</v>
       </c>
       <c r="Q149" s="2">
@@ -8775,7 +8790,7 @@
       <c r="C150" s="2">
         <v>4.6249999999999999E-2</v>
       </c>
-      <c r="D150" s="1">
+      <c r="D150" s="4">
         <v>2</v>
       </c>
       <c r="E150" s="2">
@@ -8784,7 +8799,7 @@
       <c r="F150" s="2">
         <v>0.10564</v>
       </c>
-      <c r="G150" s="3">
+      <c r="G150" s="5">
         <v>6</v>
       </c>
       <c r="H150" s="2">
@@ -8793,7 +8808,7 @@
       <c r="I150" s="2">
         <v>0.13364000000000001</v>
       </c>
-      <c r="J150" s="1">
+      <c r="J150" s="4">
         <v>9</v>
       </c>
       <c r="K150" s="2">
@@ -8802,16 +8817,16 @@
       <c r="L150" s="2">
         <v>0.11396000000000001</v>
       </c>
-      <c r="M150" s="1">
+      <c r="M150" s="4">
         <v>14</v>
       </c>
       <c r="N150" s="2">
-        <v>0.10108</v>
+        <v>0.89002000000000003</v>
       </c>
       <c r="O150" s="2">
-        <v>0.69833000000000001</v>
-      </c>
-      <c r="P150" s="2">
+        <v>0.15182999999999999</v>
+      </c>
+      <c r="P150" s="4">
         <v>15</v>
       </c>
       <c r="Q150" s="2">
@@ -8831,7 +8846,7 @@
       <c r="C151" s="2">
         <v>8.1500000000000003E-2</v>
       </c>
-      <c r="D151" s="1">
+      <c r="D151" s="4">
         <v>2</v>
       </c>
       <c r="E151" s="2">
@@ -8840,7 +8855,7 @@
       <c r="F151" s="2">
         <v>0.10821</v>
       </c>
-      <c r="G151" s="3">
+      <c r="G151" s="5">
         <v>6</v>
       </c>
       <c r="H151" s="2">
@@ -8849,7 +8864,7 @@
       <c r="I151" s="2">
         <v>0.13805000000000001</v>
       </c>
-      <c r="J151" s="1">
+      <c r="J151" s="4">
         <v>9</v>
       </c>
       <c r="K151" s="2">
@@ -8858,16 +8873,16 @@
       <c r="L151" s="2">
         <v>0.11384</v>
       </c>
-      <c r="M151" s="1">
+      <c r="M151" s="4">
         <v>14</v>
       </c>
       <c r="N151" s="2">
-        <v>0.11017</v>
+        <v>0.90478999999999998</v>
       </c>
       <c r="O151" s="2">
-        <v>0.67510000000000003</v>
-      </c>
-      <c r="P151" s="2">
+        <v>0.1507</v>
+      </c>
+      <c r="P151" s="4">
         <v>15</v>
       </c>
       <c r="Q151" s="2">
@@ -8887,7 +8902,7 @@
       <c r="C152" s="2">
         <v>0.11005</v>
       </c>
-      <c r="D152" s="1">
+      <c r="D152" s="4">
         <v>2</v>
       </c>
       <c r="E152" s="2">
@@ -8896,7 +8911,7 @@
       <c r="F152" s="2">
         <v>0.11047999999999999</v>
       </c>
-      <c r="G152" s="3">
+      <c r="G152" s="5">
         <v>6</v>
       </c>
       <c r="H152" s="2">
@@ -8905,7 +8920,7 @@
       <c r="I152" s="2">
         <v>0.14254</v>
       </c>
-      <c r="J152" s="1">
+      <c r="J152" s="4">
         <v>9</v>
       </c>
       <c r="K152" s="2">
@@ -8914,16 +8929,16 @@
       <c r="L152" s="2">
         <v>0.11355999999999999</v>
       </c>
-      <c r="M152" s="1">
+      <c r="M152" s="4">
         <v>14</v>
       </c>
       <c r="N152" s="2">
-        <v>0.11931</v>
+        <v>0.91952999999999996</v>
       </c>
       <c r="O152" s="2">
-        <v>0.64490000000000003</v>
-      </c>
-      <c r="P152" s="2">
+        <v>0.14981</v>
+      </c>
+      <c r="P152" s="4">
         <v>15</v>
       </c>
       <c r="Q152" s="2">
@@ -8943,7 +8958,7 @@
       <c r="C153" s="2">
         <v>0.13331999999999999</v>
       </c>
-      <c r="D153" s="1">
+      <c r="D153" s="4">
         <v>2</v>
       </c>
       <c r="E153" s="2">
@@ -8952,7 +8967,7 @@
       <c r="F153" s="2">
         <v>0.11249000000000001</v>
       </c>
-      <c r="G153" s="3">
+      <c r="G153" s="5">
         <v>6</v>
       </c>
       <c r="H153" s="2">
@@ -8961,7 +8976,7 @@
       <c r="I153" s="2">
         <v>0.14682000000000001</v>
       </c>
-      <c r="J153" s="1">
+      <c r="J153" s="4">
         <v>9</v>
       </c>
       <c r="K153" s="2">
@@ -8970,16 +8985,16 @@
       <c r="L153" s="2">
         <v>0.11248</v>
       </c>
-      <c r="M153" s="1">
+      <c r="M153" s="4">
         <v>14</v>
       </c>
       <c r="N153" s="2">
-        <v>0.12848999999999999</v>
+        <v>0.93420999999999998</v>
       </c>
       <c r="O153" s="2">
-        <v>0.62080999999999997</v>
-      </c>
-      <c r="P153" s="2">
+        <v>0.14818000000000001</v>
+      </c>
+      <c r="P153" s="4">
         <v>15</v>
       </c>
       <c r="Q153" s="2">
@@ -8999,7 +9014,7 @@
       <c r="C154" s="2">
         <v>0.15282000000000001</v>
       </c>
-      <c r="D154" s="1">
+      <c r="D154" s="4">
         <v>2</v>
       </c>
       <c r="E154" s="2">
@@ -9008,7 +9023,7 @@
       <c r="F154" s="2">
         <v>0.11430999999999999</v>
       </c>
-      <c r="G154" s="3">
+      <c r="G154" s="5">
         <v>6</v>
       </c>
       <c r="H154" s="2">
@@ -9017,7 +9032,7 @@
       <c r="I154" s="2">
         <v>0.15087999999999999</v>
       </c>
-      <c r="J154" s="1">
+      <c r="J154" s="4">
         <v>9</v>
       </c>
       <c r="K154" s="2">
@@ -9026,23 +9041,23 @@
       <c r="L154" s="2">
         <v>0.11033</v>
       </c>
-      <c r="M154" s="1">
+      <c r="M154" s="4">
         <v>14</v>
       </c>
       <c r="N154" s="2">
-        <v>0.13769000000000001</v>
+        <v>0.94871000000000005</v>
       </c>
       <c r="O154" s="2">
-        <v>0.59772000000000003</v>
-      </c>
-      <c r="P154" s="2">
+        <v>0.14596000000000001</v>
+      </c>
+      <c r="P154" s="4">
         <v>15</v>
       </c>
       <c r="Q154" s="2">
         <v>0.94871000000000005</v>
       </c>
       <c r="R154" s="2">
-        <v>9.1120000000000007E-2</v>
+        <v>9.1109999999999997E-2</v>
       </c>
     </row>
     <row r="155" spans="1:18" x14ac:dyDescent="0.3">
@@ -9055,7 +9070,7 @@
       <c r="C155" s="2">
         <v>0.16950000000000001</v>
       </c>
-      <c r="D155" s="1">
+      <c r="D155" s="4">
         <v>2</v>
       </c>
       <c r="E155" s="2">
@@ -9064,7 +9079,7 @@
       <c r="F155" s="2">
         <v>0.11598</v>
       </c>
-      <c r="G155" s="3">
+      <c r="G155" s="5">
         <v>6</v>
       </c>
       <c r="H155" s="2">
@@ -9073,7 +9088,7 @@
       <c r="I155" s="2">
         <v>0.15423999999999999</v>
       </c>
-      <c r="J155" s="1">
+      <c r="J155" s="4">
         <v>9</v>
       </c>
       <c r="K155" s="2">
@@ -9082,23 +9097,23 @@
       <c r="L155" s="2">
         <v>0.10562000000000001</v>
       </c>
-      <c r="M155" s="1">
+      <c r="M155" s="4">
         <v>14</v>
       </c>
       <c r="N155" s="2">
-        <v>0.14693000000000001</v>
+        <v>0.96270999999999995</v>
       </c>
       <c r="O155" s="2">
-        <v>0.58011000000000001</v>
-      </c>
-      <c r="P155" s="2">
+        <v>0.14161000000000001</v>
+      </c>
+      <c r="P155" s="4">
         <v>15</v>
       </c>
       <c r="Q155" s="2">
         <v>0.96270999999999995</v>
       </c>
       <c r="R155" s="2">
-        <v>8.6059999999999998E-2</v>
+        <v>8.6050000000000001E-2</v>
       </c>
     </row>
     <row r="156" spans="1:18" x14ac:dyDescent="0.3">
@@ -9111,7 +9126,7 @@
       <c r="C156" s="2">
         <v>0.18315999999999999</v>
       </c>
-      <c r="D156" s="1">
+      <c r="D156" s="4">
         <v>2</v>
       </c>
       <c r="E156" s="2">
@@ -9120,7 +9135,7 @@
       <c r="F156" s="2">
         <v>0.11745999999999999</v>
       </c>
-      <c r="G156" s="3">
+      <c r="G156" s="5">
         <v>6</v>
       </c>
       <c r="H156" s="2">
@@ -9129,7 +9144,7 @@
       <c r="I156" s="2">
         <v>0.15662999999999999</v>
       </c>
-      <c r="J156" s="1">
+      <c r="J156" s="4">
         <v>9</v>
       </c>
       <c r="K156" s="2">
@@ -9138,16 +9153,16 @@
       <c r="L156" s="2">
         <v>9.7790000000000002E-2</v>
       </c>
-      <c r="M156" s="1">
+      <c r="M156" s="4">
         <v>14</v>
       </c>
       <c r="N156" s="2">
-        <v>0.15619</v>
+        <v>0.97516999999999998</v>
       </c>
       <c r="O156" s="2">
-        <v>0.55967</v>
-      </c>
-      <c r="P156" s="2">
+        <v>0.13489999999999999</v>
+      </c>
+      <c r="P156" s="4">
         <v>15</v>
       </c>
       <c r="Q156" s="2">
@@ -9167,7 +9182,7 @@
       <c r="C157" s="2">
         <v>0.19247</v>
       </c>
-      <c r="D157" s="1">
+      <c r="D157" s="4">
         <v>2</v>
       </c>
       <c r="E157" s="2">
@@ -9176,7 +9191,7 @@
       <c r="F157" s="2">
         <v>0.11859</v>
       </c>
-      <c r="G157" s="3">
+      <c r="G157" s="5">
         <v>6</v>
       </c>
       <c r="H157" s="2">
@@ -9185,7 +9200,7 @@
       <c r="I157" s="2">
         <v>0.15769</v>
       </c>
-      <c r="J157" s="1">
+      <c r="J157" s="4">
         <v>9</v>
       </c>
       <c r="K157" s="2">
@@ -9194,16 +9209,16 @@
       <c r="L157" s="2">
         <v>8.7419999999999998E-2</v>
       </c>
-      <c r="M157" s="1">
+      <c r="M157" s="4">
         <v>14</v>
       </c>
       <c r="N157" s="2">
-        <v>0.16547000000000001</v>
+        <v>0.98446</v>
       </c>
       <c r="O157" s="2">
-        <v>0.54285000000000005</v>
-      </c>
-      <c r="P157" s="2">
+        <v>0.126</v>
+      </c>
+      <c r="P157" s="4">
         <v>15</v>
       </c>
       <c r="Q157" s="2">
@@ -9223,7 +9238,7 @@
       <c r="C158" s="2">
         <v>0.19875999999999999</v>
       </c>
-      <c r="D158" s="1">
+      <c r="D158" s="4">
         <v>2</v>
       </c>
       <c r="E158" s="2">
@@ -9232,7 +9247,7 @@
       <c r="F158" s="2">
         <v>0.11941</v>
       </c>
-      <c r="G158" s="3">
+      <c r="G158" s="5">
         <v>6</v>
       </c>
       <c r="H158" s="2">
@@ -9241,7 +9256,7 @@
       <c r="I158" s="2">
         <v>0.15769</v>
       </c>
-      <c r="J158" s="1">
+      <c r="J158" s="4">
         <v>9</v>
       </c>
       <c r="K158" s="2">
@@ -9250,23 +9265,23 @@
       <c r="L158" s="2">
         <v>7.4759999999999993E-2</v>
       </c>
-      <c r="M158" s="1">
+      <c r="M158" s="4">
         <v>14</v>
       </c>
       <c r="N158" s="2">
-        <v>0.17477000000000001</v>
+        <v>0.99085999999999996</v>
       </c>
       <c r="O158" s="2">
-        <v>0.52129000000000003</v>
-      </c>
-      <c r="P158" s="2">
+        <v>0.11423</v>
+      </c>
+      <c r="P158" s="4">
         <v>15</v>
       </c>
       <c r="Q158" s="2">
         <v>0.99085999999999996</v>
       </c>
       <c r="R158" s="2">
-        <v>5.5649999999999998E-2</v>
+        <v>5.5640000000000002E-2</v>
       </c>
     </row>
     <row r="159" spans="1:18" x14ac:dyDescent="0.3">
@@ -9279,7 +9294,7 @@
       <c r="C159" s="2">
         <v>0.20204</v>
       </c>
-      <c r="D159" s="1">
+      <c r="D159" s="4">
         <v>2</v>
       </c>
       <c r="E159" s="2">
@@ -9288,7 +9303,7 @@
       <c r="F159" s="2">
         <v>0.11999</v>
       </c>
-      <c r="G159" s="3">
+      <c r="G159" s="5">
         <v>6</v>
       </c>
       <c r="H159" s="2">
@@ -9297,7 +9312,7 @@
       <c r="I159" s="2">
         <v>0.15709000000000001</v>
       </c>
-      <c r="J159" s="1">
+      <c r="J159" s="4">
         <v>9</v>
       </c>
       <c r="K159" s="2">
@@ -9306,16 +9321,16 @@
       <c r="L159" s="2">
         <v>6.2269999999999999E-2</v>
       </c>
-      <c r="M159" s="1">
+      <c r="M159" s="4">
         <v>14</v>
       </c>
       <c r="N159" s="2">
-        <v>0.18407999999999999</v>
+        <v>0.99516000000000004</v>
       </c>
       <c r="O159" s="2">
-        <v>0.50600999999999996</v>
-      </c>
-      <c r="P159" s="2">
+        <v>9.9129999999999996E-2</v>
+      </c>
+      <c r="P159" s="4">
         <v>15</v>
       </c>
       <c r="Q159" s="2">
@@ -9335,7 +9350,7 @@
       <c r="C160" s="2">
         <v>0.20705999999999999</v>
       </c>
-      <c r="D160" s="1">
+      <c r="D160" s="4">
         <v>2</v>
       </c>
       <c r="E160" s="2">
@@ -9344,7 +9359,7 @@
       <c r="F160" s="2">
         <v>0.12035</v>
       </c>
-      <c r="G160" s="3">
+      <c r="G160" s="5">
         <v>6</v>
       </c>
       <c r="H160" s="2">
@@ -9353,7 +9368,7 @@
       <c r="I160" s="2">
         <v>0.15661</v>
       </c>
-      <c r="J160" s="1">
+      <c r="J160" s="4">
         <v>9</v>
       </c>
       <c r="K160" s="2">
@@ -9362,16 +9377,16 @@
       <c r="L160" s="2">
         <v>4.9790000000000001E-2</v>
       </c>
-      <c r="M160" s="1">
+      <c r="M160" s="4">
         <v>14</v>
       </c>
       <c r="N160" s="2">
-        <v>0.19341</v>
+        <v>0.99816000000000005</v>
       </c>
       <c r="O160" s="2">
-        <v>0.49442999999999998</v>
-      </c>
-      <c r="P160" s="2">
+        <v>7.7429999999999999E-2</v>
+      </c>
+      <c r="P160" s="4">
         <v>15</v>
       </c>
       <c r="Q160" s="2">
@@ -9391,7 +9406,7 @@
       <c r="C161" s="2">
         <v>0.21418000000000001</v>
       </c>
-      <c r="D161" s="1">
+      <c r="D161" s="4">
         <v>2</v>
       </c>
       <c r="E161" s="2">
@@ -9400,7 +9415,7 @@
       <c r="F161" s="2">
         <v>0.12033000000000001</v>
       </c>
-      <c r="G161" s="3">
+      <c r="G161" s="5">
         <v>6</v>
       </c>
       <c r="H161" s="2">
@@ -9409,7 +9424,7 @@
       <c r="I161" s="2">
         <v>0.15872</v>
       </c>
-      <c r="J161" s="1">
+      <c r="J161" s="4">
         <v>9</v>
       </c>
       <c r="K161" s="2">
@@ -9418,16 +9433,16 @@
       <c r="L161" s="2">
         <v>6.1060000000000003E-2</v>
       </c>
-      <c r="M161" s="1">
+      <c r="M161" s="4">
         <v>14</v>
       </c>
       <c r="N161" s="2">
-        <v>0.20275000000000001</v>
+        <v>0.99975000000000003</v>
       </c>
       <c r="O161" s="2">
-        <v>0.47663</v>
-      </c>
-      <c r="P161" s="2">
+        <v>2.0320000000000001E-2</v>
+      </c>
+      <c r="P161" s="4">
         <v>15</v>
       </c>
       <c r="Q161" s="2">
@@ -9435,996 +9450,6 @@
       </c>
       <c r="R161" s="2">
         <v>-5.8119999999999998E-2</v>
-      </c>
-    </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="M162" s="1">
-        <v>14</v>
-      </c>
-      <c r="N162" s="2">
-        <v>0.21210999999999999</v>
-      </c>
-      <c r="O162" s="2">
-        <v>0.46211000000000002</v>
-      </c>
-    </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="M163" s="1">
-        <v>14</v>
-      </c>
-      <c r="N163" s="2">
-        <v>0.22147</v>
-      </c>
-      <c r="O163" s="2">
-        <v>0.44862000000000002</v>
-      </c>
-    </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="M164" s="1">
-        <v>14</v>
-      </c>
-      <c r="N164" s="2">
-        <v>0.23083999999999999</v>
-      </c>
-      <c r="O164" s="2">
-        <v>0.43641999999999997</v>
-      </c>
-    </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="M165" s="1">
-        <v>14</v>
-      </c>
-      <c r="N165" s="2">
-        <v>0.24021999999999999</v>
-      </c>
-      <c r="O165" s="2">
-        <v>0.42149999999999999</v>
-      </c>
-    </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="M166" s="1">
-        <v>14</v>
-      </c>
-      <c r="N166" s="2">
-        <v>0.24959999999999999</v>
-      </c>
-      <c r="O166" s="2">
-        <v>0.40771000000000002</v>
-      </c>
-    </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="M167" s="1">
-        <v>14</v>
-      </c>
-      <c r="N167" s="2">
-        <v>0.25899</v>
-      </c>
-      <c r="O167" s="2">
-        <v>0.39998</v>
-      </c>
-    </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="M168" s="1">
-        <v>14</v>
-      </c>
-      <c r="N168" s="2">
-        <v>0.26838000000000001</v>
-      </c>
-      <c r="O168" s="2">
-        <v>0.38472000000000001</v>
-      </c>
-    </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="M169" s="1">
-        <v>14</v>
-      </c>
-      <c r="N169" s="2">
-        <v>0.27778000000000003</v>
-      </c>
-      <c r="O169" s="2">
-        <v>0.37753999999999999</v>
-      </c>
-    </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="M170" s="1">
-        <v>14</v>
-      </c>
-      <c r="N170" s="2">
-        <v>0.28717999999999999</v>
-      </c>
-      <c r="O170" s="2">
-        <v>0.36392999999999998</v>
-      </c>
-    </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="M171" s="1">
-        <v>14</v>
-      </c>
-      <c r="N171" s="2">
-        <v>0.29658000000000001</v>
-      </c>
-      <c r="O171" s="2">
-        <v>0.35596</v>
-      </c>
-    </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="M172" s="1">
-        <v>14</v>
-      </c>
-      <c r="N172" s="2">
-        <v>0.30598999999999998</v>
-      </c>
-      <c r="O172" s="2">
-        <v>0.34603</v>
-      </c>
-    </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="M173" s="1">
-        <v>14</v>
-      </c>
-      <c r="N173" s="2">
-        <v>0.31540000000000001</v>
-      </c>
-      <c r="O173" s="2">
-        <v>0.33550000000000002</v>
-      </c>
-    </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="M174" s="1">
-        <v>14</v>
-      </c>
-      <c r="N174" s="2">
-        <v>0.32482</v>
-      </c>
-      <c r="O174" s="2">
-        <v>0.32322000000000001</v>
-      </c>
-    </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="M175" s="1">
-        <v>14</v>
-      </c>
-      <c r="N175" s="2">
-        <v>0.33423000000000003</v>
-      </c>
-      <c r="O175" s="2">
-        <v>0.31619999999999998</v>
-      </c>
-    </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="M176" s="1">
-        <v>14</v>
-      </c>
-      <c r="N176" s="2">
-        <v>0.34365000000000001</v>
-      </c>
-      <c r="O176" s="2">
-        <v>0.30668000000000001</v>
-      </c>
-    </row>
-    <row r="177" spans="13:15" x14ac:dyDescent="0.3">
-      <c r="M177" s="1">
-        <v>14</v>
-      </c>
-      <c r="N177" s="2">
-        <v>0.35305999999999998</v>
-      </c>
-      <c r="O177" s="2">
-        <v>0.29771999999999998</v>
-      </c>
-    </row>
-    <row r="178" spans="13:15" x14ac:dyDescent="0.3">
-      <c r="M178" s="1">
-        <v>14</v>
-      </c>
-      <c r="N178" s="2">
-        <v>0.36248000000000002</v>
-      </c>
-      <c r="O178" s="2">
-        <v>0.28792000000000001</v>
-      </c>
-    </row>
-    <row r="179" spans="13:15" x14ac:dyDescent="0.3">
-      <c r="M179" s="1">
-        <v>14</v>
-      </c>
-      <c r="N179" s="2">
-        <v>0.37190000000000001</v>
-      </c>
-      <c r="O179" s="2">
-        <v>0.27927000000000002</v>
-      </c>
-    </row>
-    <row r="180" spans="13:15" x14ac:dyDescent="0.3">
-      <c r="M180" s="1">
-        <v>14</v>
-      </c>
-      <c r="N180" s="2">
-        <v>0.38131999999999999</v>
-      </c>
-      <c r="O180" s="2">
-        <v>0.27331</v>
-      </c>
-    </row>
-    <row r="181" spans="13:15" x14ac:dyDescent="0.3">
-      <c r="M181" s="1">
-        <v>14</v>
-      </c>
-      <c r="N181" s="2">
-        <v>0.39073999999999998</v>
-      </c>
-      <c r="O181" s="2">
-        <v>0.26386999999999999</v>
-      </c>
-    </row>
-    <row r="182" spans="13:15" x14ac:dyDescent="0.3">
-      <c r="M182" s="1">
-        <v>14</v>
-      </c>
-      <c r="N182" s="2">
-        <v>0.40017000000000003</v>
-      </c>
-      <c r="O182" s="2">
-        <v>0.25511</v>
-      </c>
-    </row>
-    <row r="183" spans="13:15" x14ac:dyDescent="0.3">
-      <c r="M183" s="1">
-        <v>14</v>
-      </c>
-      <c r="N183" s="2">
-        <v>0.40959000000000001</v>
-      </c>
-      <c r="O183" s="2">
-        <v>0.24668999999999999</v>
-      </c>
-    </row>
-    <row r="184" spans="13:15" x14ac:dyDescent="0.3">
-      <c r="M184" s="1">
-        <v>14</v>
-      </c>
-      <c r="N184" s="2">
-        <v>0.41900999999999999</v>
-      </c>
-      <c r="O184" s="2">
-        <v>0.2402</v>
-      </c>
-    </row>
-    <row r="185" spans="13:15" x14ac:dyDescent="0.3">
-      <c r="M185" s="1">
-        <v>14</v>
-      </c>
-      <c r="N185" s="2">
-        <v>0.42843999999999999</v>
-      </c>
-      <c r="O185" s="2">
-        <v>0.23174</v>
-      </c>
-    </row>
-    <row r="186" spans="13:15" x14ac:dyDescent="0.3">
-      <c r="M186" s="1">
-        <v>14</v>
-      </c>
-      <c r="N186" s="2">
-        <v>0.43786000000000003</v>
-      </c>
-      <c r="O186" s="2">
-        <v>0.22497</v>
-      </c>
-    </row>
-    <row r="187" spans="13:15" x14ac:dyDescent="0.3">
-      <c r="M187" s="1">
-        <v>14</v>
-      </c>
-      <c r="N187" s="2">
-        <v>0.44728000000000001</v>
-      </c>
-      <c r="O187" s="2">
-        <v>0.21754999999999999</v>
-      </c>
-    </row>
-    <row r="188" spans="13:15" x14ac:dyDescent="0.3">
-      <c r="M188" s="1">
-        <v>14</v>
-      </c>
-      <c r="N188" s="2">
-        <v>0.45669999999999999</v>
-      </c>
-      <c r="O188" s="2">
-        <v>0.21016000000000001</v>
-      </c>
-    </row>
-    <row r="189" spans="13:15" x14ac:dyDescent="0.3">
-      <c r="M189" s="1">
-        <v>14</v>
-      </c>
-      <c r="N189" s="2">
-        <v>0.46611999999999998</v>
-      </c>
-      <c r="O189" s="2">
-        <v>0.20226</v>
-      </c>
-    </row>
-    <row r="190" spans="13:15" x14ac:dyDescent="0.3">
-      <c r="M190" s="1">
-        <v>14</v>
-      </c>
-      <c r="N190" s="2">
-        <v>0.47554000000000002</v>
-      </c>
-      <c r="O190" s="2">
-        <v>0.19592000000000001</v>
-      </c>
-    </row>
-    <row r="191" spans="13:15" x14ac:dyDescent="0.3">
-      <c r="M191" s="1">
-        <v>14</v>
-      </c>
-      <c r="N191" s="2">
-        <v>0.48496</v>
-      </c>
-      <c r="O191" s="2">
-        <v>0.18937999999999999</v>
-      </c>
-    </row>
-    <row r="192" spans="13:15" x14ac:dyDescent="0.3">
-      <c r="M192" s="1">
-        <v>14</v>
-      </c>
-      <c r="N192" s="2">
-        <v>0.49437999999999999</v>
-      </c>
-      <c r="O192" s="2">
-        <v>0.18181</v>
-      </c>
-    </row>
-    <row r="193" spans="13:15" x14ac:dyDescent="0.3">
-      <c r="M193" s="1">
-        <v>14</v>
-      </c>
-      <c r="N193" s="2">
-        <v>0.50380000000000003</v>
-      </c>
-      <c r="O193" s="2">
-        <v>0.17641000000000001</v>
-      </c>
-    </row>
-    <row r="194" spans="13:15" x14ac:dyDescent="0.3">
-      <c r="M194" s="1">
-        <v>14</v>
-      </c>
-      <c r="N194" s="2">
-        <v>0.51322000000000001</v>
-      </c>
-      <c r="O194" s="2">
-        <v>0.16977</v>
-      </c>
-    </row>
-    <row r="195" spans="13:15" x14ac:dyDescent="0.3">
-      <c r="M195" s="1">
-        <v>14</v>
-      </c>
-      <c r="N195" s="2">
-        <v>0.52263999999999999</v>
-      </c>
-      <c r="O195" s="2">
-        <v>0.16278999999999999</v>
-      </c>
-    </row>
-    <row r="196" spans="13:15" x14ac:dyDescent="0.3">
-      <c r="M196" s="1">
-        <v>14</v>
-      </c>
-      <c r="N196" s="2">
-        <v>0.53205999999999998</v>
-      </c>
-      <c r="O196" s="2">
-        <v>0.15689</v>
-      </c>
-    </row>
-    <row r="197" spans="13:15" x14ac:dyDescent="0.3">
-      <c r="M197" s="1">
-        <v>14</v>
-      </c>
-      <c r="N197" s="2">
-        <v>0.54147999999999996</v>
-      </c>
-      <c r="O197" s="2">
-        <v>0.15039</v>
-      </c>
-    </row>
-    <row r="198" spans="13:15" x14ac:dyDescent="0.3">
-      <c r="M198" s="1">
-        <v>14</v>
-      </c>
-      <c r="N198" s="2">
-        <v>0.55089999999999995</v>
-      </c>
-      <c r="O198" s="2">
-        <v>0.14482</v>
-      </c>
-    </row>
-    <row r="199" spans="13:15" x14ac:dyDescent="0.3">
-      <c r="M199" s="1">
-        <v>14</v>
-      </c>
-      <c r="N199" s="2">
-        <v>0.56030999999999997</v>
-      </c>
-      <c r="O199" s="2">
-        <v>0.13861000000000001</v>
-      </c>
-    </row>
-    <row r="200" spans="13:15" x14ac:dyDescent="0.3">
-      <c r="M200" s="1">
-        <v>14</v>
-      </c>
-      <c r="N200" s="2">
-        <v>0.56972</v>
-      </c>
-      <c r="O200" s="2">
-        <v>0.13286999999999999</v>
-      </c>
-    </row>
-    <row r="201" spans="13:15" x14ac:dyDescent="0.3">
-      <c r="M201" s="1">
-        <v>14</v>
-      </c>
-      <c r="N201" s="2">
-        <v>0.57913999999999999</v>
-      </c>
-      <c r="O201" s="2">
-        <v>0.12698999999999999</v>
-      </c>
-    </row>
-    <row r="202" spans="13:15" x14ac:dyDescent="0.3">
-      <c r="M202" s="1">
-        <v>14</v>
-      </c>
-      <c r="N202" s="2">
-        <v>0.58855000000000002</v>
-      </c>
-      <c r="O202" s="2">
-        <v>0.12139999999999999</v>
-      </c>
-    </row>
-    <row r="203" spans="13:15" x14ac:dyDescent="0.3">
-      <c r="M203" s="1">
-        <v>14</v>
-      </c>
-      <c r="N203" s="2">
-        <v>0.59796000000000005</v>
-      </c>
-      <c r="O203" s="2">
-        <v>0.11629</v>
-      </c>
-    </row>
-    <row r="204" spans="13:15" x14ac:dyDescent="0.3">
-      <c r="M204" s="1">
-        <v>14</v>
-      </c>
-      <c r="N204" s="2">
-        <v>0.60736999999999997</v>
-      </c>
-      <c r="O204" s="2">
-        <v>0.11044</v>
-      </c>
-    </row>
-    <row r="205" spans="13:15" x14ac:dyDescent="0.3">
-      <c r="M205" s="1">
-        <v>14</v>
-      </c>
-      <c r="N205" s="2">
-        <v>0.61677999999999999</v>
-      </c>
-      <c r="O205" s="2">
-        <v>0.10549</v>
-      </c>
-    </row>
-    <row r="206" spans="13:15" x14ac:dyDescent="0.3">
-      <c r="M206" s="1">
-        <v>14</v>
-      </c>
-      <c r="N206" s="2">
-        <v>0.62619000000000002</v>
-      </c>
-      <c r="O206" s="2">
-        <v>0.10048</v>
-      </c>
-    </row>
-    <row r="207" spans="13:15" x14ac:dyDescent="0.3">
-      <c r="M207" s="1">
-        <v>14</v>
-      </c>
-      <c r="N207" s="2">
-        <v>0.63560000000000005</v>
-      </c>
-      <c r="O207" s="2">
-        <v>9.5659999999999995E-2</v>
-      </c>
-    </row>
-    <row r="208" spans="13:15" x14ac:dyDescent="0.3">
-      <c r="M208" s="1">
-        <v>14</v>
-      </c>
-      <c r="N208" s="2">
-        <v>0.64502000000000004</v>
-      </c>
-      <c r="O208" s="2">
-        <v>9.1139999999999999E-2</v>
-      </c>
-    </row>
-    <row r="209" spans="13:15" x14ac:dyDescent="0.3">
-      <c r="M209" s="1">
-        <v>14</v>
-      </c>
-      <c r="N209" s="2">
-        <v>0.65442999999999996</v>
-      </c>
-      <c r="O209" s="2">
-        <v>8.6029999999999995E-2</v>
-      </c>
-    </row>
-    <row r="210" spans="13:15" x14ac:dyDescent="0.3">
-      <c r="M210" s="1">
-        <v>14</v>
-      </c>
-      <c r="N210" s="2">
-        <v>0.66383999999999999</v>
-      </c>
-      <c r="O210" s="2">
-        <v>8.2119999999999999E-2</v>
-      </c>
-    </row>
-    <row r="211" spans="13:15" x14ac:dyDescent="0.3">
-      <c r="M211" s="1">
-        <v>14</v>
-      </c>
-      <c r="N211" s="2">
-        <v>0.67325000000000002</v>
-      </c>
-      <c r="O211" s="2">
-        <v>7.7189999999999995E-2</v>
-      </c>
-    </row>
-    <row r="212" spans="13:15" x14ac:dyDescent="0.3">
-      <c r="M212" s="1">
-        <v>14</v>
-      </c>
-      <c r="N212" s="2">
-        <v>0.68266000000000004</v>
-      </c>
-      <c r="O212" s="2">
-        <v>7.2989999999999999E-2</v>
-      </c>
-    </row>
-    <row r="213" spans="13:15" x14ac:dyDescent="0.3">
-      <c r="M213" s="1">
-        <v>14</v>
-      </c>
-      <c r="N213" s="2">
-        <v>0.69208000000000003</v>
-      </c>
-      <c r="O213" s="2">
-        <v>6.8699999999999997E-2</v>
-      </c>
-    </row>
-    <row r="214" spans="13:15" x14ac:dyDescent="0.3">
-      <c r="M214" s="1">
-        <v>14</v>
-      </c>
-      <c r="N214" s="2">
-        <v>0.70148999999999995</v>
-      </c>
-      <c r="O214" s="2">
-        <v>6.5229999999999996E-2</v>
-      </c>
-    </row>
-    <row r="215" spans="13:15" x14ac:dyDescent="0.3">
-      <c r="M215" s="1">
-        <v>14</v>
-      </c>
-      <c r="N215" s="2">
-        <v>0.71091000000000004</v>
-      </c>
-      <c r="O215" s="2">
-        <v>6.1069999999999999E-2</v>
-      </c>
-    </row>
-    <row r="216" spans="13:15" x14ac:dyDescent="0.3">
-      <c r="M216" s="1">
-        <v>14</v>
-      </c>
-      <c r="N216" s="2">
-        <v>0.72033999999999998</v>
-      </c>
-      <c r="O216" s="2">
-        <v>5.7029999999999997E-2</v>
-      </c>
-    </row>
-    <row r="217" spans="13:15" x14ac:dyDescent="0.3">
-      <c r="M217" s="1">
-        <v>14</v>
-      </c>
-      <c r="N217" s="2">
-        <v>0.72975999999999996</v>
-      </c>
-      <c r="O217" s="2">
-        <v>5.3510000000000002E-2</v>
-      </c>
-    </row>
-    <row r="218" spans="13:15" x14ac:dyDescent="0.3">
-      <c r="M218" s="1">
-        <v>14</v>
-      </c>
-      <c r="N218" s="2">
-        <v>0.73919000000000001</v>
-      </c>
-      <c r="O218" s="2">
-        <v>5.0209999999999998E-2</v>
-      </c>
-    </row>
-    <row r="219" spans="13:15" x14ac:dyDescent="0.3">
-      <c r="M219" s="1">
-        <v>14</v>
-      </c>
-      <c r="N219" s="2">
-        <v>0.74863000000000002</v>
-      </c>
-      <c r="O219" s="2">
-        <v>4.6309999999999997E-2</v>
-      </c>
-    </row>
-    <row r="220" spans="13:15" x14ac:dyDescent="0.3">
-      <c r="M220" s="1">
-        <v>14</v>
-      </c>
-      <c r="N220" s="2">
-        <v>0.75807000000000002</v>
-      </c>
-      <c r="O220" s="2">
-        <v>4.2900000000000001E-2</v>
-      </c>
-    </row>
-    <row r="221" spans="13:15" x14ac:dyDescent="0.3">
-      <c r="M221" s="1">
-        <v>14</v>
-      </c>
-      <c r="N221" s="2">
-        <v>0.76751000000000003</v>
-      </c>
-      <c r="O221" s="2">
-        <v>3.909E-2</v>
-      </c>
-    </row>
-    <row r="222" spans="13:15" x14ac:dyDescent="0.3">
-      <c r="M222" s="1">
-        <v>14</v>
-      </c>
-      <c r="N222" s="2">
-        <v>0.77695999999999998</v>
-      </c>
-      <c r="O222" s="2">
-        <v>3.5150000000000001E-2</v>
-      </c>
-    </row>
-    <row r="223" spans="13:15" x14ac:dyDescent="0.3">
-      <c r="M223" s="1">
-        <v>14</v>
-      </c>
-      <c r="N223" s="2">
-        <v>0.78641000000000005</v>
-      </c>
-      <c r="O223" s="2">
-        <v>3.1739999999999997E-2</v>
-      </c>
-    </row>
-    <row r="224" spans="13:15" x14ac:dyDescent="0.3">
-      <c r="M224" s="1">
-        <v>14</v>
-      </c>
-      <c r="N224" s="2">
-        <v>0.79586000000000001</v>
-      </c>
-      <c r="O224" s="2">
-        <v>2.767E-2</v>
-      </c>
-    </row>
-    <row r="225" spans="13:15" x14ac:dyDescent="0.3">
-      <c r="M225" s="1">
-        <v>14</v>
-      </c>
-      <c r="N225" s="2">
-        <v>0.80532000000000004</v>
-      </c>
-      <c r="O225" s="2">
-        <v>2.3640000000000001E-2</v>
-      </c>
-    </row>
-    <row r="226" spans="13:15" x14ac:dyDescent="0.3">
-      <c r="M226" s="1">
-        <v>14</v>
-      </c>
-      <c r="N226" s="2">
-        <v>0.81476999999999999</v>
-      </c>
-      <c r="O226" s="2">
-        <v>1.983E-2</v>
-      </c>
-    </row>
-    <row r="227" spans="13:15" x14ac:dyDescent="0.3">
-      <c r="M227" s="1">
-        <v>14</v>
-      </c>
-      <c r="N227" s="2">
-        <v>0.82423000000000002</v>
-      </c>
-      <c r="O227" s="2">
-        <v>1.5769999999999999E-2</v>
-      </c>
-    </row>
-    <row r="228" spans="13:15" x14ac:dyDescent="0.3">
-      <c r="M228" s="1">
-        <v>14</v>
-      </c>
-      <c r="N228" s="2">
-        <v>0.83369000000000004</v>
-      </c>
-      <c r="O228" s="2">
-        <v>1.1429999999999999E-2</v>
-      </c>
-    </row>
-    <row r="229" spans="13:15" x14ac:dyDescent="0.3">
-      <c r="M229" s="1">
-        <v>14</v>
-      </c>
-      <c r="N229" s="2">
-        <v>0.84314999999999996</v>
-      </c>
-      <c r="O229" s="2">
-        <v>7.2500000000000004E-3</v>
-      </c>
-    </row>
-    <row r="230" spans="13:15" x14ac:dyDescent="0.3">
-      <c r="M230" s="1">
-        <v>14</v>
-      </c>
-      <c r="N230" s="2">
-        <v>0.85262000000000004</v>
-      </c>
-      <c r="O230" s="2">
-        <v>3.1800000000000001E-3</v>
-      </c>
-    </row>
-    <row r="231" spans="13:15" x14ac:dyDescent="0.3">
-      <c r="M231" s="1">
-        <v>14</v>
-      </c>
-      <c r="N231" s="2">
-        <v>0.86207999999999996</v>
-      </c>
-      <c r="O231" s="2">
-        <v>-1.49E-3</v>
-      </c>
-    </row>
-    <row r="232" spans="13:15" x14ac:dyDescent="0.3">
-      <c r="M232" s="1">
-        <v>14</v>
-      </c>
-      <c r="N232" s="2">
-        <v>0.87153000000000003</v>
-      </c>
-      <c r="O232" s="2">
-        <v>-5.62E-3</v>
-      </c>
-    </row>
-    <row r="233" spans="13:15" x14ac:dyDescent="0.3">
-      <c r="M233" s="1">
-        <v>14</v>
-      </c>
-      <c r="N233" s="2">
-        <v>0.88097000000000003</v>
-      </c>
-      <c r="O233" s="2">
-        <v>-1.005E-2</v>
-      </c>
-    </row>
-    <row r="234" spans="13:15" x14ac:dyDescent="0.3">
-      <c r="M234" s="1">
-        <v>14</v>
-      </c>
-      <c r="N234" s="2">
-        <v>0.89039999999999997</v>
-      </c>
-      <c r="O234" s="2">
-        <v>-1.5769999999999999E-2</v>
-      </c>
-    </row>
-    <row r="235" spans="13:15" x14ac:dyDescent="0.3">
-      <c r="M235" s="1">
-        <v>14</v>
-      </c>
-      <c r="N235" s="2">
-        <v>0.89981999999999995</v>
-      </c>
-      <c r="O235" s="2">
-        <v>-2.0459999999999999E-2</v>
-      </c>
-    </row>
-    <row r="236" spans="13:15" x14ac:dyDescent="0.3">
-      <c r="M236" s="1">
-        <v>14</v>
-      </c>
-      <c r="N236" s="2">
-        <v>0.90922999999999998</v>
-      </c>
-      <c r="O236" s="2">
-        <v>-2.7359999999999999E-2</v>
-      </c>
-    </row>
-    <row r="237" spans="13:15" x14ac:dyDescent="0.3">
-      <c r="M237" s="1">
-        <v>14</v>
-      </c>
-      <c r="N237" s="2">
-        <v>0.91861999999999999</v>
-      </c>
-      <c r="O237" s="2">
-        <v>-3.3250000000000002E-2</v>
-      </c>
-    </row>
-    <row r="238" spans="13:15" x14ac:dyDescent="0.3">
-      <c r="M238" s="1">
-        <v>14</v>
-      </c>
-      <c r="N238" s="2">
-        <v>0.92798999999999998</v>
-      </c>
-      <c r="O238" s="2">
-        <v>-4.0930000000000001E-2</v>
-      </c>
-    </row>
-    <row r="239" spans="13:15" x14ac:dyDescent="0.3">
-      <c r="M239" s="1">
-        <v>14</v>
-      </c>
-      <c r="N239" s="2">
-        <v>0.93730999999999998</v>
-      </c>
-      <c r="O239" s="2">
-        <v>-4.9009999999999998E-2</v>
-      </c>
-    </row>
-    <row r="240" spans="13:15" x14ac:dyDescent="0.3">
-      <c r="M240" s="1">
-        <v>14</v>
-      </c>
-      <c r="N240" s="2">
-        <v>0.94655999999999996</v>
-      </c>
-      <c r="O240" s="2">
-        <v>-5.885E-2</v>
-      </c>
-    </row>
-    <row r="241" spans="13:15" x14ac:dyDescent="0.3">
-      <c r="M241" s="1">
-        <v>14</v>
-      </c>
-      <c r="N241" s="2">
-        <v>0.95564000000000004</v>
-      </c>
-      <c r="O241" s="2">
-        <v>-7.0650000000000004E-2</v>
-      </c>
-    </row>
-    <row r="242" spans="13:15" x14ac:dyDescent="0.3">
-      <c r="M242" s="1">
-        <v>14</v>
-      </c>
-      <c r="N242" s="2">
-        <v>0.96440000000000003</v>
-      </c>
-      <c r="O242" s="2">
-        <v>-8.4919999999999995E-2</v>
-      </c>
-    </row>
-    <row r="243" spans="13:15" x14ac:dyDescent="0.3">
-      <c r="M243" s="1">
-        <v>14</v>
-      </c>
-      <c r="N243" s="2">
-        <v>0.97248999999999997</v>
-      </c>
-      <c r="O243" s="2">
-        <v>-0.10253</v>
-      </c>
-    </row>
-    <row r="244" spans="13:15" x14ac:dyDescent="0.3">
-      <c r="M244" s="1">
-        <v>14</v>
-      </c>
-      <c r="N244" s="2">
-        <v>0.97935000000000005</v>
-      </c>
-      <c r="O244" s="2">
-        <v>-0.1229</v>
-      </c>
-    </row>
-    <row r="245" spans="13:15" x14ac:dyDescent="0.3">
-      <c r="M245" s="1">
-        <v>14</v>
-      </c>
-      <c r="N245" s="2">
-        <v>0.98480999999999996</v>
-      </c>
-      <c r="O245" s="2">
-        <v>-0.14430999999999999</v>
-      </c>
-    </row>
-    <row r="246" spans="13:15" x14ac:dyDescent="0.3">
-      <c r="M246" s="1">
-        <v>14</v>
-      </c>
-      <c r="N246" s="2">
-        <v>0.98912</v>
-      </c>
-      <c r="O246" s="2">
-        <v>-0.16932</v>
-      </c>
-    </row>
-    <row r="247" spans="13:15" x14ac:dyDescent="0.3">
-      <c r="M247" s="1">
-        <v>14</v>
-      </c>
-      <c r="N247" s="2">
-        <v>0.99245000000000005</v>
-      </c>
-      <c r="O247" s="2">
-        <v>-0.19405</v>
-      </c>
-    </row>
-    <row r="248" spans="13:15" x14ac:dyDescent="0.3">
-      <c r="M248" s="1">
-        <v>14</v>
-      </c>
-      <c r="N248" s="2">
-        <v>0.99502999999999997</v>
-      </c>
-      <c r="O248" s="2">
-        <v>-0.21546000000000001</v>
-      </c>
-    </row>
-    <row r="249" spans="13:15" x14ac:dyDescent="0.3">
-      <c r="M249" s="1">
-        <v>14</v>
-      </c>
-      <c r="N249" s="2">
-        <v>0.99707999999999997</v>
-      </c>
-      <c r="O249" s="2">
-        <v>-0.23954</v>
-      </c>
-    </row>
-    <row r="250" spans="13:15" x14ac:dyDescent="0.3">
-      <c r="M250" s="1">
-        <v>14</v>
-      </c>
-      <c r="N250" s="2">
-        <v>0.99877000000000005</v>
-      </c>
-      <c r="O250" s="2">
-        <v>-0.25873000000000002</v>
-      </c>
-    </row>
-    <row r="251" spans="13:15" x14ac:dyDescent="0.3">
-      <c r="M251" s="1">
-        <v>14</v>
-      </c>
-      <c r="N251" s="2">
-        <v>0.99975000000000003</v>
-      </c>
-      <c r="O251" s="2">
-        <v>-0.24696000000000001</v>
       </c>
     </row>
   </sheetData>
